--- a/Excel Files/Auto_iNJECTION MOULDING_copy.xlsx
+++ b/Excel Files/Auto_iNJECTION MOULDING_copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="18530" windowHeight="6950" tabRatio="777" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="18530" windowHeight="6950" tabRatio="777" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="DASHBOARD" sheetId="1" state="visible" r:id="rId1"/>
@@ -83,14 +83,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="14">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0_ "/>
-    <numFmt numFmtId="166" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="170" formatCode="0_ "/>
+    <numFmt numFmtId="171" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="172" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="173" formatCode="dd/mm/yyyy\,hh:mm:ss"/>
     <numFmt numFmtId="174" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
@@ -98,10 +98,17 @@
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="dd/mm/yy\,hh:mm:ss"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="53">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -1767,6 +1774,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1776,20 +1803,33 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1815,34 +1855,12 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1852,17 +1870,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1889,93 +1896,93 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0"/>
+    <xf numFmtId="43" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="619">
+  <cellXfs count="620">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1987,11 +1994,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2017,17 +2024,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2045,7 +2052,7 @@
     <xf numFmtId="1" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="18" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2059,14 +2066,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2075,43 +2082,43 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2121,7 +2128,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2137,7 +2144,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2145,16 +2152,16 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="23" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="27" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2169,14 +2176,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2205,19 +2212,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2229,32 +2236,32 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="17" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="18" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="18" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="18" fillId="18" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2273,11 +2280,11 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="1" pivotButton="0" quotePrefix="0" xfId="7"/>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="1" pivotButton="0" quotePrefix="0" xfId="7"/>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="1" pivotButton="0" quotePrefix="0" xfId="7"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="40" fillId="29" borderId="1" pivotButton="0" quotePrefix="0" xfId="7"/>
+    <xf numFmtId="2" fontId="41" fillId="29" borderId="1" pivotButton="0" quotePrefix="0" xfId="7"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2287,11 +2294,11 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2306,10 +2313,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2327,28 +2334,28 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="14" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="16" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="9" fontId="22" fillId="16" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2364,124 +2371,124 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="43" pivotButton="0" quotePrefix="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="37" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="39" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="6"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="1" fontId="45" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="1" fontId="45" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="45" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="46" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="6"/>
     <xf numFmtId="1" fontId="0" fillId="17" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2493,144 +2500,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="51" fillId="35" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="52" fillId="35" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="32" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="32" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="53" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="1" fontId="45" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="53" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="21" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="21" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="1" fontId="46" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="46" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="47" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="45" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="46" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="45" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="46" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="45" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="46" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="1" fontId="15" fillId="8" borderId="4" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="45" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="45" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="45" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="45" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="8" borderId="4" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2640,7 +2647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2649,134 +2656,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="1" fontId="47" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="46" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="47" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="166" fontId="21" fillId="16" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="8" borderId="4" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="18" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2785,81 +2735,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="35" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="164" fontId="52" fillId="35" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="46" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="45" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="45" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="45" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="167" fontId="46" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="46" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="50" fillId="17" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="51" fillId="17" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="170" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="172" fontId="42" fillId="7" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="171" fontId="22" fillId="16" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="172" fontId="43" fillId="7" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="172" fontId="19" fillId="7" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="172" fontId="20" fillId="7" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="174" fontId="19" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="174" fontId="20" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="174" fontId="19" fillId="7" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="175" fontId="30" fillId="26" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="174" fontId="20" fillId="7" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="175" fontId="31" fillId="26" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2871,43 +2877,31 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="171" fontId="15" fillId="8" borderId="4" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="80" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="75" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="75" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2915,73 +2909,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="78" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="79" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="45" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="166" fontId="51" fillId="17" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="65" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="168" fontId="50" fillId="17" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="45" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="17" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="47" fillId="17" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="17" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="17" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2989,121 +2994,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="69" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="65" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="47" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="18" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="82" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="83" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="43" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="177" fontId="44" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3112,25 +3119,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3142,190 +3149,191 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="87" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="88" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="51" fillId="35" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="52" fillId="35" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="46" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="45" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="167" fontId="46" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="45" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="45" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="169" fontId="46" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="17" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="47" fillId="17" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="50" fillId="17" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="51" fillId="17" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="50" fillId="17" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="51" fillId="17" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="170" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="166" fontId="21" fillId="16" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="171" fontId="22" fillId="16" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="42" fillId="7" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="172" fontId="43" fillId="7" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="172" fontId="19" fillId="7" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="172" fontId="20" fillId="7" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="174" fontId="19" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="174" fontId="20" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="174" fontId="19" fillId="7" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="177" fontId="43" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="174" fontId="20" fillId="7" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="177" fontId="44" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="30" fillId="26" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="175" fontId="31" fillId="26" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3337,7 +3345,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="8" borderId="4" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="171" fontId="15" fillId="8" borderId="4" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3352,6 +3360,28 @@
     <cellStyle name="Comma 2 2" xfId="9"/>
   </cellStyles>
   <dxfs count="159">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.7999511703848384"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center"/>
@@ -5227,28 +5257,6 @@
         </patternFill>
       </fill>
       <alignment vertical="center"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.7999511703848384"/>
-        </patternFill>
-      </fill>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -10519,18 +10527,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table18" displayName="Table18" ref="A3:L19" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A3:L19"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Opn No" dataDxfId="110"/>
-    <tableColumn id="2" name="Operation Name" dataDxfId="109"/>
-    <tableColumn id="3" name="M/c Selected" dataDxfId="108"/>
-    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="107"/>
-    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="106"/>
-    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="105"/>
-    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="104"/>
-    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="103"/>
-    <tableColumn id="9" name="Programming" dataDxfId="102"/>
-    <tableColumn id="10" name="Tool Change Time" dataDxfId="101"/>
-    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="100"/>
-    <tableColumn id="12" name="M/c Time in Hrs" dataDxfId="99">
+    <tableColumn id="1" name="Opn No" dataDxfId="111"/>
+    <tableColumn id="2" name="Operation Name" dataDxfId="110"/>
+    <tableColumn id="3" name="M/c Selected" dataDxfId="109"/>
+    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="108"/>
+    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="107"/>
+    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="106"/>
+    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="105"/>
+    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="104"/>
+    <tableColumn id="9" name="Programming" dataDxfId="103"/>
+    <tableColumn id="10" name="Tool Change Time" dataDxfId="102"/>
+    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="101"/>
+    <tableColumn id="12" name="M/c Time in Hrs" dataDxfId="100">
       <calculatedColumnFormula>ROUNDUP((K4+H4+I4+J4)/60,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10542,18 +10550,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table19" displayName="Table19" ref="A41:L57" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A41:L57"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Opn No" dataDxfId="98"/>
-    <tableColumn id="2" name="Operation Name" dataDxfId="97"/>
-    <tableColumn id="3" name="M/c Selected" dataDxfId="96"/>
-    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="95"/>
-    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="94"/>
-    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="93"/>
-    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="92"/>
-    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="91"/>
-    <tableColumn id="9" name="Programming" dataDxfId="90"/>
-    <tableColumn id="10" name="Tool Change Time" dataDxfId="89"/>
-    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="88"/>
-    <tableColumn id="12" name="M/c Time" dataDxfId="87"/>
+    <tableColumn id="1" name="Opn No" dataDxfId="99"/>
+    <tableColumn id="2" name="Operation Name" dataDxfId="98"/>
+    <tableColumn id="3" name="M/c Selected" dataDxfId="97"/>
+    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="96"/>
+    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="95"/>
+    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="94"/>
+    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="93"/>
+    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="92"/>
+    <tableColumn id="9" name="Programming" dataDxfId="91"/>
+    <tableColumn id="10" name="Tool Change Time" dataDxfId="90"/>
+    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="89"/>
+    <tableColumn id="12" name="M/c Time" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10563,18 +10571,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table20" displayName="Table20" ref="A22:L38" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A22:L38"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Opn No" dataDxfId="86"/>
-    <tableColumn id="2" name="Operation Name" dataDxfId="85"/>
-    <tableColumn id="3" name="M/c Selected" dataDxfId="84"/>
-    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="83"/>
-    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="82"/>
-    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="81"/>
-    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="80"/>
-    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="79"/>
-    <tableColumn id="9" name="Programming" dataDxfId="78"/>
-    <tableColumn id="10" name="Tool Change Time" dataDxfId="77"/>
-    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="76"/>
-    <tableColumn id="12" name="M/c Time in Hrs" dataDxfId="75">
+    <tableColumn id="1" name="Opn No" dataDxfId="87"/>
+    <tableColumn id="2" name="Operation Name" dataDxfId="86"/>
+    <tableColumn id="3" name="M/c Selected" dataDxfId="85"/>
+    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="84"/>
+    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="83"/>
+    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="82"/>
+    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="81"/>
+    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="80"/>
+    <tableColumn id="9" name="Programming" dataDxfId="79"/>
+    <tableColumn id="10" name="Tool Change Time" dataDxfId="78"/>
+    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="77"/>
+    <tableColumn id="12" name="M/c Time in Hrs" dataDxfId="76">
       <calculatedColumnFormula>ROUNDUP((K23+H23+I23+J23)/60,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10586,24 +10594,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table21" displayName="Table21" ref="A60:L76" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A60:L76"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Opn No" dataDxfId="74"/>
-    <tableColumn id="2" name="Operation Name" dataDxfId="73"/>
-    <tableColumn id="3" name="M/c Selected" dataDxfId="72"/>
-    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="71"/>
-    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="70"/>
-    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="69">
+    <tableColumn id="1" name="Opn No" dataDxfId="75"/>
+    <tableColumn id="2" name="Operation Name" dataDxfId="74"/>
+    <tableColumn id="3" name="M/c Selected" dataDxfId="73"/>
+    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="72"/>
+    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="71"/>
+    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="70">
       <calculatedColumnFormula>D61-E61</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="68">
+    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="69">
       <calculatedColumnFormula>VLOOKUP(C61,Table15[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="67">
+    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="68">
       <calculatedColumnFormula>F61/G61</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Programming" dataDxfId="66"/>
-    <tableColumn id="10" name="Tool Change Time" dataDxfId="65"/>
-    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="64"/>
-    <tableColumn id="12" name="M/c Time" dataDxfId="63">
+    <tableColumn id="9" name="Programming" dataDxfId="67"/>
+    <tableColumn id="10" name="Tool Change Time" dataDxfId="66"/>
+    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="65"/>
+    <tableColumn id="12" name="M/c Time" dataDxfId="64">
       <calculatedColumnFormula>ROUNDUP((K61+H61+I61+J61)/60,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10615,18 +10623,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table22" displayName="Table22" ref="A79:L95" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A79:L95"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Opn No" dataDxfId="62"/>
-    <tableColumn id="2" name="Operation Name" dataDxfId="61"/>
-    <tableColumn id="3" name="M/c Selected" dataDxfId="60"/>
-    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="59"/>
-    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="58"/>
-    <tableColumn id="6" name="Material to be removed in m3" dataDxfId="57"/>
-    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="56"/>
-    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="55"/>
-    <tableColumn id="9" name="Programming" dataDxfId="54"/>
-    <tableColumn id="10" name="Tool Change Time" dataDxfId="53"/>
-    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="52"/>
-    <tableColumn id="12" name="M/c Time" dataDxfId="51"/>
+    <tableColumn id="1" name="Opn No" dataDxfId="63"/>
+    <tableColumn id="2" name="Operation Name" dataDxfId="62"/>
+    <tableColumn id="3" name="M/c Selected" dataDxfId="61"/>
+    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="60"/>
+    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="59"/>
+    <tableColumn id="6" name="Material to be removed in m3" dataDxfId="58"/>
+    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="57"/>
+    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="56"/>
+    <tableColumn id="9" name="Programming" dataDxfId="55"/>
+    <tableColumn id="10" name="Tool Change Time" dataDxfId="54"/>
+    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="53"/>
+    <tableColumn id="12" name="M/c Time" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10636,18 +10644,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table23" displayName="Table23" ref="A98:L115" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A98:L115"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Opn No" dataDxfId="50"/>
-    <tableColumn id="2" name="Operation Name" dataDxfId="49"/>
-    <tableColumn id="3" name="M/c Selected" dataDxfId="48"/>
-    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="47"/>
-    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="46"/>
-    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="45"/>
-    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="44"/>
-    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="43"/>
-    <tableColumn id="9" name="Programming" dataDxfId="42"/>
-    <tableColumn id="10" name="Tool Change Time" dataDxfId="41"/>
-    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="40"/>
-    <tableColumn id="12" name="M/c Time" dataDxfId="39"/>
+    <tableColumn id="1" name="Opn No" dataDxfId="51"/>
+    <tableColumn id="2" name="Operation Name" dataDxfId="50"/>
+    <tableColumn id="3" name="M/c Selected" dataDxfId="49"/>
+    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="48"/>
+    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="47"/>
+    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="46"/>
+    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="45"/>
+    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="44"/>
+    <tableColumn id="9" name="Programming" dataDxfId="43"/>
+    <tableColumn id="10" name="Tool Change Time" dataDxfId="42"/>
+    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="41"/>
+    <tableColumn id="12" name="M/c Time" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10657,18 +10665,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table24" displayName="Table24" ref="A119:L136" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A119:L136"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Opn No" dataDxfId="38"/>
-    <tableColumn id="2" name="Operation Name" dataDxfId="37"/>
-    <tableColumn id="3" name="M/c Selected" dataDxfId="36"/>
-    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="35"/>
-    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="34"/>
-    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="33"/>
-    <tableColumn id="7" name="Standard MRR in icm per min" dataDxfId="32"/>
-    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="31"/>
-    <tableColumn id="9" name="Programming" dataDxfId="30"/>
-    <tableColumn id="10" name="Tool Change Time" dataDxfId="29"/>
-    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="28"/>
-    <tableColumn id="12" name="M/c Time" dataDxfId="27"/>
+    <tableColumn id="1" name="Opn No" dataDxfId="39"/>
+    <tableColumn id="2" name="Operation Name" dataDxfId="38"/>
+    <tableColumn id="3" name="M/c Selected" dataDxfId="37"/>
+    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="36"/>
+    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="35"/>
+    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="34"/>
+    <tableColumn id="7" name="Standard MRR in icm per min" dataDxfId="33"/>
+    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="32"/>
+    <tableColumn id="9" name="Programming" dataDxfId="31"/>
+    <tableColumn id="10" name="Tool Change Time" dataDxfId="30"/>
+    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="29"/>
+    <tableColumn id="12" name="M/c Time" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10678,18 +10686,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table25" displayName="Table25" ref="A139:L155" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A139:L155"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Opn No" dataDxfId="26"/>
-    <tableColumn id="2" name="Operation Name" dataDxfId="25"/>
-    <tableColumn id="3" name="M/c Selected" dataDxfId="24"/>
-    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="23"/>
-    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="22"/>
-    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="21"/>
-    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="20"/>
-    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="19"/>
-    <tableColumn id="9" name="Programming" dataDxfId="18"/>
-    <tableColumn id="10" name="Tool Change Time" dataDxfId="17"/>
-    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="16"/>
-    <tableColumn id="12" name="M/c Time" dataDxfId="15"/>
+    <tableColumn id="1" name="Opn No" dataDxfId="27"/>
+    <tableColumn id="2" name="Operation Name" dataDxfId="26"/>
+    <tableColumn id="3" name="M/c Selected" dataDxfId="25"/>
+    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="24"/>
+    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="23"/>
+    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="22"/>
+    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="21"/>
+    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="20"/>
+    <tableColumn id="9" name="Programming" dataDxfId="19"/>
+    <tableColumn id="10" name="Tool Change Time" dataDxfId="18"/>
+    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="17"/>
+    <tableColumn id="12" name="M/c Time" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10699,18 +10707,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table26" displayName="Table26" ref="A158:L174" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A158:L174"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Opn No" dataDxfId="14"/>
-    <tableColumn id="2" name="Operation Name" dataDxfId="13"/>
-    <tableColumn id="3" name="M/c Selected" dataDxfId="12"/>
-    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="11"/>
-    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="10"/>
-    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="9"/>
-    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="8"/>
-    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="7"/>
-    <tableColumn id="9" name="Programming" dataDxfId="6"/>
-    <tableColumn id="10" name="Tool Change Time" dataDxfId="5"/>
-    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="4"/>
-    <tableColumn id="12" name="M/c Time" dataDxfId="3"/>
+    <tableColumn id="1" name="Opn No" dataDxfId="15"/>
+    <tableColumn id="2" name="Operation Name" dataDxfId="14"/>
+    <tableColumn id="3" name="M/c Selected" dataDxfId="13"/>
+    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="12"/>
+    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="11"/>
+    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="10"/>
+    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="9"/>
+    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="8"/>
+    <tableColumn id="9" name="Programming" dataDxfId="7"/>
+    <tableColumn id="10" name="Tool Change Time" dataDxfId="6"/>
+    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="5"/>
+    <tableColumn id="12" name="M/c Time" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10720,13 +10728,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1113" displayName="Table1113" ref="A26:C34" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A26:C34"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Part Material" dataDxfId="2">
+    <tableColumn id="1" name="Part Material" dataDxfId="3">
       <calculatedColumnFormula>Database!A20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Price/kg" dataDxfId="1">
+    <tableColumn id="2" name="Price/kg" dataDxfId="2">
       <calculatedColumnFormula>Database!B20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Tonnage Constant(/mm2)" dataDxfId="0">
+    <tableColumn id="3" name="Tonnage Constant(/mm2)" dataDxfId="1">
       <calculatedColumnFormula>Database!C20/100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10798,12 +10806,10 @@
     <tableColumn id="1" name="Various Tool Steel" dataDxfId="131"/>
     <tableColumn id="4" name="Density(g/cc3)" dataDxfId="130"/>
     <tableColumn id="2" name="Uses" dataDxfId="129"/>
-    <tableColumn id="3" name="Price/Kg" dataDxfId="128">
-      <calculatedColumnFormula>Table1[[#This Row],[Total]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="RM cost" dataDxfId="127"/>
-    <tableColumn id="6" name="Extra cost" dataDxfId="126"/>
-    <tableColumn id="7" name="Total" dataDxfId="125"/>
+    <tableColumn id="3" name="Price/Kg" dataDxfId="0"/>
+    <tableColumn id="5" name="Column1" dataDxfId="128"/>
+    <tableColumn id="6" name="Column2" dataDxfId="127"/>
+    <tableColumn id="7" name="Column3" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10813,11 +10819,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table11" displayName="Table11" ref="A19:E27" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A19:E27"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Part Material" dataDxfId="124"/>
-    <tableColumn id="2" name="Price/kg" dataDxfId="123"/>
-    <tableColumn id="3" name="Tonnage Constant(/cm2)" dataDxfId="122"/>
-    <tableColumn id="4" name="Density" dataDxfId="121"/>
-    <tableColumn id="5" name="Young modulus" dataDxfId="120"/>
+    <tableColumn id="1" name="Part Material" dataDxfId="125"/>
+    <tableColumn id="2" name="Price/kg" dataDxfId="124"/>
+    <tableColumn id="3" name="Tonnage Constant(/cm2)" dataDxfId="123"/>
+    <tableColumn id="4" name="Density" dataDxfId="122"/>
+    <tableColumn id="5" name="Young modulus" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10827,8 +10833,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table15" displayName="Table15" ref="I2:L17" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="I2:L17"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Machining Process" dataDxfId="119"/>
-    <tableColumn id="2" name="MRR in cm3/min" dataDxfId="118"/>
+    <tableColumn id="1" name="Machining Process" dataDxfId="120"/>
+    <tableColumn id="2" name="MRR in cm3/min" dataDxfId="119"/>
     <tableColumn id="3" name="MHR"/>
     <tableColumn id="4" name="Column1"/>
   </tableColumns>
@@ -10840,9 +10846,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:C17" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A1:C17"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Part " dataDxfId="117"/>
-    <tableColumn id="2" name="Dimensions" dataDxfId="116"/>
-    <tableColumn id="3" name="unit" dataDxfId="115"/>
+    <tableColumn id="1" name="Part " dataDxfId="118"/>
+    <tableColumn id="2" name="Dimensions" dataDxfId="117"/>
+    <tableColumn id="3" name="unit" dataDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10852,8 +10858,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table16" displayName="Table16" ref="A18:B24" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A18:B24"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Output" dataDxfId="114"/>
-    <tableColumn id="2" name="Price" dataDxfId="113"/>
+    <tableColumn id="1" name="Output" dataDxfId="115"/>
+    <tableColumn id="2" name="Price" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10864,7 +10870,7 @@
   <autoFilter ref="A1:B7"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Complexity index"/>
-    <tableColumn id="2" name="Complexity factor" dataDxfId="111"/>
+    <tableColumn id="2" name="Complexity factor" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11134,51 +11140,51 @@
   </sheetPr>
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="31" zoomScaleNormal="48" workbookViewId="0">
+    <sheetView zoomScale="31" zoomScaleNormal="48" workbookViewId="0">
       <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="35.08984375" customWidth="1" style="479" min="1" max="1"/>
-    <col width="67.26953125" customWidth="1" style="479" min="2" max="2"/>
-    <col width="52.453125" customWidth="1" style="479" min="3" max="3"/>
-    <col width="53.6328125" customWidth="1" style="479" min="4" max="5"/>
-    <col width="45.08984375" customWidth="1" style="479" min="6" max="6"/>
-    <col width="40.90625" customWidth="1" style="479" min="7" max="8"/>
-    <col width="17.81640625" customWidth="1" style="479" min="9" max="9"/>
-    <col width="71.90625" customWidth="1" style="479" min="10" max="10"/>
+    <col width="35.08984375" customWidth="1" style="477" min="1" max="1"/>
+    <col width="67.26953125" customWidth="1" style="477" min="2" max="2"/>
+    <col width="52.453125" customWidth="1" style="477" min="3" max="3"/>
+    <col width="53.6328125" customWidth="1" style="477" min="4" max="5"/>
+    <col width="45.08984375" customWidth="1" style="477" min="6" max="6"/>
+    <col width="40.90625" customWidth="1" style="477" min="7" max="8"/>
+    <col width="17.81640625" customWidth="1" style="477" min="9" max="9"/>
+    <col width="71.90625" customWidth="1" style="477" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="52" customHeight="1" s="479">
-      <c r="A1" s="489" t="inlineStr">
+    <row r="1" ht="52" customHeight="1" s="477">
+      <c r="A1" s="490" t="inlineStr">
         <is>
           <t xml:space="preserve">  TOOLING COST BREAK - UP ESTIMATE          </t>
         </is>
       </c>
-      <c r="B1" s="459" t="n"/>
-      <c r="C1" s="459" t="n"/>
-      <c r="D1" s="459" t="n"/>
-      <c r="E1" s="459" t="n"/>
-      <c r="F1" s="459" t="n"/>
-      <c r="G1" s="459" t="n"/>
-      <c r="H1" s="459" t="n"/>
-      <c r="I1" s="459" t="n"/>
-      <c r="J1" s="472" t="n"/>
-    </row>
-    <row r="2" ht="52.5" customHeight="1" s="479" thickBot="1">
-      <c r="A2" s="460" t="n"/>
-      <c r="B2" s="423" t="n"/>
-      <c r="C2" s="423" t="n"/>
-      <c r="D2" s="423" t="n"/>
-      <c r="E2" s="423" t="n"/>
-      <c r="F2" s="423" t="n"/>
-      <c r="G2" s="423" t="n"/>
-      <c r="H2" s="423" t="n"/>
-      <c r="I2" s="423" t="n"/>
-      <c r="J2" s="425" t="n"/>
-    </row>
-    <row r="3" ht="35.5" customHeight="1" s="479" thickBot="1">
+      <c r="B1" s="449" t="n"/>
+      <c r="C1" s="449" t="n"/>
+      <c r="D1" s="449" t="n"/>
+      <c r="E1" s="449" t="n"/>
+      <c r="F1" s="449" t="n"/>
+      <c r="G1" s="449" t="n"/>
+      <c r="H1" s="449" t="n"/>
+      <c r="I1" s="449" t="n"/>
+      <c r="J1" s="471" t="n"/>
+    </row>
+    <row r="2" ht="52.5" customHeight="1" s="477" thickBot="1">
+      <c r="A2" s="450" t="n"/>
+      <c r="B2" s="426" t="n"/>
+      <c r="C2" s="426" t="n"/>
+      <c r="D2" s="426" t="n"/>
+      <c r="E2" s="426" t="n"/>
+      <c r="F2" s="426" t="n"/>
+      <c r="G2" s="426" t="n"/>
+      <c r="H2" s="426" t="n"/>
+      <c r="I2" s="426" t="n"/>
+      <c r="J2" s="427" t="n"/>
+    </row>
+    <row r="3" ht="35.5" customHeight="1" s="477" thickBot="1">
       <c r="A3" s="245" t="inlineStr">
         <is>
           <t>DATABSE NO.</t>
@@ -11193,7 +11199,7 @@
           <t>Last modified at:</t>
         </is>
       </c>
-      <c r="D3" s="555">
+      <c r="D3" s="556">
         <f>IF($D$4&lt;&gt;0,NOW(),NOW())</f>
         <v/>
       </c>
@@ -11215,7 +11221,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="35" customHeight="1" s="479">
+    <row r="4" ht="35" customHeight="1" s="477">
       <c r="A4" s="279" t="inlineStr">
         <is>
           <t xml:space="preserve">PART NAME :- </t>
@@ -11240,7 +11246,7 @@
           <t>CUSTOMER NAME : -</t>
         </is>
       </c>
-      <c r="F4" s="437" t="inlineStr">
+      <c r="F4" s="428" t="inlineStr">
         <is>
           <t>TVSM</t>
         </is>
@@ -11248,9 +11254,9 @@
       <c r="G4" s="429" t="n"/>
       <c r="H4" s="430" t="n"/>
       <c r="I4" s="300" t="n"/>
-      <c r="J4" s="475" t="n"/>
-    </row>
-    <row r="5" ht="35" customHeight="1" s="479">
+      <c r="J4" s="491" t="n"/>
+    </row>
+    <row r="5" ht="35" customHeight="1" s="477">
       <c r="A5" s="181" t="n"/>
       <c r="B5" s="271" t="inlineStr">
         <is>
@@ -11272,13 +11278,13 @@
           <t>TOOL MAKER NAME : -</t>
         </is>
       </c>
-      <c r="F5" s="437" t="n"/>
+      <c r="F5" s="428" t="n"/>
       <c r="G5" s="429" t="n"/>
       <c r="H5" s="430" t="n"/>
       <c r="I5" s="300" t="n"/>
-      <c r="J5" s="476" t="n"/>
-    </row>
-    <row r="6" ht="35" customHeight="1" s="479">
+      <c r="J5" s="492" t="n"/>
+    </row>
+    <row r="6" ht="35" customHeight="1" s="477">
       <c r="A6" s="280" t="inlineStr">
         <is>
           <t>PART SIZE :-</t>
@@ -11297,12 +11303,12 @@
         <v/>
       </c>
       <c r="E6" s="266" t="n"/>
-      <c r="F6" s="428" t="inlineStr">
+      <c r="F6" s="434" t="inlineStr">
         <is>
           <t>No of Gate</t>
         </is>
       </c>
-      <c r="G6" s="428" t="inlineStr">
+      <c r="G6" s="434" t="inlineStr">
         <is>
           <t>HRS PRICE</t>
         </is>
@@ -11313,9 +11319,9 @@
         </is>
       </c>
       <c r="I6" s="301" t="n"/>
-      <c r="J6" s="476" t="n"/>
-    </row>
-    <row r="7" ht="35" customHeight="1" s="479">
+      <c r="J6" s="492" t="n"/>
+    </row>
+    <row r="7" ht="35" customHeight="1" s="477">
       <c r="A7" s="280" t="inlineStr">
         <is>
           <t>NO CAVITY :-</t>
@@ -11351,9 +11357,9 @@
         <v/>
       </c>
       <c r="I7" s="302" t="n"/>
-      <c r="J7" s="476" t="n"/>
-    </row>
-    <row r="8" ht="35.5" customHeight="1" s="479" thickBot="1">
+      <c r="J7" s="492" t="n"/>
+    </row>
+    <row r="8" ht="35.5" customHeight="1" s="477" thickBot="1">
       <c r="A8" s="328" t="inlineStr">
         <is>
           <t>M. DIMENSION</t>
@@ -11385,22 +11391,22 @@
           <t>in 3D (KG)</t>
         </is>
       </c>
-      <c r="H8" s="556" t="n"/>
-      <c r="I8" s="557" t="n"/>
-      <c r="J8" s="425" t="n"/>
-    </row>
-    <row r="9" ht="35.5" customHeight="1" s="479" thickBot="1">
-      <c r="A9" s="422" t="inlineStr">
+      <c r="H8" s="557" t="n"/>
+      <c r="I8" s="558" t="n"/>
+      <c r="J8" s="427" t="n"/>
+    </row>
+    <row r="9" ht="35.5" customHeight="1" s="477" thickBot="1">
+      <c r="A9" s="496" t="inlineStr">
         <is>
           <t xml:space="preserve">I) DESIGN COST +MOULD FLOW   : </t>
         </is>
       </c>
-      <c r="B9" s="423" t="n"/>
-      <c r="C9" s="495">
+      <c r="B9" s="426" t="n"/>
+      <c r="C9" s="493">
         <f>'Mould Costing'!K60</f>
         <v/>
       </c>
-      <c r="D9" s="423" t="n"/>
+      <c r="D9" s="426" t="n"/>
       <c r="E9" s="268" t="inlineStr">
         <is>
           <t>PART DESIGN (RE)</t>
@@ -11409,12 +11415,12 @@
       <c r="F9" s="269" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="424" t="inlineStr">
+      <c r="G9" s="497" t="inlineStr">
         <is>
           <t>(PART 3D SCANNIG+3D DATA RE)</t>
         </is>
       </c>
-      <c r="H9" s="425" t="n"/>
+      <c r="H9" s="427" t="n"/>
       <c r="I9" s="288" t="n"/>
       <c r="J9" s="311" t="inlineStr">
         <is>
@@ -11422,7 +11428,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="35.5" customHeight="1" s="479" thickBot="1">
+    <row r="10" ht="35.5" customHeight="1" s="477" thickBot="1">
       <c r="A10" s="227" t="n"/>
       <c r="B10" s="287" t="n"/>
       <c r="C10" s="287" t="n"/>
@@ -11430,11 +11436,11 @@
       <c r="E10" s="251" t="n"/>
       <c r="F10" s="288" t="n"/>
       <c r="G10" s="288" t="n"/>
-      <c r="H10" s="558" t="n"/>
-      <c r="I10" s="558" t="n"/>
+      <c r="H10" s="559" t="n"/>
+      <c r="I10" s="559" t="n"/>
       <c r="J10" s="226" t="n"/>
     </row>
-    <row r="11" ht="35.5" customHeight="1" s="479" thickBot="1">
+    <row r="11" ht="35.5" customHeight="1" s="477" thickBot="1">
       <c r="A11" s="228" t="inlineStr">
         <is>
           <t>II) RAW MATERIAL COST :</t>
@@ -11446,60 +11452,60 @@
       <c r="E11" s="252" t="n"/>
       <c r="F11" s="252" t="n"/>
       <c r="G11" s="252" t="n"/>
-      <c r="H11" s="559" t="n"/>
-      <c r="I11" s="559" t="n"/>
+      <c r="H11" s="560" t="n"/>
+      <c r="I11" s="560" t="n"/>
       <c r="J11" s="316" t="inlineStr">
         <is>
           <t>FACTORS</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="35.5" customHeight="1" s="479" thickBot="1">
-      <c r="A12" s="466" t="inlineStr">
+    <row r="12" ht="35.5" customHeight="1" s="477" thickBot="1">
+      <c r="A12" s="459" t="inlineStr">
         <is>
           <t>S.No.</t>
         </is>
       </c>
-      <c r="B12" s="473" t="inlineStr">
+      <c r="B12" s="472" t="inlineStr">
         <is>
           <t>SUB PART NAME</t>
         </is>
       </c>
-      <c r="C12" s="491" t="inlineStr">
+      <c r="C12" s="461" t="inlineStr">
         <is>
           <t>MATERIAL SPEC.</t>
         </is>
       </c>
-      <c r="D12" s="466" t="inlineStr">
+      <c r="D12" s="459" t="inlineStr">
         <is>
           <t>REMARKS</t>
         </is>
       </c>
-      <c r="E12" s="477" t="n"/>
-      <c r="F12" s="462" t="inlineStr">
+      <c r="E12" s="475" t="n"/>
+      <c r="F12" s="494" t="inlineStr">
         <is>
           <t xml:space="preserve">RM WEIGHT </t>
         </is>
       </c>
-      <c r="G12" s="451" t="inlineStr">
+      <c r="G12" s="474" t="inlineStr">
         <is>
           <t>UNIT PRICE</t>
         </is>
       </c>
-      <c r="H12" s="560" t="inlineStr">
+      <c r="H12" s="561" t="inlineStr">
         <is>
           <t>TOTAL VALUE</t>
         </is>
       </c>
-      <c r="I12" s="561" t="n"/>
+      <c r="I12" s="562" t="n"/>
       <c r="J12" s="234" t="n"/>
     </row>
-    <row r="13" ht="35.5" customHeight="1" s="479" thickBot="1">
-      <c r="A13" s="468" t="n"/>
-      <c r="B13" s="474" t="n"/>
-      <c r="C13" s="492" t="n"/>
-      <c r="D13" s="483" t="n"/>
-      <c r="E13" s="447" t="n"/>
+    <row r="13" ht="35.5" customHeight="1" s="477" thickBot="1">
+      <c r="A13" s="460" t="n"/>
+      <c r="B13" s="473" t="n"/>
+      <c r="C13" s="462" t="n"/>
+      <c r="D13" s="481" t="n"/>
+      <c r="E13" s="442" t="n"/>
       <c r="F13" s="283" t="inlineStr">
         <is>
           <t>Kg ( 1 )</t>
@@ -11510,15 +11516,15 @@
           <t>Rs/Kg ( 2 )</t>
         </is>
       </c>
-      <c r="H13" s="562" t="inlineStr">
+      <c r="H13" s="563" t="inlineStr">
         <is>
           <t>Rs.  ( 1X2 )</t>
         </is>
       </c>
-      <c r="I13" s="561" t="n"/>
+      <c r="I13" s="562" t="n"/>
       <c r="J13" s="234" t="n"/>
     </row>
-    <row r="14" ht="35" customHeight="1" s="479">
+    <row r="14" ht="35" customHeight="1" s="477">
       <c r="A14" s="231" t="n">
         <v>1</v>
       </c>
@@ -11527,12 +11533,12 @@
           <t>MOULD BASE</t>
         </is>
       </c>
-      <c r="C14" s="449">
+      <c r="C14" s="444">
         <f>'Mould Costing'!B16</f>
         <v/>
       </c>
-      <c r="D14" s="450" t="n"/>
-      <c r="E14" s="447" t="n"/>
+      <c r="D14" s="445" t="n"/>
+      <c r="E14" s="442" t="n"/>
       <c r="F14" s="261">
         <f>'Mould Costing'!K16</f>
         <v/>
@@ -11555,7 +11561,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="35" customHeight="1" s="479">
+    <row r="15" ht="35" customHeight="1" s="477">
       <c r="A15" s="233" t="n">
         <v>2</v>
       </c>
@@ -11564,11 +11570,11 @@
           <t xml:space="preserve">CORE </t>
         </is>
       </c>
-      <c r="C15" s="449">
+      <c r="C15" s="444">
         <f>Table4[[#This Row],[Material]]</f>
         <v/>
       </c>
-      <c r="D15" s="439" t="n"/>
+      <c r="D15" s="433" t="n"/>
       <c r="E15" s="430" t="n"/>
       <c r="F15" s="235">
         <f>Table4[[#This Row],[Total weight]]</f>
@@ -11592,7 +11598,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="35" customHeight="1" s="479">
+    <row r="16" ht="35" customHeight="1" s="477">
       <c r="A16" s="233" t="n">
         <v>3</v>
       </c>
@@ -11601,11 +11607,11 @@
           <t>CAVITY</t>
         </is>
       </c>
-      <c r="C16" s="449">
+      <c r="C16" s="444">
         <f>'Mould Costing'!B14</f>
         <v/>
       </c>
-      <c r="D16" s="439" t="n"/>
+      <c r="D16" s="433" t="n"/>
       <c r="E16" s="430" t="n"/>
       <c r="F16" s="235">
         <f>'Mould Costing'!K14</f>
@@ -11629,7 +11635,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="35" customHeight="1" s="479">
+    <row r="17" ht="35" customHeight="1" s="477">
       <c r="A17" s="233" t="n">
         <v>4</v>
       </c>
@@ -11638,11 +11644,11 @@
           <t>ELECTRODES</t>
         </is>
       </c>
-      <c r="C17" s="428">
+      <c r="C17" s="434">
         <f>'Mould Costing'!B17</f>
         <v/>
       </c>
-      <c r="D17" s="439" t="n"/>
+      <c r="D17" s="433" t="n"/>
       <c r="E17" s="430" t="n"/>
       <c r="F17" s="235">
         <f>'Mould Costing'!K17+'Mould Costing'!K18</f>
@@ -11666,7 +11672,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="35" customHeight="1" s="479">
+    <row r="18" ht="35" customHeight="1" s="477">
       <c r="A18" s="233" t="n">
         <v>5</v>
       </c>
@@ -11675,11 +11681,11 @@
           <t>SPACER BLOCK</t>
         </is>
       </c>
-      <c r="C18" s="428">
+      <c r="C18" s="434">
         <f>'Mould Costing'!B11</f>
         <v/>
       </c>
-      <c r="D18" s="439" t="n"/>
+      <c r="D18" s="433" t="n"/>
       <c r="E18" s="430" t="n"/>
       <c r="F18" s="235">
         <f>'Mould Costing'!K11</f>
@@ -11703,7 +11709,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="35" customHeight="1" s="479">
+    <row r="19" ht="35" customHeight="1" s="477">
       <c r="A19" s="233" t="n">
         <v>6</v>
       </c>
@@ -11712,11 +11718,11 @@
           <t>EJECTOR PLATE</t>
         </is>
       </c>
-      <c r="C19" s="449">
+      <c r="C19" s="444">
         <f>'Mould Costing'!B12</f>
         <v/>
       </c>
-      <c r="D19" s="439" t="n"/>
+      <c r="D19" s="433" t="n"/>
       <c r="E19" s="430" t="n"/>
       <c r="F19" s="235">
         <f>'Mould Costing'!K12+'Mould Costing'!K13</f>
@@ -11726,7 +11732,7 @@
         <f>'Mould Costing'!L12+'Mould Costing'!L13</f>
         <v/>
       </c>
-      <c r="H19" s="563">
+      <c r="H19" s="564">
         <f>F19*G19</f>
         <v/>
       </c>
@@ -11736,7 +11742,7 @@
       </c>
       <c r="J19" s="317" t="n"/>
     </row>
-    <row r="20" ht="35" customHeight="1" s="479">
+    <row r="20" ht="35" customHeight="1" s="477">
       <c r="A20" s="233" t="n">
         <v>7</v>
       </c>
@@ -11745,16 +11751,16 @@
           <t>OTHER PARTS</t>
         </is>
       </c>
-      <c r="C20" s="428" t="inlineStr">
+      <c r="C20" s="434" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="D20" s="487" t="n"/>
       <c r="E20" s="430" t="n"/>
-      <c r="F20" s="428" t="n"/>
-      <c r="G20" s="428" t="n"/>
-      <c r="H20" s="563">
+      <c r="F20" s="434" t="n"/>
+      <c r="G20" s="434" t="n"/>
+      <c r="H20" s="564">
         <f>'Mould Costing'!M19:M21</f>
         <v/>
       </c>
@@ -11764,7 +11770,7 @@
       </c>
       <c r="J20" s="317" t="n"/>
     </row>
-    <row r="21" ht="35" customHeight="1" s="479">
+    <row r="21" ht="35" customHeight="1" s="477">
       <c r="A21" s="233" t="n">
         <v>8</v>
       </c>
@@ -11773,16 +11779,16 @@
           <t>STANDARD ITEMS</t>
         </is>
       </c>
-      <c r="C21" s="428" t="inlineStr">
+      <c r="C21" s="434" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D21" s="439" t="n"/>
+      <c r="D21" s="433" t="n"/>
       <c r="E21" s="430" t="n"/>
-      <c r="F21" s="428" t="n"/>
-      <c r="G21" s="428" t="n"/>
-      <c r="H21" s="563">
+      <c r="F21" s="434" t="n"/>
+      <c r="G21" s="434" t="n"/>
+      <c r="H21" s="564">
         <f>'Mould Costing'!K50</f>
         <v/>
       </c>
@@ -11792,7 +11798,7 @@
       </c>
       <c r="J21" s="289" t="n"/>
     </row>
-    <row r="22" ht="35" customHeight="1" s="479">
+    <row r="22" ht="35" customHeight="1" s="477">
       <c r="A22" s="233" t="n">
         <v>9</v>
       </c>
@@ -11801,12 +11807,12 @@
           <t>TEXTURING</t>
         </is>
       </c>
-      <c r="C22" s="428" t="n"/>
-      <c r="D22" s="439" t="n"/>
+      <c r="C22" s="434" t="n"/>
+      <c r="D22" s="433" t="n"/>
       <c r="E22" s="430" t="n"/>
-      <c r="F22" s="428" t="n"/>
-      <c r="G22" s="428" t="n"/>
-      <c r="H22" s="563">
+      <c r="F22" s="434" t="n"/>
+      <c r="G22" s="434" t="n"/>
+      <c r="H22" s="564">
         <f>'Mould Costing'!L98</f>
         <v/>
       </c>
@@ -11816,7 +11822,7 @@
       </c>
       <c r="J22" s="226" t="n"/>
     </row>
-    <row r="23" ht="35" customHeight="1" s="479">
+    <row r="23" ht="35" customHeight="1" s="477">
       <c r="A23" s="233" t="n">
         <v>10</v>
       </c>
@@ -11825,11 +11831,11 @@
           <t>CLAMPING PLATE</t>
         </is>
       </c>
-      <c r="C23" s="428">
+      <c r="C23" s="434">
         <f>'Mould Costing'!B9</f>
         <v/>
       </c>
-      <c r="D23" s="439" t="n"/>
+      <c r="D23" s="433" t="n"/>
       <c r="E23" s="430" t="n"/>
       <c r="F23" s="235">
         <f>'Mould Costing'!K9+'Mould Costing'!K10</f>
@@ -11839,7 +11845,7 @@
         <f>'Mould Costing'!L9+'Mould Costing'!L10</f>
         <v/>
       </c>
-      <c r="H23" s="564">
+      <c r="H23" s="565">
         <f>'Mould Costing'!M9+'Mould Costing'!M10</f>
         <v/>
       </c>
@@ -11849,7 +11855,7 @@
       </c>
       <c r="J23" s="226" t="n"/>
     </row>
-    <row r="24" ht="35" customHeight="1" s="479">
+    <row r="24" ht="35" customHeight="1" s="477">
       <c r="A24" s="233" t="n">
         <v>11</v>
       </c>
@@ -11858,12 +11864,12 @@
           <t>HRS</t>
         </is>
       </c>
-      <c r="C24" s="428" t="n"/>
-      <c r="D24" s="439" t="n"/>
+      <c r="C24" s="434" t="n"/>
+      <c r="D24" s="433" t="n"/>
       <c r="E24" s="430" t="n"/>
-      <c r="F24" s="428" t="n"/>
-      <c r="G24" s="428" t="n"/>
-      <c r="H24" s="563">
+      <c r="F24" s="434" t="n"/>
+      <c r="G24" s="434" t="n"/>
+      <c r="H24" s="564">
         <f>IF('Mould Costing'!K97,H7,0)</f>
         <v/>
       </c>
@@ -11873,7 +11879,7 @@
       </c>
       <c r="J24" s="237" t="n"/>
     </row>
-    <row r="25" ht="35" customHeight="1" s="479">
+    <row r="25" ht="35" customHeight="1" s="477">
       <c r="A25" s="233" t="n">
         <v>12</v>
       </c>
@@ -11882,12 +11888,12 @@
           <t>HARDENING + POLISHING</t>
         </is>
       </c>
-      <c r="C25" s="469" t="n"/>
-      <c r="D25" s="439" t="n"/>
+      <c r="C25" s="467" t="n"/>
+      <c r="D25" s="433" t="n"/>
       <c r="E25" s="430" t="n"/>
-      <c r="F25" s="469" t="n"/>
-      <c r="G25" s="469" t="n"/>
-      <c r="H25" s="563">
+      <c r="F25" s="467" t="n"/>
+      <c r="G25" s="467" t="n"/>
+      <c r="H25" s="564">
         <f>'Mould Costing'!K89</f>
         <v/>
       </c>
@@ -11897,43 +11903,43 @@
       </c>
       <c r="J25" s="237" t="n"/>
     </row>
-    <row r="26" ht="35" customHeight="1" s="479">
+    <row r="26" ht="35" customHeight="1" s="477">
       <c r="A26" s="233" t="n"/>
       <c r="B26" s="238" t="n"/>
-      <c r="C26" s="469" t="n"/>
-      <c r="D26" s="439" t="n"/>
+      <c r="C26" s="467" t="n"/>
+      <c r="D26" s="433" t="n"/>
       <c r="E26" s="430" t="n"/>
-      <c r="F26" s="469" t="n"/>
-      <c r="G26" s="469" t="n"/>
-      <c r="H26" s="563" t="n"/>
-      <c r="I26" s="565" t="n"/>
+      <c r="F26" s="467" t="n"/>
+      <c r="G26" s="467" t="n"/>
+      <c r="H26" s="564" t="n"/>
+      <c r="I26" s="566" t="n"/>
       <c r="J26" s="237" t="n"/>
     </row>
-    <row r="27" ht="35.5" customHeight="1" s="479" thickBot="1">
+    <row r="27" ht="35.5" customHeight="1" s="477" thickBot="1">
       <c r="A27" s="248" t="n"/>
       <c r="B27" s="238" t="n"/>
-      <c r="C27" s="469" t="n"/>
-      <c r="D27" s="493" t="n"/>
-      <c r="E27" s="465" t="n"/>
+      <c r="C27" s="467" t="n"/>
+      <c r="D27" s="463" t="n"/>
+      <c r="E27" s="453" t="n"/>
       <c r="F27" s="240" t="n"/>
-      <c r="G27" s="469" t="n"/>
-      <c r="H27" s="566" t="n"/>
-      <c r="I27" s="567" t="n"/>
+      <c r="G27" s="467" t="n"/>
+      <c r="H27" s="567" t="n"/>
+      <c r="I27" s="568" t="n"/>
       <c r="J27" s="226" t="n"/>
     </row>
-    <row r="28" ht="35.5" customHeight="1" s="479" thickBot="1">
-      <c r="A28" s="454" t="n"/>
-      <c r="B28" s="427" t="n"/>
-      <c r="C28" s="427" t="n"/>
-      <c r="D28" s="427" t="n"/>
-      <c r="E28" s="427" t="n"/>
-      <c r="F28" s="455" t="n"/>
+    <row r="28" ht="35.5" customHeight="1" s="477" thickBot="1">
+      <c r="A28" s="485" t="n"/>
+      <c r="B28" s="455" t="n"/>
+      <c r="C28" s="455" t="n"/>
+      <c r="D28" s="455" t="n"/>
+      <c r="E28" s="455" t="n"/>
+      <c r="F28" s="486" t="n"/>
       <c r="G28" s="241" t="inlineStr">
         <is>
           <t>TOTAL IN Rs.</t>
         </is>
       </c>
-      <c r="H28" s="568">
+      <c r="H28" s="569">
         <f>SUM(H14:H27)</f>
         <v/>
       </c>
@@ -11947,7 +11953,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="35" customHeight="1" s="479">
+    <row r="29" ht="35" customHeight="1" s="477">
       <c r="A29" s="243" t="n"/>
       <c r="B29" s="250" t="n"/>
       <c r="C29" s="250" t="n"/>
@@ -11955,11 +11961,11 @@
       <c r="E29" s="290" t="n"/>
       <c r="F29" s="288" t="n"/>
       <c r="G29" s="291" t="n"/>
-      <c r="H29" s="569" t="n"/>
-      <c r="I29" s="569" t="n"/>
+      <c r="H29" s="570" t="n"/>
+      <c r="I29" s="570" t="n"/>
       <c r="J29" s="242" t="n"/>
     </row>
-    <row r="30" ht="35.5" customHeight="1" s="479" thickBot="1">
+    <row r="30" ht="35.5" customHeight="1" s="477" thickBot="1">
       <c r="A30" s="244" t="inlineStr">
         <is>
           <t>III) PROCESS COST :</t>
@@ -11971,78 +11977,78 @@
       <c r="E30" s="290" t="n"/>
       <c r="F30" s="290" t="n"/>
       <c r="G30" s="290" t="n"/>
-      <c r="H30" s="569" t="n"/>
-      <c r="I30" s="569" t="n"/>
+      <c r="H30" s="570" t="n"/>
+      <c r="I30" s="570" t="n"/>
       <c r="J30" s="226" t="n"/>
     </row>
-    <row r="31" ht="35" customHeight="1" s="479">
-      <c r="A31" s="466" t="inlineStr">
+    <row r="31" ht="35" customHeight="1" s="477">
+      <c r="A31" s="459" t="inlineStr">
         <is>
           <t>S.No.</t>
         </is>
       </c>
-      <c r="B31" s="451" t="inlineStr">
+      <c r="B31" s="474" t="inlineStr">
         <is>
           <t>OPERATION</t>
         </is>
       </c>
-      <c r="C31" s="451" t="n"/>
-      <c r="D31" s="459" t="n"/>
-      <c r="E31" s="477" t="n"/>
-      <c r="F31" s="490" t="inlineStr">
+      <c r="C31" s="474" t="n"/>
+      <c r="D31" s="449" t="n"/>
+      <c r="E31" s="475" t="n"/>
+      <c r="F31" s="489" t="inlineStr">
         <is>
           <t>MACHINE/ MAN HOUR RATE Rs / Hr ( 3 )</t>
         </is>
       </c>
-      <c r="G31" s="462" t="inlineStr">
+      <c r="G31" s="494" t="inlineStr">
         <is>
           <t>CAVITY</t>
         </is>
       </c>
-      <c r="H31" s="463" t="n"/>
+      <c r="H31" s="495" t="n"/>
       <c r="I31" s="308" t="n"/>
       <c r="J31" s="226" t="n"/>
     </row>
-    <row r="32" ht="35" customHeight="1" s="479">
-      <c r="A32" s="467" t="n"/>
-      <c r="B32" s="452" t="n"/>
-      <c r="C32" s="478" t="n"/>
-      <c r="E32" s="480" t="n"/>
-      <c r="F32" s="452" t="n"/>
+    <row r="32" ht="35" customHeight="1" s="477">
+      <c r="A32" s="468" t="n"/>
+      <c r="B32" s="483" t="n"/>
+      <c r="C32" s="476" t="n"/>
+      <c r="E32" s="478" t="n"/>
+      <c r="F32" s="483" t="n"/>
       <c r="G32" s="246" t="inlineStr">
         <is>
           <t>TIME REQD.</t>
         </is>
       </c>
-      <c r="H32" s="570" t="inlineStr">
+      <c r="H32" s="571" t="inlineStr">
         <is>
           <t>TOTAL COST</t>
         </is>
       </c>
-      <c r="I32" s="571" t="n"/>
+      <c r="I32" s="572" t="n"/>
       <c r="J32" s="226" t="n"/>
     </row>
-    <row r="33" ht="35.5" customHeight="1" s="479" thickBot="1">
-      <c r="A33" s="468" t="n"/>
-      <c r="B33" s="453" t="n"/>
-      <c r="C33" s="481" t="n"/>
-      <c r="D33" s="482" t="n"/>
-      <c r="E33" s="447" t="n"/>
-      <c r="F33" s="453" t="n"/>
+    <row r="33" ht="35.5" customHeight="1" s="477" thickBot="1">
+      <c r="A33" s="460" t="n"/>
+      <c r="B33" s="484" t="n"/>
+      <c r="C33" s="479" t="n"/>
+      <c r="D33" s="480" t="n"/>
+      <c r="E33" s="442" t="n"/>
+      <c r="F33" s="484" t="n"/>
       <c r="G33" s="247" t="inlineStr">
         <is>
           <t xml:space="preserve"> Hr ( 5 )</t>
         </is>
       </c>
-      <c r="H33" s="572" t="inlineStr">
+      <c r="H33" s="573" t="inlineStr">
         <is>
           <t xml:space="preserve"> Rs ( 3X5 )</t>
         </is>
       </c>
-      <c r="I33" s="573" t="n"/>
+      <c r="I33" s="574" t="n"/>
       <c r="J33" s="226" t="n"/>
     </row>
-    <row r="34" ht="35" customHeight="1" s="479">
+    <row r="34" ht="35" customHeight="1" s="477">
       <c r="A34" s="233" t="n">
         <v>1</v>
       </c>
@@ -12051,18 +12057,18 @@
           <t>Conv Milling - Facing</t>
         </is>
       </c>
-      <c r="C34" s="428" t="n"/>
+      <c r="C34" s="434" t="n"/>
       <c r="D34" s="429" t="n"/>
       <c r="E34" s="430" t="n"/>
       <c r="F34" s="298">
         <f>'Mould Costing'!$B$81</f>
         <v/>
       </c>
-      <c r="G34" s="574">
+      <c r="G34" s="575">
         <f>'Mould Costing'!B$80</f>
         <v/>
       </c>
-      <c r="H34" s="575">
+      <c r="H34" s="576">
         <f>F34*G34*'Mould Costing'!$C$83</f>
         <v/>
       </c>
@@ -12072,7 +12078,7 @@
       </c>
       <c r="J34" s="226" t="n"/>
     </row>
-    <row r="35" ht="35" customHeight="1" s="479">
+    <row r="35" ht="35" customHeight="1" s="477">
       <c r="A35" s="293" t="n">
         <v>2</v>
       </c>
@@ -12081,28 +12087,28 @@
           <t>Conv Milling - End Milling</t>
         </is>
       </c>
-      <c r="C35" s="428" t="n"/>
+      <c r="C35" s="434" t="n"/>
       <c r="D35" s="429" t="n"/>
       <c r="E35" s="430" t="n"/>
       <c r="F35" s="298">
         <f>'Mould Costing'!$C$81</f>
         <v/>
       </c>
-      <c r="G35" s="574">
+      <c r="G35" s="575">
         <f>'Mould Costing'!C$80</f>
         <v/>
       </c>
-      <c r="H35" s="575">
+      <c r="H35" s="576">
         <f>F35*G35*'Mould Costing'!$C$83</f>
         <v/>
       </c>
-      <c r="I35" s="576">
+      <c r="I35" s="577">
         <f>H35/$H$50</f>
         <v/>
       </c>
       <c r="J35" s="226" t="n"/>
     </row>
-    <row r="36" ht="35" customHeight="1" s="479">
+    <row r="36" ht="35" customHeight="1" s="477">
       <c r="A36" s="293" t="n">
         <v>3</v>
       </c>
@@ -12111,28 +12117,28 @@
           <t>Conv Lathe - Facing / Turning</t>
         </is>
       </c>
-      <c r="C36" s="428" t="n"/>
+      <c r="C36" s="434" t="n"/>
       <c r="D36" s="429" t="n"/>
       <c r="E36" s="430" t="n"/>
       <c r="F36" s="298">
         <f>'Mould Costing'!$D$81</f>
         <v/>
       </c>
-      <c r="G36" s="574">
+      <c r="G36" s="575">
         <f>'Mould Costing'!D$80</f>
         <v/>
       </c>
-      <c r="H36" s="575">
+      <c r="H36" s="576">
         <f>F36*G36*'Mould Costing'!$C$83</f>
         <v/>
       </c>
-      <c r="I36" s="576">
+      <c r="I36" s="577">
         <f>H36/$H$50</f>
         <v/>
       </c>
-      <c r="J36" s="476" t="n"/>
-    </row>
-    <row r="37" ht="35" customHeight="1" s="479">
+      <c r="J36" s="492" t="n"/>
+    </row>
+    <row r="37" ht="35" customHeight="1" s="477">
       <c r="A37" s="293" t="n">
         <v>4</v>
       </c>
@@ -12141,18 +12147,18 @@
           <t>Surface Grinding</t>
         </is>
       </c>
-      <c r="C37" s="428" t="n"/>
+      <c r="C37" s="434" t="n"/>
       <c r="D37" s="429" t="n"/>
       <c r="E37" s="430" t="n"/>
       <c r="F37" s="298">
         <f>'Mould Costing'!$E$81</f>
         <v/>
       </c>
-      <c r="G37" s="574">
+      <c r="G37" s="575">
         <f>'Mould Costing'!E$80</f>
         <v/>
       </c>
-      <c r="H37" s="575">
+      <c r="H37" s="576">
         <f>F37*G37*'Mould Costing'!$C$83</f>
         <v/>
       </c>
@@ -12160,9 +12166,9 @@
         <f>H37/$H$50</f>
         <v/>
       </c>
-      <c r="J37" s="476" t="n"/>
-    </row>
-    <row r="38" ht="35" customHeight="1" s="479">
+      <c r="J37" s="492" t="n"/>
+    </row>
+    <row r="38" ht="35" customHeight="1" s="477">
       <c r="A38" s="293" t="n">
         <v>5</v>
       </c>
@@ -12171,18 +12177,18 @@
           <t>Cylindrical Grinding</t>
         </is>
       </c>
-      <c r="C38" s="428" t="n"/>
+      <c r="C38" s="434" t="n"/>
       <c r="D38" s="429" t="n"/>
       <c r="E38" s="430" t="n"/>
       <c r="F38" s="298">
         <f>'Mould Costing'!$F$81</f>
         <v/>
       </c>
-      <c r="G38" s="574">
+      <c r="G38" s="575">
         <f>'Mould Costing'!F$80</f>
         <v/>
       </c>
-      <c r="H38" s="575">
+      <c r="H38" s="576">
         <f>F38*G38*'Mould Costing'!$C$83</f>
         <v/>
       </c>
@@ -12190,9 +12196,9 @@
         <f>H38/$H$50</f>
         <v/>
       </c>
-      <c r="J38" s="476" t="n"/>
-    </row>
-    <row r="39" ht="35" customHeight="1" s="479">
+      <c r="J38" s="492" t="n"/>
+    </row>
+    <row r="39" ht="35" customHeight="1" s="477">
       <c r="A39" s="293" t="n">
         <v>6</v>
       </c>
@@ -12201,18 +12207,18 @@
           <t>Radial Drilling - Hole drilling</t>
         </is>
       </c>
-      <c r="C39" s="428" t="n"/>
+      <c r="C39" s="434" t="n"/>
       <c r="D39" s="429" t="n"/>
       <c r="E39" s="430" t="n"/>
       <c r="F39" s="298">
         <f>'Mould Costing'!$G$81</f>
         <v/>
       </c>
-      <c r="G39" s="574">
+      <c r="G39" s="575">
         <f>'Mould Costing'!G$80</f>
         <v/>
       </c>
-      <c r="H39" s="575">
+      <c r="H39" s="576">
         <f>F39*G39*'Mould Costing'!$C$83</f>
         <v/>
       </c>
@@ -12220,9 +12226,9 @@
         <f>H39/$H$50</f>
         <v/>
       </c>
-      <c r="J39" s="476" t="n"/>
-    </row>
-    <row r="40" ht="70" customHeight="1" s="479">
+      <c r="J39" s="492" t="n"/>
+    </row>
+    <row r="40" ht="70" customHeight="1" s="477">
       <c r="A40" s="293" t="n">
         <v>7</v>
       </c>
@@ -12231,28 +12237,28 @@
           <t>Radial Drilling - Reaming / Tapping</t>
         </is>
       </c>
-      <c r="C40" s="428" t="n"/>
+      <c r="C40" s="434" t="n"/>
       <c r="D40" s="429" t="n"/>
       <c r="E40" s="430" t="n"/>
       <c r="F40" s="298">
         <f>'Mould Costing'!$H$81</f>
         <v/>
       </c>
-      <c r="G40" s="574">
+      <c r="G40" s="575">
         <f>'Mould Costing'!H$80</f>
         <v/>
       </c>
-      <c r="H40" s="575">
+      <c r="H40" s="576">
         <f>F40*G40*'Mould Costing'!$C$83</f>
         <v/>
       </c>
-      <c r="I40" s="576">
+      <c r="I40" s="577">
         <f>H40/$H$50</f>
         <v/>
       </c>
-      <c r="J40" s="476" t="n"/>
-    </row>
-    <row r="41" ht="35" customHeight="1" s="479">
+      <c r="J40" s="492" t="n"/>
+    </row>
+    <row r="41" ht="35" customHeight="1" s="477">
       <c r="A41" s="233" t="n">
         <v>8</v>
       </c>
@@ -12261,18 +12267,18 @@
           <t>Pillar Drilling</t>
         </is>
       </c>
-      <c r="C41" s="428" t="n"/>
+      <c r="C41" s="434" t="n"/>
       <c r="D41" s="429" t="n"/>
       <c r="E41" s="430" t="n"/>
       <c r="F41" s="298">
         <f>'Mould Costing'!$I$81</f>
         <v/>
       </c>
-      <c r="G41" s="574">
+      <c r="G41" s="575">
         <f>'Mould Costing'!I$80</f>
         <v/>
       </c>
-      <c r="H41" s="575">
+      <c r="H41" s="576">
         <f>F41*G41*'Mould Costing'!$C$83</f>
         <v/>
       </c>
@@ -12280,9 +12286,9 @@
         <f>H41/$H$50</f>
         <v/>
       </c>
-      <c r="J41" s="476" t="n"/>
-    </row>
-    <row r="42" ht="35" customHeight="1" s="479">
+      <c r="J41" s="492" t="n"/>
+    </row>
+    <row r="42" ht="35" customHeight="1" s="477">
       <c r="A42" s="233" t="n">
         <v>9</v>
       </c>
@@ -12291,28 +12297,28 @@
           <t>Gun Drilling</t>
         </is>
       </c>
-      <c r="C42" s="428" t="n"/>
+      <c r="C42" s="434" t="n"/>
       <c r="D42" s="429" t="n"/>
       <c r="E42" s="430" t="n"/>
       <c r="F42" s="298">
         <f>'Mould Costing'!$J$81</f>
         <v/>
       </c>
-      <c r="G42" s="574">
+      <c r="G42" s="575">
         <f>'Mould Costing'!J$80</f>
         <v/>
       </c>
-      <c r="H42" s="575">
+      <c r="H42" s="576">
         <f>F42*G42*'Mould Costing'!$C$83</f>
         <v/>
       </c>
-      <c r="I42" s="577">
+      <c r="I42" s="578">
         <f>H42/$H$50</f>
         <v/>
       </c>
-      <c r="J42" s="476" t="n"/>
-    </row>
-    <row r="43" ht="35" customHeight="1" s="479">
+      <c r="J42" s="492" t="n"/>
+    </row>
+    <row r="43" ht="35" customHeight="1" s="477">
       <c r="A43" s="233" t="n">
         <v>10</v>
       </c>
@@ -12321,18 +12327,18 @@
           <t>NC EDM</t>
         </is>
       </c>
-      <c r="C43" s="428" t="n"/>
+      <c r="C43" s="434" t="n"/>
       <c r="D43" s="429" t="n"/>
       <c r="E43" s="430" t="n"/>
       <c r="F43" s="298">
         <f>'Mould Costing'!K$81</f>
         <v/>
       </c>
-      <c r="G43" s="574">
+      <c r="G43" s="575">
         <f>'Mould Costing'!K$80</f>
         <v/>
       </c>
-      <c r="H43" s="575">
+      <c r="H43" s="576">
         <f>F43*G43*'Mould Costing'!$C$83</f>
         <v/>
       </c>
@@ -12340,9 +12346,9 @@
         <f>H43/$H$50</f>
         <v/>
       </c>
-      <c r="J43" s="476" t="n"/>
-    </row>
-    <row r="44" ht="35" customHeight="1" s="479">
+      <c r="J43" s="492" t="n"/>
+    </row>
+    <row r="44" ht="35" customHeight="1" s="477">
       <c r="A44" s="233" t="n">
         <v>11</v>
       </c>
@@ -12351,18 +12357,18 @@
           <t>Wirecut EDM</t>
         </is>
       </c>
-      <c r="C44" s="428" t="n"/>
+      <c r="C44" s="434" t="n"/>
       <c r="D44" s="429" t="n"/>
       <c r="E44" s="430" t="n"/>
       <c r="F44" s="298">
         <f>'Mould Costing'!$L$81</f>
         <v/>
       </c>
-      <c r="G44" s="574">
+      <c r="G44" s="575">
         <f>'Mould Costing'!L$80</f>
         <v/>
       </c>
-      <c r="H44" s="575">
+      <c r="H44" s="576">
         <f>F44*G44*'Mould Costing'!$C$83</f>
         <v/>
       </c>
@@ -12370,9 +12376,9 @@
         <f>H44/$H$50</f>
         <v/>
       </c>
-      <c r="J44" s="476" t="n"/>
-    </row>
-    <row r="45" ht="35" customHeight="1" s="479">
+      <c r="J44" s="492" t="n"/>
+    </row>
+    <row r="45" ht="35" customHeight="1" s="477">
       <c r="A45" s="293" t="n">
         <v>12</v>
       </c>
@@ -12381,18 +12387,18 @@
           <t>Jig Boring</t>
         </is>
       </c>
-      <c r="C45" s="428" t="n"/>
+      <c r="C45" s="434" t="n"/>
       <c r="D45" s="429" t="n"/>
       <c r="E45" s="430" t="n"/>
       <c r="F45" s="298">
         <f>'Mould Costing'!$M$81</f>
         <v/>
       </c>
-      <c r="G45" s="574">
+      <c r="G45" s="575">
         <f>'Mould Costing'!M$80</f>
         <v/>
       </c>
-      <c r="H45" s="575">
+      <c r="H45" s="576">
         <f>F45*G45*'Mould Costing'!$C$83</f>
         <v/>
       </c>
@@ -12400,9 +12406,9 @@
         <f>H45/$H$50</f>
         <v/>
       </c>
-      <c r="J45" s="476" t="n"/>
-    </row>
-    <row r="46" ht="35" customHeight="1" s="479">
+      <c r="J45" s="492" t="n"/>
+    </row>
+    <row r="46" ht="35" customHeight="1" s="477">
       <c r="A46" s="293" t="n">
         <v>13</v>
       </c>
@@ -12411,18 +12417,18 @@
           <t>CNC Lathe</t>
         </is>
       </c>
-      <c r="C46" s="428" t="n"/>
+      <c r="C46" s="434" t="n"/>
       <c r="D46" s="429" t="n"/>
       <c r="E46" s="430" t="n"/>
       <c r="F46" s="298">
         <f>'Mould Costing'!$N$81</f>
         <v/>
       </c>
-      <c r="G46" s="574">
+      <c r="G46" s="575">
         <f>'Mould Costing'!N$80</f>
         <v/>
       </c>
-      <c r="H46" s="575">
+      <c r="H46" s="576">
         <f>F46*G46*'Mould Costing'!$C$83</f>
         <v/>
       </c>
@@ -12430,9 +12436,9 @@
         <f>H46/$H$50</f>
         <v/>
       </c>
-      <c r="J46" s="476" t="n"/>
-    </row>
-    <row r="47" ht="35" customHeight="1" s="479">
+      <c r="J46" s="492" t="n"/>
+    </row>
+    <row r="47" ht="35" customHeight="1" s="477">
       <c r="A47" s="293" t="n">
         <v>14</v>
       </c>
@@ -12441,18 +12447,18 @@
           <t>CNC Milling</t>
         </is>
       </c>
-      <c r="C47" s="428" t="n"/>
+      <c r="C47" s="434" t="n"/>
       <c r="D47" s="429" t="n"/>
       <c r="E47" s="430" t="n"/>
       <c r="F47" s="298">
         <f>'Mould Costing'!$O$81</f>
         <v/>
       </c>
-      <c r="G47" s="574">
+      <c r="G47" s="575">
         <f>'Mould Costing'!O$80</f>
         <v/>
       </c>
-      <c r="H47" s="575">
+      <c r="H47" s="576">
         <f>F47*G47*'Mould Costing'!$C$83</f>
         <v/>
       </c>
@@ -12460,9 +12466,9 @@
         <f>H47/$H$50</f>
         <v/>
       </c>
-      <c r="J47" s="476" t="n"/>
-    </row>
-    <row r="48" ht="35" customHeight="1" s="479">
+      <c r="J47" s="492" t="n"/>
+    </row>
+    <row r="48" ht="35" customHeight="1" s="477">
       <c r="A48" s="293" t="n">
         <v>15</v>
       </c>
@@ -12471,18 +12477,18 @@
           <t>CNC EDM</t>
         </is>
       </c>
-      <c r="C48" s="428" t="n"/>
+      <c r="C48" s="434" t="n"/>
       <c r="D48" s="429" t="n"/>
       <c r="E48" s="430" t="n"/>
       <c r="F48" s="298">
         <f>'Mould Costing'!$P$81</f>
         <v/>
       </c>
-      <c r="G48" s="574">
+      <c r="G48" s="575">
         <f>'Mould Costing'!P$80</f>
         <v/>
       </c>
-      <c r="H48" s="575">
+      <c r="H48" s="576">
         <f>F48*G48*'Mould Costing'!$C$83</f>
         <v/>
       </c>
@@ -12490,9 +12496,9 @@
         <f>H48/$H$50</f>
         <v/>
       </c>
-      <c r="J48" s="476" t="n"/>
-    </row>
-    <row r="49" ht="35.5" customHeight="1" s="479" thickBot="1">
+      <c r="J48" s="492" t="n"/>
+    </row>
+    <row r="49" ht="35.5" customHeight="1" s="477" thickBot="1">
       <c r="A49" s="293" t="n">
         <v>16</v>
       </c>
@@ -12501,18 +12507,18 @@
           <t>Bench Work</t>
         </is>
       </c>
-      <c r="C49" s="428" t="n"/>
+      <c r="C49" s="434" t="n"/>
       <c r="D49" s="429" t="n"/>
       <c r="E49" s="430" t="n"/>
       <c r="F49" s="298">
         <f>'Mould Costing'!$Q$81</f>
         <v/>
       </c>
-      <c r="G49" s="574">
+      <c r="G49" s="575">
         <f>'Mould Costing'!Q$80</f>
         <v/>
       </c>
-      <c r="H49" s="575">
+      <c r="H49" s="576">
         <f>F49*G49*'Mould Costing'!$C$83</f>
         <v/>
       </c>
@@ -12520,31 +12526,31 @@
         <f>H49/$H$50</f>
         <v/>
       </c>
-      <c r="J49" s="476" t="n"/>
-    </row>
-    <row r="50" ht="35.5" customHeight="1" s="479" thickBot="1">
-      <c r="A50" s="448" t="inlineStr">
+      <c r="J49" s="492" t="n"/>
+    </row>
+    <row r="50" ht="35.5" customHeight="1" s="477" thickBot="1">
+      <c r="A50" s="443" t="inlineStr">
         <is>
           <t>TOTAL IN Rs.</t>
         </is>
       </c>
-      <c r="B50" s="423" t="n"/>
-      <c r="C50" s="423" t="n"/>
-      <c r="D50" s="423" t="n"/>
+      <c r="B50" s="426" t="n"/>
+      <c r="C50" s="426" t="n"/>
+      <c r="D50" s="426" t="n"/>
       <c r="E50" s="320" t="n"/>
-      <c r="F50" s="578" t="n"/>
-      <c r="G50" s="578">
+      <c r="F50" s="579" t="n"/>
+      <c r="G50" s="579">
         <f>SUM(G34:G49)</f>
         <v/>
       </c>
-      <c r="H50" s="579">
+      <c r="H50" s="580">
         <f>SUM(H34:H49)</f>
         <v/>
       </c>
-      <c r="I50" s="580" t="n"/>
+      <c r="I50" s="581" t="n"/>
       <c r="J50" s="226" t="n"/>
     </row>
-    <row r="51" ht="35" customHeight="1" s="479">
+    <row r="51" ht="35" customHeight="1" s="477">
       <c r="A51" s="243" t="n"/>
       <c r="B51" s="250" t="n"/>
       <c r="C51" s="250" t="n"/>
@@ -12552,11 +12558,11 @@
       <c r="E51" s="290" t="n"/>
       <c r="F51" s="290" t="n"/>
       <c r="G51" s="290" t="n"/>
-      <c r="H51" s="569" t="n"/>
-      <c r="I51" s="569" t="n"/>
+      <c r="H51" s="570" t="n"/>
+      <c r="I51" s="570" t="n"/>
       <c r="J51" s="226" t="n"/>
     </row>
-    <row r="52" ht="35" customHeight="1" s="479">
+    <row r="52" ht="35" customHeight="1" s="477">
       <c r="A52" s="244" t="inlineStr">
         <is>
           <t xml:space="preserve">TOTAL PROCESS COST :-                                                            </t>
@@ -12568,18 +12574,18 @@
       <c r="E52" s="251" t="n"/>
       <c r="F52" s="291" t="n"/>
       <c r="G52" s="251" t="n"/>
-      <c r="H52" s="581">
+      <c r="H52" s="582">
         <f>H50</f>
         <v/>
       </c>
-      <c r="I52" s="581" t="n"/>
+      <c r="I52" s="582" t="n"/>
       <c r="J52" s="242" t="inlineStr">
         <is>
           <t xml:space="preserve">         ( C )</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="35" customHeight="1" s="479">
+    <row r="53" ht="35" customHeight="1" s="477">
       <c r="A53" s="227" t="n"/>
       <c r="B53" s="294" t="n"/>
       <c r="C53" s="294" t="n"/>
@@ -12587,11 +12593,11 @@
       <c r="E53" s="291" t="n"/>
       <c r="F53" s="291" t="n"/>
       <c r="G53" s="291" t="n"/>
-      <c r="H53" s="581" t="n"/>
-      <c r="I53" s="581" t="n"/>
+      <c r="H53" s="582" t="n"/>
+      <c r="I53" s="582" t="n"/>
       <c r="J53" s="226" t="n"/>
     </row>
-    <row r="54" ht="35" customHeight="1" s="479">
+    <row r="54" ht="35" customHeight="1" s="477">
       <c r="A54" s="244" t="inlineStr">
         <is>
           <t>IV) PROFIT &amp; OVERHEADS COST :</t>
@@ -12603,11 +12609,11 @@
       <c r="E54" s="290" t="n"/>
       <c r="F54" s="290" t="n"/>
       <c r="G54" s="290" t="n"/>
-      <c r="H54" s="569" t="n"/>
-      <c r="I54" s="569" t="n"/>
+      <c r="H54" s="570" t="n"/>
+      <c r="I54" s="570" t="n"/>
       <c r="J54" s="226" t="n"/>
     </row>
-    <row r="55" ht="35.5" customHeight="1" s="479" thickBot="1">
+    <row r="55" ht="35.5" customHeight="1" s="477" thickBot="1">
       <c r="A55" s="227" t="n"/>
       <c r="B55" s="250" t="n"/>
       <c r="C55" s="250" t="n"/>
@@ -12615,26 +12621,26 @@
       <c r="E55" s="290" t="n"/>
       <c r="F55" s="290" t="n"/>
       <c r="G55" s="290" t="n"/>
-      <c r="H55" s="569" t="n"/>
-      <c r="I55" s="569" t="n"/>
+      <c r="H55" s="570" t="n"/>
+      <c r="I55" s="570" t="n"/>
       <c r="J55" s="226" t="n"/>
     </row>
-    <row r="56" ht="35.5" customHeight="1" s="479" thickBot="1">
-      <c r="A56" s="496" t="n"/>
-      <c r="B56" s="497" t="n"/>
-      <c r="C56" s="470" t="inlineStr">
+    <row r="56" ht="35.5" customHeight="1" s="477" thickBot="1">
+      <c r="A56" s="465" t="n"/>
+      <c r="B56" s="466" t="n"/>
+      <c r="C56" s="469" t="inlineStr">
         <is>
           <t>REMARKS</t>
         </is>
       </c>
       <c r="D56" s="432" t="n"/>
-      <c r="E56" s="426" t="inlineStr">
+      <c r="E56" s="454" t="inlineStr">
         <is>
           <t xml:space="preserve">       %AGE RATE </t>
         </is>
       </c>
-      <c r="F56" s="427" t="n"/>
-      <c r="G56" s="431" t="inlineStr">
+      <c r="F56" s="455" t="n"/>
+      <c r="G56" s="456" t="inlineStr">
         <is>
           <t xml:space="preserve">TOTAL COST </t>
         </is>
@@ -12643,99 +12649,99 @@
       <c r="I56" s="243" t="n"/>
       <c r="J56" s="226" t="n"/>
     </row>
-    <row r="57" ht="35" customHeight="1" s="479">
-      <c r="A57" s="449" t="inlineStr">
+    <row r="57" ht="35" customHeight="1" s="477">
+      <c r="A57" s="444" t="inlineStr">
         <is>
           <t>Material Movement &amp; Mold Forwarding</t>
         </is>
       </c>
-      <c r="B57" s="447" t="n"/>
-      <c r="C57" s="449" t="n"/>
-      <c r="D57" s="447" t="n"/>
-      <c r="E57" s="446" t="n"/>
-      <c r="F57" s="447" t="n"/>
-      <c r="G57" s="582">
+      <c r="B57" s="442" t="n"/>
+      <c r="C57" s="444" t="n"/>
+      <c r="D57" s="442" t="n"/>
+      <c r="E57" s="441" t="n"/>
+      <c r="F57" s="442" t="n"/>
+      <c r="G57" s="583">
         <f>'Mould Costing'!L96</f>
         <v/>
       </c>
-      <c r="H57" s="447" t="n"/>
-      <c r="I57" s="583" t="n"/>
+      <c r="H57" s="442" t="n"/>
+      <c r="I57" s="584" t="n"/>
       <c r="J57" s="226" t="n"/>
     </row>
-    <row r="58" ht="35" customHeight="1" s="479">
-      <c r="A58" s="428" t="inlineStr">
+    <row r="58" ht="35" customHeight="1" s="477">
+      <c r="A58" s="434" t="inlineStr">
         <is>
           <t>SERVICE CHARGE</t>
         </is>
       </c>
       <c r="B58" s="430" t="n"/>
-      <c r="C58" s="428" t="n"/>
+      <c r="C58" s="434" t="n"/>
       <c r="D58" s="430" t="n"/>
-      <c r="E58" s="457" t="n"/>
+      <c r="E58" s="447" t="n"/>
       <c r="F58" s="430" t="n"/>
-      <c r="G58" s="584">
+      <c r="G58" s="585">
         <f>'Mould Costing'!L99</f>
         <v/>
       </c>
       <c r="H58" s="430" t="n"/>
-      <c r="I58" s="583" t="n"/>
+      <c r="I58" s="584" t="n"/>
       <c r="J58" s="226" t="n"/>
     </row>
-    <row r="59" ht="35" customHeight="1" s="479">
-      <c r="A59" s="428" t="inlineStr">
+    <row r="59" ht="35" customHeight="1" s="477">
+      <c r="A59" s="434" t="inlineStr">
         <is>
           <t>PROFIT &amp; OVERHEADS</t>
         </is>
       </c>
       <c r="B59" s="430" t="n"/>
-      <c r="C59" s="428" t="n"/>
+      <c r="C59" s="434" t="n"/>
       <c r="D59" s="430" t="n"/>
-      <c r="E59" s="457" t="n"/>
+      <c r="E59" s="447" t="n"/>
       <c r="F59" s="430" t="n"/>
-      <c r="G59" s="585">
+      <c r="G59" s="586">
         <f>'Mould Costing'!L95</f>
         <v/>
       </c>
       <c r="H59" s="430" t="n"/>
-      <c r="I59" s="586" t="n"/>
+      <c r="I59" s="587" t="n"/>
       <c r="J59" s="226" t="n"/>
     </row>
-    <row r="60" ht="35.5" customHeight="1" s="479" thickBot="1">
-      <c r="A60" s="464" t="n"/>
+    <row r="60" ht="35.5" customHeight="1" s="477" thickBot="1">
+      <c r="A60" s="452" t="n"/>
       <c r="B60" s="239" t="n"/>
       <c r="C60" s="239" t="n"/>
-      <c r="D60" s="469" t="n"/>
-      <c r="E60" s="469" t="n"/>
-      <c r="F60" s="465" t="n"/>
-      <c r="G60" s="464" t="n"/>
-      <c r="H60" s="465" t="n"/>
+      <c r="D60" s="467" t="n"/>
+      <c r="E60" s="467" t="n"/>
+      <c r="F60" s="453" t="n"/>
+      <c r="G60" s="452" t="n"/>
+      <c r="H60" s="453" t="n"/>
       <c r="I60" s="303" t="n"/>
       <c r="J60" s="237" t="n"/>
     </row>
-    <row r="61" ht="35.5" customHeight="1" s="479" thickBot="1">
+    <row r="61" ht="35.5" customHeight="1" s="477" thickBot="1">
       <c r="A61" s="321" t="n"/>
       <c r="B61" s="297" t="n"/>
       <c r="C61" s="297" t="n"/>
-      <c r="D61" s="426" t="n"/>
-      <c r="E61" s="438" t="inlineStr">
+      <c r="D61" s="454" t="n"/>
+      <c r="E61" s="431" t="inlineStr">
         <is>
           <t>TOTAL IN Rs.</t>
         </is>
       </c>
       <c r="F61" s="432" t="n"/>
-      <c r="G61" s="587">
+      <c r="G61" s="588">
         <f>+G57+G58+G59</f>
         <v/>
       </c>
       <c r="H61" s="432" t="n"/>
-      <c r="I61" s="588" t="n"/>
+      <c r="I61" s="589" t="n"/>
       <c r="J61" s="242" t="inlineStr">
         <is>
           <t xml:space="preserve">         ( D )</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="35.5" customHeight="1" s="479" thickBot="1">
+    <row r="62" ht="35.5" customHeight="1" s="477" thickBot="1">
       <c r="A62" s="243" t="n"/>
       <c r="B62" s="250" t="n"/>
       <c r="C62" s="250" t="n"/>
@@ -12743,11 +12749,11 @@
       <c r="E62" s="290" t="n"/>
       <c r="F62" s="290" t="n"/>
       <c r="G62" s="290" t="n"/>
-      <c r="H62" s="569" t="n"/>
-      <c r="I62" s="569" t="n"/>
+      <c r="H62" s="570" t="n"/>
+      <c r="I62" s="570" t="n"/>
       <c r="J62" s="226" t="n"/>
     </row>
-    <row r="63" ht="35.5" customHeight="1" s="479" thickBot="1">
+    <row r="63" ht="35.5" customHeight="1" s="477" thickBot="1">
       <c r="A63" s="244" t="inlineStr">
         <is>
           <t xml:space="preserve">V) OTHER EXPENSES :   Rs.                            </t>
@@ -12759,17 +12765,17 @@
       <c r="E63" s="295" t="n"/>
       <c r="F63" s="290" t="n"/>
       <c r="G63" s="290" t="n"/>
-      <c r="H63" s="589" t="n">
+      <c r="H63" s="590" t="n">
         <v>0</v>
       </c>
-      <c r="I63" s="581" t="n"/>
+      <c r="I63" s="582" t="n"/>
       <c r="J63" s="242" t="inlineStr">
         <is>
           <t xml:space="preserve">         ( E )</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="35.5" customHeight="1" s="479" thickBot="1">
+    <row r="64" ht="35.5" customHeight="1" s="477" thickBot="1">
       <c r="A64" s="227" t="n"/>
       <c r="B64" s="250" t="n"/>
       <c r="C64" s="250" t="n"/>
@@ -12777,42 +12783,42 @@
       <c r="E64" s="296" t="n"/>
       <c r="F64" s="290" t="n"/>
       <c r="G64" s="290" t="n"/>
-      <c r="H64" s="569" t="n"/>
-      <c r="I64" s="569" t="n"/>
+      <c r="H64" s="570" t="n"/>
+      <c r="I64" s="570" t="n"/>
       <c r="J64" s="226" t="n"/>
     </row>
-    <row r="65" ht="40.5" customHeight="1" s="479">
-      <c r="A65" s="458" t="inlineStr">
+    <row r="65" ht="40.5" customHeight="1" s="477">
+      <c r="A65" s="448" t="inlineStr">
         <is>
           <t>OVERALL  COST : ( A+B+C+D+E )    -  Rs</t>
         </is>
       </c>
-      <c r="B65" s="459" t="n"/>
-      <c r="C65" s="459" t="n"/>
-      <c r="D65" s="590" t="n"/>
-      <c r="E65" s="459" t="n"/>
-      <c r="F65" s="459" t="n"/>
-      <c r="G65" s="472" t="n"/>
-      <c r="H65" s="591">
+      <c r="B65" s="449" t="n"/>
+      <c r="C65" s="449" t="n"/>
+      <c r="D65" s="591" t="n"/>
+      <c r="E65" s="449" t="n"/>
+      <c r="F65" s="449" t="n"/>
+      <c r="G65" s="471" t="n"/>
+      <c r="H65" s="592">
         <f>C9+H28+H52+G61+H63+F9</f>
         <v/>
       </c>
-      <c r="I65" s="592" t="n"/>
-      <c r="J65" s="593" t="n"/>
-    </row>
-    <row r="66" ht="41" customHeight="1" s="479" thickBot="1">
-      <c r="A66" s="460" t="n"/>
-      <c r="B66" s="423" t="n"/>
-      <c r="C66" s="423" t="n"/>
-      <c r="D66" s="460" t="n"/>
-      <c r="E66" s="423" t="n"/>
-      <c r="F66" s="423" t="n"/>
-      <c r="G66" s="425" t="n"/>
-      <c r="H66" s="425" t="n"/>
-      <c r="I66" s="592" t="n"/>
-      <c r="J66" s="486" t="n"/>
-    </row>
-    <row r="67" ht="35" customHeight="1" s="479">
+      <c r="I65" s="593" t="n"/>
+      <c r="J65" s="594" t="n"/>
+    </row>
+    <row r="66" ht="41" customHeight="1" s="477" thickBot="1">
+      <c r="A66" s="450" t="n"/>
+      <c r="B66" s="426" t="n"/>
+      <c r="C66" s="426" t="n"/>
+      <c r="D66" s="450" t="n"/>
+      <c r="E66" s="426" t="n"/>
+      <c r="F66" s="426" t="n"/>
+      <c r="G66" s="427" t="n"/>
+      <c r="H66" s="427" t="n"/>
+      <c r="I66" s="593" t="n"/>
+      <c r="J66" s="458" t="n"/>
+    </row>
+    <row r="67" ht="35" customHeight="1" s="477">
       <c r="A67" s="243" t="n"/>
       <c r="B67" s="250" t="n"/>
       <c r="C67" s="250" t="n"/>
@@ -12820,41 +12826,41 @@
       <c r="E67" s="290" t="n"/>
       <c r="F67" s="290" t="n"/>
       <c r="G67" s="290" t="n"/>
-      <c r="H67" s="569" t="n"/>
-      <c r="I67" s="569" t="n"/>
+      <c r="H67" s="570" t="n"/>
+      <c r="I67" s="570" t="n"/>
       <c r="J67" s="226" t="n"/>
     </row>
-    <row r="68" ht="35" customHeight="1" s="479">
-      <c r="A68" s="440" t="inlineStr">
+    <row r="68" ht="35" customHeight="1" s="477">
+      <c r="A68" s="435" t="inlineStr">
         <is>
           <t xml:space="preserve">( PREPARED BY )  </t>
         </is>
       </c>
-      <c r="B68" s="441" t="n"/>
-      <c r="C68" s="441" t="n"/>
-      <c r="D68" s="442" t="n"/>
+      <c r="B68" s="436" t="n"/>
+      <c r="C68" s="436" t="n"/>
+      <c r="D68" s="437" t="n"/>
       <c r="E68" s="291" t="n"/>
-      <c r="F68" s="433" t="inlineStr">
+      <c r="F68" s="422" t="inlineStr">
         <is>
           <t xml:space="preserve">( APPROVED BY )  </t>
         </is>
       </c>
-      <c r="G68" s="434" t="n"/>
-      <c r="H68" s="434" t="n"/>
-      <c r="I68" s="434" t="n"/>
-      <c r="J68" s="435" t="n"/>
-    </row>
-    <row r="69" ht="35.5" customHeight="1" s="479" thickBot="1">
-      <c r="A69" s="443" t="n"/>
-      <c r="B69" s="444" t="n"/>
-      <c r="C69" s="444" t="n"/>
-      <c r="D69" s="445" t="n"/>
+      <c r="G68" s="423" t="n"/>
+      <c r="H68" s="423" t="n"/>
+      <c r="I68" s="423" t="n"/>
+      <c r="J68" s="424" t="n"/>
+    </row>
+    <row r="69" ht="35.5" customHeight="1" s="477" thickBot="1">
+      <c r="A69" s="438" t="n"/>
+      <c r="B69" s="439" t="n"/>
+      <c r="C69" s="439" t="n"/>
+      <c r="D69" s="440" t="n"/>
       <c r="E69" s="253" t="n"/>
-      <c r="F69" s="436" t="n"/>
-      <c r="G69" s="423" t="n"/>
-      <c r="H69" s="423" t="n"/>
-      <c r="I69" s="423" t="n"/>
-      <c r="J69" s="425" t="n"/>
+      <c r="F69" s="425" t="n"/>
+      <c r="G69" s="426" t="n"/>
+      <c r="H69" s="426" t="n"/>
+      <c r="I69" s="426" t="n"/>
+      <c r="J69" s="427" t="n"/>
     </row>
     <row r="78">
       <c r="H78">
@@ -12866,16 +12872,16 @@
   <mergeCells count="74">
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="G59:H59"/>
-    <mergeCell ref="F31:F33"/>
     <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C44:E44"/>
     <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="A59:B59"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="J4:J8"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D65:G66"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="D65:G66"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C31:E33"/>
     <mergeCell ref="D12:E13"/>
@@ -12902,9 +12908,9 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="E59:F59"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B31:B33"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="H65:H66"/>
     <mergeCell ref="C37:E37"/>
@@ -12930,11 +12936,11 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="C35:E35"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="E56:F56"/>
-    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="G60:H60"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="C47:E47"/>
@@ -12959,8 +12965,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col width="17.7265625" customWidth="1" style="479" min="1" max="1"/>
-    <col width="17.453125" customWidth="1" style="479" min="2" max="2"/>
+    <col width="17.7265625" customWidth="1" style="477" min="1" max="1"/>
+    <col width="17.453125" customWidth="1" style="477" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13023,8 +13029,8 @@
         <v>2.71608734139087</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="479" thickBot="1"/>
-    <row r="9" ht="26" customHeight="1" s="479">
+    <row r="8" ht="15" customHeight="1" s="477" thickBot="1"/>
+    <row r="9" ht="26" customHeight="1" s="477">
       <c r="A9" s="536" t="inlineStr">
         <is>
           <t>Mould Complexity Rating Scale for Injection Moulding:</t>
@@ -13041,7 +13047,7 @@
       <c r="J9" s="538" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="532" t="inlineStr">
+      <c r="A10" s="534" t="inlineStr">
         <is>
           <t xml:space="preserve">0.5: Very Simple Part (Easy to Design) </t>
         </is>
@@ -13054,25 +13060,25 @@
       <c r="G10" s="429" t="n"/>
       <c r="H10" s="429" t="n"/>
       <c r="I10" s="429" t="n"/>
-      <c r="J10" s="533" t="n"/>
-    </row>
-    <row r="11" ht="39" customHeight="1" s="479">
-      <c r="A11" s="534" t="inlineStr">
+      <c r="J10" s="535" t="n"/>
+    </row>
+    <row r="11" ht="39" customHeight="1" s="477">
+      <c r="A11" s="532" t="inlineStr">
         <is>
           <t>·This rating indicates that the part design is straightforward and uncomplicated. It doesn't require any complex features or additional components. Designing the mould for this part should be relatively simple.</t>
         </is>
       </c>
-      <c r="B11" s="482" t="n"/>
-      <c r="C11" s="482" t="n"/>
-      <c r="D11" s="482" t="n"/>
-      <c r="E11" s="482" t="n"/>
-      <c r="F11" s="482" t="n"/>
-      <c r="G11" s="482" t="n"/>
-      <c r="H11" s="482" t="n"/>
-      <c r="I11" s="482" t="n"/>
-      <c r="J11" s="535" t="n"/>
-    </row>
-    <row r="12" ht="11" customHeight="1" s="479">
+      <c r="B11" s="480" t="n"/>
+      <c r="C11" s="480" t="n"/>
+      <c r="D11" s="480" t="n"/>
+      <c r="E11" s="480" t="n"/>
+      <c r="F11" s="480" t="n"/>
+      <c r="G11" s="480" t="n"/>
+      <c r="H11" s="480" t="n"/>
+      <c r="I11" s="480" t="n"/>
+      <c r="J11" s="533" t="n"/>
+    </row>
+    <row r="12" ht="11" customHeight="1" s="477">
       <c r="A12" s="215" t="n"/>
       <c r="B12" s="214" t="n"/>
       <c r="C12" s="214" t="n"/>
@@ -13085,7 +13091,7 @@
       <c r="J12" s="216" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="532" t="inlineStr">
+      <c r="A13" s="534" t="inlineStr">
         <is>
           <t xml:space="preserve">1: Normal Part (Generally Symmetric) </t>
         </is>
@@ -13098,25 +13104,25 @@
       <c r="G13" s="429" t="n"/>
       <c r="H13" s="429" t="n"/>
       <c r="I13" s="429" t="n"/>
-      <c r="J13" s="533" t="n"/>
-    </row>
-    <row r="14" ht="48" customHeight="1" s="479">
-      <c r="A14" s="534" t="inlineStr">
+      <c r="J13" s="535" t="n"/>
+    </row>
+    <row r="14" ht="48" customHeight="1" s="477">
+      <c r="A14" s="532" t="inlineStr">
         <is>
           <t>·A rating of 1 suggests that the part is relatively common and exhibits symmetrical characteristics. The mould design should follow standard practices and considerations for ensuring balanced filling and ejection.</t>
         </is>
       </c>
-      <c r="B14" s="482" t="n"/>
-      <c r="C14" s="482" t="n"/>
-      <c r="D14" s="482" t="n"/>
-      <c r="E14" s="482" t="n"/>
-      <c r="F14" s="482" t="n"/>
-      <c r="G14" s="482" t="n"/>
-      <c r="H14" s="482" t="n"/>
-      <c r="I14" s="482" t="n"/>
-      <c r="J14" s="535" t="n"/>
-    </row>
-    <row r="15" ht="11.5" customHeight="1" s="479">
+      <c r="B14" s="480" t="n"/>
+      <c r="C14" s="480" t="n"/>
+      <c r="D14" s="480" t="n"/>
+      <c r="E14" s="480" t="n"/>
+      <c r="F14" s="480" t="n"/>
+      <c r="G14" s="480" t="n"/>
+      <c r="H14" s="480" t="n"/>
+      <c r="I14" s="480" t="n"/>
+      <c r="J14" s="533" t="n"/>
+    </row>
+    <row r="15" ht="11.5" customHeight="1" s="477">
       <c r="A15" s="215" t="n"/>
       <c r="B15" s="214" t="n"/>
       <c r="C15" s="214" t="n"/>
@@ -13128,8 +13134,8 @@
       <c r="I15" s="214" t="n"/>
       <c r="J15" s="216" t="n"/>
     </row>
-    <row r="16" ht="14" customHeight="1" s="479">
-      <c r="A16" s="532" t="inlineStr">
+    <row r="16" ht="14" customHeight="1" s="477">
+      <c r="A16" s="534" t="inlineStr">
         <is>
           <t xml:space="preserve">2: Normal Part (Use of Side Cores, Lifters, Inserts Pins for Adding Features) </t>
         </is>
@@ -13142,25 +13148,25 @@
       <c r="G16" s="429" t="n"/>
       <c r="H16" s="429" t="n"/>
       <c r="I16" s="429" t="n"/>
-      <c r="J16" s="533" t="n"/>
-    </row>
-    <row r="17" ht="49.5" customHeight="1" s="479">
-      <c r="A17" s="534" t="inlineStr">
+      <c r="J16" s="535" t="n"/>
+    </row>
+    <row r="17" ht="49.5" customHeight="1" s="477">
+      <c r="A17" s="532" t="inlineStr">
         <is>
           <t>·This rating implies that the part design includes some additional features such as side cores, lifters, or pins to achieve certain functionalities or complex shapes. The mould design must account for these features and incorporate the necessary mechanisms for their proper operation.</t>
         </is>
       </c>
-      <c r="B17" s="482" t="n"/>
-      <c r="C17" s="482" t="n"/>
-      <c r="D17" s="482" t="n"/>
-      <c r="E17" s="482" t="n"/>
-      <c r="F17" s="482" t="n"/>
-      <c r="G17" s="482" t="n"/>
-      <c r="H17" s="482" t="n"/>
-      <c r="I17" s="482" t="n"/>
-      <c r="J17" s="535" t="n"/>
-    </row>
-    <row r="18" ht="14.5" customHeight="1" s="479">
+      <c r="B17" s="480" t="n"/>
+      <c r="C17" s="480" t="n"/>
+      <c r="D17" s="480" t="n"/>
+      <c r="E17" s="480" t="n"/>
+      <c r="F17" s="480" t="n"/>
+      <c r="G17" s="480" t="n"/>
+      <c r="H17" s="480" t="n"/>
+      <c r="I17" s="480" t="n"/>
+      <c r="J17" s="533" t="n"/>
+    </row>
+    <row r="18" ht="14.5" customHeight="1" s="477">
       <c r="A18" s="215" t="n"/>
       <c r="B18" s="214" t="n"/>
       <c r="C18" s="214" t="n"/>
@@ -13173,7 +13179,7 @@
       <c r="J18" s="216" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="532" t="inlineStr">
+      <c r="A19" s="534" t="inlineStr">
         <is>
           <t>3: Moderately Complex Part</t>
         </is>
@@ -13186,25 +13192,25 @@
       <c r="G19" s="429" t="n"/>
       <c r="H19" s="429" t="n"/>
       <c r="I19" s="429" t="n"/>
-      <c r="J19" s="533" t="n"/>
-    </row>
-    <row r="20" ht="52" customHeight="1" s="479">
-      <c r="A20" s="534" t="inlineStr">
+      <c r="J19" s="535" t="n"/>
+    </row>
+    <row r="20" ht="52" customHeight="1" s="477">
+      <c r="A20" s="532" t="inlineStr">
         <is>
           <t>·A rating of 3 signifies that the part design is moderately complex, with features that require careful attention during mould construction. It may involve the inclusion of multiple moving components, intricate geometries, or specific design requirements. The mould construction process should adhere to detailed instructions to ensure the successful production of the part.</t>
         </is>
       </c>
-      <c r="B20" s="482" t="n"/>
-      <c r="C20" s="482" t="n"/>
-      <c r="D20" s="482" t="n"/>
-      <c r="E20" s="482" t="n"/>
-      <c r="F20" s="482" t="n"/>
-      <c r="G20" s="482" t="n"/>
-      <c r="H20" s="482" t="n"/>
-      <c r="I20" s="482" t="n"/>
-      <c r="J20" s="535" t="n"/>
-    </row>
-    <row r="21" ht="11" customHeight="1" s="479">
+      <c r="B20" s="480" t="n"/>
+      <c r="C20" s="480" t="n"/>
+      <c r="D20" s="480" t="n"/>
+      <c r="E20" s="480" t="n"/>
+      <c r="F20" s="480" t="n"/>
+      <c r="G20" s="480" t="n"/>
+      <c r="H20" s="480" t="n"/>
+      <c r="I20" s="480" t="n"/>
+      <c r="J20" s="533" t="n"/>
+    </row>
+    <row r="21" ht="11" customHeight="1" s="477">
       <c r="A21" s="217" t="n"/>
       <c r="B21" s="218" t="n"/>
       <c r="C21" s="218" t="n"/>
@@ -13217,7 +13223,7 @@
       <c r="J21" s="219" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="532" t="inlineStr">
+      <c r="A22" s="534" t="inlineStr">
         <is>
           <t xml:space="preserve">4: Complex Part, High Features, More Holes, Instruction Need to be Followed </t>
         </is>
@@ -13230,23 +13236,23 @@
       <c r="G22" s="429" t="n"/>
       <c r="H22" s="429" t="n"/>
       <c r="I22" s="429" t="n"/>
-      <c r="J22" s="533" t="n"/>
-    </row>
-    <row r="23" ht="46" customHeight="1" s="479">
-      <c r="A23" s="534" t="inlineStr">
+      <c r="J22" s="535" t="n"/>
+    </row>
+    <row r="23" ht="46" customHeight="1" s="477">
+      <c r="A23" s="532" t="inlineStr">
         <is>
           <t>·A rating of 4 indicates that the part design is complex, with numerous features, holes, or intricate details. It requires meticulous adherence to specific instructions during mould construction. The design may involve challenging geometries, tight tolerances, or advanced molding techniques to achieve the desired outcome.</t>
         </is>
       </c>
-      <c r="B23" s="482" t="n"/>
-      <c r="C23" s="482" t="n"/>
-      <c r="D23" s="482" t="n"/>
-      <c r="E23" s="482" t="n"/>
-      <c r="F23" s="482" t="n"/>
-      <c r="G23" s="482" t="n"/>
-      <c r="H23" s="482" t="n"/>
-      <c r="I23" s="482" t="n"/>
-      <c r="J23" s="535" t="n"/>
+      <c r="B23" s="480" t="n"/>
+      <c r="C23" s="480" t="n"/>
+      <c r="D23" s="480" t="n"/>
+      <c r="E23" s="480" t="n"/>
+      <c r="F23" s="480" t="n"/>
+      <c r="G23" s="480" t="n"/>
+      <c r="H23" s="480" t="n"/>
+      <c r="I23" s="480" t="n"/>
+      <c r="J23" s="533" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="215" t="n"/>
@@ -13261,7 +13267,7 @@
       <c r="J24" s="216" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="532" t="inlineStr">
+      <c r="A25" s="534" t="inlineStr">
         <is>
           <t>5: Very Complex Part, Lots of Features, Large Part Size, High Electrode Requirement, Detailed Design Instructions</t>
         </is>
@@ -13274,25 +13280,25 @@
       <c r="G25" s="429" t="n"/>
       <c r="H25" s="429" t="n"/>
       <c r="I25" s="429" t="n"/>
-      <c r="J25" s="533" t="n"/>
-    </row>
-    <row r="26" ht="49.5" customHeight="1" s="479">
-      <c r="A26" s="534" t="inlineStr">
+      <c r="J25" s="535" t="n"/>
+    </row>
+    <row r="26" ht="49.5" customHeight="1" s="477">
+      <c r="A26" s="532" t="inlineStr">
         <is>
           <t>·This rating represents the highest level of complexity. The part design is extremely intricate, with numerous features, a large size, and high electrode requirements. The mould design must accommodate the complexity of the part, following detailed design instructions precisely to ensure a successful injection molding process.</t>
         </is>
       </c>
-      <c r="B26" s="482" t="n"/>
-      <c r="C26" s="482" t="n"/>
-      <c r="D26" s="482" t="n"/>
-      <c r="E26" s="482" t="n"/>
-      <c r="F26" s="482" t="n"/>
-      <c r="G26" s="482" t="n"/>
-      <c r="H26" s="482" t="n"/>
-      <c r="I26" s="482" t="n"/>
-      <c r="J26" s="535" t="n"/>
-    </row>
-    <row r="27" ht="47" customHeight="1" s="479" thickBot="1">
+      <c r="B26" s="480" t="n"/>
+      <c r="C26" s="480" t="n"/>
+      <c r="D26" s="480" t="n"/>
+      <c r="E26" s="480" t="n"/>
+      <c r="F26" s="480" t="n"/>
+      <c r="G26" s="480" t="n"/>
+      <c r="H26" s="480" t="n"/>
+      <c r="I26" s="480" t="n"/>
+      <c r="J26" s="533" t="n"/>
+    </row>
+    <row r="27" ht="47" customHeight="1" s="477" thickBot="1">
       <c r="A27" s="529" t="inlineStr">
         <is>
           <t>It's important to note that the complexity ratings are subjective and may vary depending on the specific context and industry standards. The ratings provided here are intended as a general guideline to help assess the level of complexity in injection mould design and construction.</t>
@@ -13348,8 +13354,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col width="43.1796875" customWidth="1" style="479" min="2" max="2"/>
-    <col width="40.81640625" customWidth="1" style="479" min="3" max="3"/>
+    <col width="43.1796875" customWidth="1" style="477" min="2" max="2"/>
+    <col width="40.81640625" customWidth="1" style="477" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -13358,14 +13364,14 @@
           <t>Guide Pillar Working Diameter Calculation</t>
         </is>
       </c>
-      <c r="C2" s="434" t="n"/>
-      <c r="D2" s="465" t="n"/>
+      <c r="C2" s="423" t="n"/>
+      <c r="D2" s="453" t="n"/>
       <c r="E2" s="126" t="n"/>
     </row>
     <row r="3">
-      <c r="B3" s="481" t="n"/>
-      <c r="C3" s="482" t="n"/>
-      <c r="D3" s="447" t="n"/>
+      <c r="B3" s="479" t="n"/>
+      <c r="C3" s="480" t="n"/>
+      <c r="D3" s="442" t="n"/>
       <c r="E3" s="126" t="n"/>
     </row>
     <row r="4">
@@ -13384,7 +13390,7 @@
     </row>
     <row r="5">
       <c r="B5" s="71" t="n"/>
-      <c r="C5" s="615">
+      <c r="C5" s="616">
         <f>C16+1+1</f>
         <v/>
       </c>
@@ -13411,7 +13417,7 @@
       <c r="D7" s="71" t="n"/>
       <c r="E7" s="63" t="n"/>
     </row>
-    <row r="8" ht="26" customHeight="1" s="479">
+    <row r="8" ht="26" customHeight="1" s="477">
       <c r="B8" s="71" t="n"/>
       <c r="C8" s="127" t="inlineStr">
         <is>
@@ -13442,7 +13448,7 @@
       </c>
       <c r="E9" s="63" t="n"/>
     </row>
-    <row r="10" ht="26" customHeight="1" s="479">
+    <row r="10" ht="26" customHeight="1" s="477">
       <c r="B10" s="71" t="inlineStr">
         <is>
           <t>D is the diameter of the part</t>
@@ -13522,7 +13528,7 @@
     </row>
     <row r="16">
       <c r="B16" s="71" t="n"/>
-      <c r="C16" s="615">
+      <c r="C16" s="616">
         <f>SQRT((4*C9)/(C19*C20*3.14))</f>
         <v/>
       </c>
@@ -13535,7 +13541,7 @@
     </row>
     <row r="17">
       <c r="B17" s="71" t="n"/>
-      <c r="C17" s="615">
+      <c r="C17" s="616">
         <f>C16+1</f>
         <v/>
       </c>
@@ -13572,7 +13578,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="16.5" customHeight="1" s="479">
+    <row r="20" ht="16.5" customHeight="1" s="477">
       <c r="B20" s="71" t="inlineStr">
         <is>
           <t>fs is the shear force for steel</t>
@@ -13613,12 +13619,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col width="14.1796875" customWidth="1" style="479" min="1" max="1"/>
-    <col width="9.26953125" customWidth="1" style="479" min="10" max="10"/>
-    <col width="8.54296875" customWidth="1" style="479" min="11" max="11"/>
-    <col width="20.1796875" customWidth="1" style="479" min="14" max="14"/>
+    <col width="14.1796875" customWidth="1" style="477" min="1" max="1"/>
+    <col width="9.26953125" customWidth="1" style="477" min="10" max="10"/>
+    <col width="8.54296875" customWidth="1" style="477" min="11" max="11"/>
+    <col width="20.1796875" customWidth="1" style="477" min="14" max="14"/>
     <col width="8.81640625" customWidth="1" style="544" min="15" max="15"/>
-    <col width="10.1796875" customWidth="1" style="479" min="17" max="17"/>
+    <col width="10.1796875" customWidth="1" style="477" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -13690,11 +13696,11 @@
           <t>in cm</t>
         </is>
       </c>
-      <c r="P9" s="616">
+      <c r="P9" s="617">
         <f>P8/10</f>
         <v/>
       </c>
-      <c r="Q9" s="616">
+      <c r="Q9" s="617">
         <f>Q8/10</f>
         <v/>
       </c>
@@ -13810,7 +13816,7 @@
       <c r="F25" s="430" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="453" t="n"/>
+      <c r="A26" s="484" t="n"/>
       <c r="B26" s="542" t="n">
         <v>1</v>
       </c>
@@ -13837,7 +13843,7 @@
         <f>'Input-Output'!B2</f>
         <v/>
       </c>
-      <c r="L26" s="465" t="inlineStr">
+      <c r="L26" s="453" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
@@ -13849,27 +13855,27 @@
           <t>L(formula)</t>
         </is>
       </c>
-      <c r="B27" s="439" t="inlineStr">
+      <c r="B27" s="433" t="inlineStr">
         <is>
           <t>l+2G</t>
         </is>
       </c>
-      <c r="C27" s="439" t="inlineStr">
+      <c r="C27" s="433" t="inlineStr">
         <is>
           <t>2l+T+2G</t>
         </is>
       </c>
-      <c r="D27" s="439" t="inlineStr">
+      <c r="D27" s="433" t="inlineStr">
         <is>
           <t>2l+T+2G</t>
         </is>
       </c>
-      <c r="E27" s="439" t="inlineStr">
+      <c r="E27" s="433" t="inlineStr">
         <is>
           <t>2l+T+2G</t>
         </is>
       </c>
-      <c r="F27" s="439" t="inlineStr">
+      <c r="F27" s="433" t="inlineStr">
         <is>
           <t>3T+4l+2G</t>
         </is>
@@ -13885,13 +13891,13 @@
         <f>'Input-Output'!B3</f>
         <v/>
       </c>
-      <c r="L27" s="465" t="inlineStr">
+      <c r="L27" s="453" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="29" customHeight="1" s="479">
+    <row r="28" ht="29" customHeight="1" s="477">
       <c r="A28" s="117" t="inlineStr">
         <is>
           <t>Value in mm</t>
@@ -13928,7 +13934,7 @@
         <f>'Input-Output'!F7</f>
         <v/>
       </c>
-      <c r="L28" s="465" t="inlineStr">
+      <c r="L28" s="453" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
@@ -13940,27 +13946,27 @@
           <t>W(formula)</t>
         </is>
       </c>
-      <c r="B29" s="439" t="inlineStr">
+      <c r="B29" s="433" t="inlineStr">
         <is>
           <t>w+2G</t>
         </is>
       </c>
-      <c r="C29" s="439" t="inlineStr">
+      <c r="C29" s="433" t="inlineStr">
         <is>
           <t>2G+w</t>
         </is>
       </c>
-      <c r="D29" s="439" t="inlineStr">
+      <c r="D29" s="433" t="inlineStr">
         <is>
           <t>T+2w+2G</t>
         </is>
       </c>
-      <c r="E29" s="439" t="inlineStr">
+      <c r="E29" s="433" t="inlineStr">
         <is>
           <t>3w+2T+2G</t>
         </is>
       </c>
-      <c r="F29" s="439" t="inlineStr">
+      <c r="F29" s="433" t="inlineStr">
         <is>
           <t>2w+T+2G</t>
         </is>
@@ -14078,36 +14084,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col width="3.90625" customWidth="1" style="479" min="1" max="1"/>
-    <col width="57.453125" customWidth="1" style="479" min="2" max="2"/>
-    <col width="17" customWidth="1" style="479" min="3" max="3"/>
-    <col width="23.90625" customWidth="1" style="479" min="6" max="6"/>
-    <col width="20.1796875" customWidth="1" style="479" min="8" max="8"/>
-    <col width="17.81640625" customWidth="1" style="479" min="10" max="10"/>
-    <col width="3.1796875" customWidth="1" style="479" min="11" max="11"/>
-    <col width="17.90625" customWidth="1" style="479" min="19" max="19"/>
-    <col width="14.1796875" customWidth="1" style="479" min="20" max="20"/>
-    <col width="18.26953125" customWidth="1" style="479" min="21" max="21"/>
-    <col width="15.6328125" customWidth="1" style="479" min="22" max="22"/>
-    <col width="12.1796875" customWidth="1" style="479" min="23" max="23"/>
+    <col width="3.90625" customWidth="1" style="477" min="1" max="1"/>
+    <col width="57.453125" customWidth="1" style="477" min="2" max="2"/>
+    <col width="17" customWidth="1" style="477" min="3" max="3"/>
+    <col width="23.90625" customWidth="1" style="477" min="6" max="6"/>
+    <col width="20.1796875" customWidth="1" style="477" min="8" max="8"/>
+    <col width="17.81640625" customWidth="1" style="477" min="10" max="10"/>
+    <col width="3.1796875" customWidth="1" style="477" min="11" max="11"/>
+    <col width="17.90625" customWidth="1" style="477" min="19" max="19"/>
+    <col width="14.1796875" customWidth="1" style="477" min="20" max="20"/>
+    <col width="18.26953125" customWidth="1" style="477" min="21" max="21"/>
+    <col width="15.6328125" customWidth="1" style="477" min="22" max="22"/>
+    <col width="12.1796875" customWidth="1" style="477" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="92" t="n"/>
-      <c r="B1" s="459" t="n"/>
-      <c r="C1" s="459" t="n"/>
-      <c r="D1" s="459" t="n"/>
-      <c r="E1" s="459" t="n"/>
-      <c r="F1" s="459" t="n"/>
-      <c r="G1" s="459" t="n"/>
-      <c r="H1" s="459" t="n"/>
-      <c r="I1" s="459" t="n"/>
-      <c r="J1" s="459" t="n"/>
-      <c r="K1" s="472" t="n"/>
+      <c r="B1" s="449" t="n"/>
+      <c r="C1" s="449" t="n"/>
+      <c r="D1" s="449" t="n"/>
+      <c r="E1" s="449" t="n"/>
+      <c r="F1" s="449" t="n"/>
+      <c r="G1" s="449" t="n"/>
+      <c r="H1" s="449" t="n"/>
+      <c r="I1" s="449" t="n"/>
+      <c r="J1" s="449" t="n"/>
+      <c r="K1" s="471" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="93" t="n"/>
-      <c r="B2" s="549" t="inlineStr">
+      <c r="B2" s="546" t="inlineStr">
         <is>
           <t>Core Plate thickness</t>
         </is>
@@ -14123,7 +14129,7 @@
       <c r="H2" s="429" t="n"/>
       <c r="I2" s="429" t="n"/>
       <c r="J2" s="430" t="n"/>
-      <c r="K2" s="476" t="n"/>
+      <c r="K2" s="492" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="93" t="n"/>
@@ -14159,7 +14165,7 @@
           <t>Soft. Temp</t>
         </is>
       </c>
-      <c r="K3" s="476" t="n"/>
+      <c r="K3" s="492" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="93" t="n"/>
@@ -14183,7 +14189,7 @@
       <c r="J4" s="96" t="n">
         <v>100</v>
       </c>
-      <c r="K4" s="476" t="n"/>
+      <c r="K4" s="492" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="93" t="n"/>
@@ -14218,9 +14224,9 @@
       <c r="J5" s="96" t="n">
         <v>110</v>
       </c>
-      <c r="K5" s="476" t="n"/>
-    </row>
-    <row r="6" ht="16.5" customHeight="1" s="479">
+      <c r="K5" s="492" t="n"/>
+    </row>
+    <row r="6" ht="16.5" customHeight="1" s="477">
       <c r="A6" s="93" t="n"/>
       <c r="B6" s="71" t="inlineStr">
         <is>
@@ -14253,7 +14259,7 @@
       <c r="J6" s="96" t="n">
         <v>150</v>
       </c>
-      <c r="K6" s="476" t="n"/>
+      <c r="K6" s="492" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="93" t="n"/>
@@ -14288,9 +14294,9 @@
       <c r="J7" s="96" t="n">
         <v>105</v>
       </c>
-      <c r="K7" s="476" t="n"/>
-    </row>
-    <row r="8" ht="16.5" customHeight="1" s="479">
+      <c r="K7" s="492" t="n"/>
+    </row>
+    <row r="8" ht="16.5" customHeight="1" s="477">
       <c r="A8" s="93" t="n"/>
       <c r="B8" s="71" t="inlineStr">
         <is>
@@ -14324,7 +14330,7 @@
       <c r="J8" s="96" t="n">
         <v>200</v>
       </c>
-      <c r="K8" s="476" t="n"/>
+      <c r="K8" s="492" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="93" t="n"/>
@@ -14359,7 +14365,7 @@
       <c r="J9" s="96" t="n">
         <v>170</v>
       </c>
-      <c r="K9" s="476" t="n"/>
+      <c r="K9" s="492" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="93" t="n"/>
@@ -14393,7 +14399,7 @@
       <c r="J10" s="96" t="n">
         <v>260</v>
       </c>
-      <c r="K10" s="476" t="n"/>
+      <c r="K10" s="492" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="93" t="n"/>
@@ -14418,7 +14424,7 @@
       <c r="J11" s="96" t="n">
         <v>225</v>
       </c>
-      <c r="K11" s="476" t="n"/>
+      <c r="K11" s="492" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="93" t="n"/>
@@ -14436,7 +14442,7 @@
           <t>mm</t>
         </is>
       </c>
-      <c r="K12" s="476" t="n"/>
+      <c r="K12" s="492" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="104" t="n"/>
@@ -14462,7 +14468,7 @@
       <c r="G13" s="430" t="n"/>
       <c r="H13" s="545" t="n"/>
       <c r="I13" s="430" t="n"/>
-      <c r="K13" s="476" t="n"/>
+      <c r="K13" s="492" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="93" t="n"/>
@@ -14481,7 +14487,7 @@
           <t>kN</t>
         </is>
       </c>
-      <c r="K14" s="476" t="n"/>
+      <c r="K14" s="492" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="93" t="n"/>
@@ -14507,18 +14513,18 @@
           <t>KgF</t>
         </is>
       </c>
-      <c r="K15" s="476" t="n"/>
-    </row>
-    <row r="16" ht="29" customHeight="1" s="479">
+      <c r="K15" s="492" t="n"/>
+    </row>
+    <row r="16" ht="29" customHeight="1" s="477">
       <c r="A16" s="93" t="n"/>
-      <c r="B16" s="546" t="inlineStr">
+      <c r="B16" s="549" t="inlineStr">
         <is>
           <t>Considering both ejector plate and ejector back plate as simply supported beam with uniformly distributed load</t>
         </is>
       </c>
       <c r="C16" s="429" t="n"/>
       <c r="D16" s="430" t="n"/>
-      <c r="F16" s="439" t="inlineStr">
+      <c r="F16" s="433" t="inlineStr">
         <is>
           <t>No of Cavity</t>
         </is>
@@ -14529,14 +14535,14 @@
         <v/>
       </c>
       <c r="I16" s="266" t="n"/>
-      <c r="K16" s="476" t="n"/>
+      <c r="K16" s="492" t="n"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>`</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="16.5" customHeight="1" s="479">
+    <row r="17" ht="16.5" customHeight="1" s="477">
       <c r="A17" s="93" t="n"/>
       <c r="B17" s="106" t="inlineStr">
         <is>
@@ -14553,7 +14559,7 @@
         </is>
       </c>
       <c r="E17" s="106" t="n"/>
-      <c r="F17" s="439" t="inlineStr">
+      <c r="F17" s="433" t="inlineStr">
         <is>
           <t>Total Ejection Force</t>
         </is>
@@ -14568,7 +14574,7 @@
           <t>KgF</t>
         </is>
       </c>
-      <c r="K17" s="476" t="n"/>
+      <c r="K17" s="492" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="93" t="n"/>
@@ -14592,7 +14598,7 @@
           <t>KgF</t>
         </is>
       </c>
-      <c r="K18" s="476" t="n"/>
+      <c r="K18" s="492" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="93" t="n"/>
@@ -14616,9 +14622,9 @@
       <c r="G19" s="266" t="n">
         <v>0.101972</v>
       </c>
-      <c r="K19" s="476" t="n"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1" s="479">
+      <c r="K19" s="492" t="n"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1" s="477">
       <c r="A20" s="93" t="n"/>
       <c r="B20" s="108" t="inlineStr">
         <is>
@@ -14631,7 +14637,7 @@
         </is>
       </c>
       <c r="D20" s="266" t="n"/>
-      <c r="K20" s="476" t="n"/>
+      <c r="K20" s="492" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="93" t="n"/>
@@ -14650,7 +14656,7 @@
         </is>
       </c>
       <c r="F21" s="112" t="n"/>
-      <c r="K21" s="476" t="n"/>
+      <c r="K21" s="492" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="93" t="n"/>
@@ -14667,11 +14673,11 @@
           <t>cm</t>
         </is>
       </c>
-      <c r="K22" s="476" t="n"/>
+      <c r="K22" s="492" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="93" t="n"/>
-      <c r="K23" s="476" t="n"/>
+      <c r="K23" s="492" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="93" t="n"/>
@@ -14680,7 +14686,7 @@
           <t>where</t>
         </is>
       </c>
-      <c r="K24" s="476" t="n"/>
+      <c r="K24" s="492" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="93" t="n"/>
@@ -14703,7 +14709,7 @@
           <t>Ejection resistance force (N)</t>
         </is>
       </c>
-      <c r="K25" s="476" t="n"/>
+      <c r="K25" s="492" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="93" t="n"/>
@@ -14726,7 +14732,7 @@
           <t>Young’s modulus of the polymer</t>
         </is>
       </c>
-      <c r="K26" s="476" t="n"/>
+      <c r="K26" s="492" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="93" t="n"/>
@@ -14749,7 +14755,7 @@
           <t>total surface area of moulding in contact with cavity or core, in line of draw</t>
         </is>
       </c>
-      <c r="K27" s="476" t="n"/>
+      <c r="K27" s="492" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="93" t="n"/>
@@ -14767,7 +14773,7 @@
           <t>coefficient of friction, polymer on steel</t>
         </is>
       </c>
-      <c r="K28" s="476" t="n"/>
+      <c r="K28" s="492" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="93" t="n"/>
@@ -14785,7 +14791,7 @@
           <t>Poisson’s ratio</t>
         </is>
       </c>
-      <c r="K29" s="476" t="n"/>
+      <c r="K29" s="492" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="93" t="n"/>
@@ -14808,7 +14814,7 @@
           <t>the diameter of a circle whose circumference is equal to the total projected perimeter of the moulding</t>
         </is>
       </c>
-      <c r="K30" s="476" t="n"/>
+      <c r="K30" s="492" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="93" t="n"/>
@@ -14831,7 +14837,7 @@
           <t>the coefficient of linear expansion of the polymer</t>
         </is>
       </c>
-      <c r="K31" s="476" t="n"/>
+      <c r="K31" s="492" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="93" t="n"/>
@@ -14854,7 +14860,7 @@
           <t>(polymer softening temperature) - (mould tool temperature)</t>
         </is>
       </c>
-      <c r="K32" s="476" t="n"/>
+      <c r="K32" s="492" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="93" t="n"/>
@@ -14877,31 +14883,31 @@
           <t>average wall thickness of part</t>
         </is>
       </c>
-      <c r="K33" s="476" t="n"/>
+      <c r="K33" s="492" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="460" t="n"/>
-      <c r="B34" s="423" t="n"/>
-      <c r="C34" s="423" t="n"/>
-      <c r="D34" s="423" t="n"/>
-      <c r="E34" s="423" t="n"/>
-      <c r="F34" s="423" t="n"/>
-      <c r="G34" s="423" t="n"/>
-      <c r="H34" s="423" t="n"/>
-      <c r="I34" s="423" t="n"/>
-      <c r="J34" s="423" t="n"/>
-      <c r="K34" s="425" t="n"/>
+      <c r="A34" s="450" t="n"/>
+      <c r="B34" s="426" t="n"/>
+      <c r="C34" s="426" t="n"/>
+      <c r="D34" s="426" t="n"/>
+      <c r="E34" s="426" t="n"/>
+      <c r="F34" s="426" t="n"/>
+      <c r="G34" s="426" t="n"/>
+      <c r="H34" s="426" t="n"/>
+      <c r="I34" s="426" t="n"/>
+      <c r="J34" s="426" t="n"/>
+      <c r="K34" s="427" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14924,18 +14930,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col width="9.36328125" customWidth="1" style="479" min="1" max="1"/>
-    <col width="24.26953125" customWidth="1" style="479" min="2" max="2"/>
-    <col width="31.81640625" customWidth="1" style="479" min="3" max="3"/>
-    <col width="21.1796875" customWidth="1" style="479" min="4" max="4"/>
-    <col width="20.36328125" customWidth="1" style="479" min="5" max="5"/>
-    <col width="29.26953125" customWidth="1" style="479" min="6" max="6"/>
-    <col width="27.7265625" customWidth="1" style="479" min="7" max="7"/>
-    <col width="18.36328125" customWidth="1" style="479" min="8" max="8"/>
-    <col width="14.26953125" customWidth="1" style="479" min="9" max="9"/>
-    <col width="17.90625" customWidth="1" style="479" min="10" max="10"/>
-    <col width="25.36328125" customWidth="1" style="479" min="11" max="11"/>
-    <col width="16.1796875" customWidth="1" style="479" min="12" max="12"/>
+    <col width="9.36328125" customWidth="1" style="477" min="1" max="1"/>
+    <col width="24.26953125" customWidth="1" style="477" min="2" max="2"/>
+    <col width="31.81640625" customWidth="1" style="477" min="3" max="3"/>
+    <col width="21.1796875" customWidth="1" style="477" min="4" max="4"/>
+    <col width="20.36328125" customWidth="1" style="477" min="5" max="5"/>
+    <col width="29.26953125" customWidth="1" style="477" min="6" max="6"/>
+    <col width="27.7265625" customWidth="1" style="477" min="7" max="7"/>
+    <col width="18.36328125" customWidth="1" style="477" min="8" max="8"/>
+    <col width="14.26953125" customWidth="1" style="477" min="9" max="9"/>
+    <col width="17.90625" customWidth="1" style="477" min="10" max="10"/>
+    <col width="25.36328125" customWidth="1" style="477" min="11" max="11"/>
+    <col width="16.1796875" customWidth="1" style="477" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14955,9 +14961,9 @@
       <c r="D2" s="75" t="n"/>
       <c r="E2" s="75" t="n"/>
       <c r="M2" s="544" t="n"/>
-      <c r="N2" s="617" t="n"/>
-    </row>
-    <row r="3" ht="16.5" customHeight="1" s="479">
+      <c r="N2" s="618" t="n"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" s="477">
       <c r="A3" s="76" t="inlineStr">
         <is>
           <t>Opn No</t>
@@ -15502,7 +15508,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="465" t="n"/>
+      <c r="A19" s="453" t="n"/>
       <c r="B19" s="80" t="n"/>
       <c r="C19" s="80" t="n"/>
       <c r="D19" s="80" t="n"/>
@@ -15531,9 +15537,9 @@
       <c r="D21" s="75" t="n"/>
       <c r="E21" s="75" t="n"/>
       <c r="M21" s="544" t="n"/>
-      <c r="N21" s="617" t="n"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1" s="479">
+      <c r="N21" s="618" t="n"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1" s="477">
       <c r="A22" s="76" t="inlineStr">
         <is>
           <t>Opn No</t>
@@ -16058,7 +16064,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="465" t="n"/>
+      <c r="A38" s="453" t="n"/>
       <c r="B38" s="80" t="n"/>
       <c r="C38" s="80" t="n"/>
       <c r="D38" s="80" t="n"/>
@@ -16087,7 +16093,7 @@
       <c r="D40" s="75" t="n"/>
       <c r="E40" s="75" t="n"/>
     </row>
-    <row r="41" ht="16.5" customHeight="1" s="479">
+    <row r="41" ht="16.5" customHeight="1" s="477">
       <c r="A41" s="76" t="inlineStr">
         <is>
           <t>Opn No</t>
@@ -16486,7 +16492,7 @@
       <c r="L56" s="87" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="465" t="n"/>
+      <c r="A57" s="453" t="n"/>
       <c r="B57" s="80" t="n"/>
       <c r="C57" s="80" t="n"/>
       <c r="D57" s="80" t="n"/>
@@ -16512,7 +16518,7 @@
       <c r="D59" s="75" t="n"/>
       <c r="E59" s="75" t="n"/>
     </row>
-    <row r="60" ht="16.5" customHeight="1" s="479">
+    <row r="60" ht="16.5" customHeight="1" s="477">
       <c r="A60" s="76" t="inlineStr">
         <is>
           <t>Opn No</t>
@@ -17079,7 +17085,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="465" t="n"/>
+      <c r="A76" s="453" t="n"/>
       <c r="B76" s="80" t="n"/>
       <c r="C76" s="80" t="n"/>
       <c r="D76" s="80" t="n"/>
@@ -17117,7 +17123,7 @@
       <c r="D78" s="75" t="n"/>
       <c r="E78" s="75" t="n"/>
     </row>
-    <row r="79" ht="16.5" customHeight="1" s="479">
+    <row r="79" ht="16.5" customHeight="1" s="477">
       <c r="A79" s="76" t="inlineStr">
         <is>
           <t>Opn No</t>
@@ -17516,7 +17522,7 @@
       <c r="L94" s="87" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" s="465" t="n"/>
+      <c r="A95" s="453" t="n"/>
       <c r="B95" s="80" t="n"/>
       <c r="C95" s="80" t="n"/>
       <c r="D95" s="80" t="n"/>
@@ -17542,7 +17548,7 @@
       <c r="D97" s="75" t="n"/>
       <c r="E97" s="75" t="n"/>
     </row>
-    <row r="98" ht="16.5" customHeight="1" s="479">
+    <row r="98" ht="16.5" customHeight="1" s="477">
       <c r="A98" s="76" t="inlineStr">
         <is>
           <t>Opn No</t>
@@ -18154,7 +18160,7 @@
       <c r="L114" s="87" t="n"/>
     </row>
     <row r="115">
-      <c r="A115" s="465" t="n"/>
+      <c r="A115" s="453" t="n"/>
       <c r="B115" s="80" t="n"/>
       <c r="C115" s="80" t="n"/>
       <c r="D115" s="80" t="n"/>
@@ -18180,7 +18186,7 @@
       <c r="D118" s="75" t="n"/>
       <c r="E118" s="75" t="n"/>
     </row>
-    <row r="119" ht="16.5" customHeight="1" s="479">
+    <row r="119" ht="16.5" customHeight="1" s="477">
       <c r="A119" s="76" t="inlineStr">
         <is>
           <t>Opn No</t>
@@ -18789,7 +18795,7 @@
       <c r="L135" s="87" t="n"/>
     </row>
     <row r="136">
-      <c r="A136" s="465" t="n"/>
+      <c r="A136" s="453" t="n"/>
       <c r="B136" s="80" t="n"/>
       <c r="C136" s="80" t="n"/>
       <c r="D136" s="80" t="n"/>
@@ -18815,7 +18821,7 @@
       <c r="D138" s="75" t="n"/>
       <c r="E138" s="75" t="n"/>
     </row>
-    <row r="139" ht="16.5" customHeight="1" s="479">
+    <row r="139" ht="16.5" customHeight="1" s="477">
       <c r="A139" s="76" t="inlineStr">
         <is>
           <t>Opn No</t>
@@ -19272,7 +19278,7 @@
       <c r="L154" s="87" t="n"/>
     </row>
     <row r="155">
-      <c r="A155" s="465" t="n"/>
+      <c r="A155" s="453" t="n"/>
       <c r="B155" s="80" t="n"/>
       <c r="C155" s="80" t="n"/>
       <c r="D155" s="80" t="n"/>
@@ -19298,7 +19304,7 @@
       <c r="D157" s="75" t="n"/>
       <c r="E157" s="75" t="n"/>
     </row>
-    <row r="158" ht="16.5" customHeight="1" s="479">
+    <row r="158" ht="16.5" customHeight="1" s="477">
       <c r="A158" s="76" t="inlineStr">
         <is>
           <t>Opn No</t>
@@ -19756,7 +19762,7 @@
       <c r="L173" s="87" t="n"/>
     </row>
     <row r="174">
-      <c r="A174" s="465" t="n"/>
+      <c r="A174" s="453" t="n"/>
       <c r="B174" s="80" t="n"/>
       <c r="C174" s="80" t="n"/>
       <c r="D174" s="80" t="n"/>
@@ -19843,15 +19849,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col width="16.36328125" customWidth="1" style="479" min="1" max="1"/>
-    <col width="14.453125" customWidth="1" style="479" min="2" max="2"/>
-    <col width="10.90625" customWidth="1" style="479" min="3" max="3"/>
-    <col width="12" customWidth="1" style="479" min="5" max="5"/>
-    <col width="11.26953125" bestFit="1" customWidth="1" style="479" min="6" max="6"/>
-    <col width="13.90625" customWidth="1" style="479" min="7" max="7"/>
-    <col width="15.26953125" customWidth="1" style="479" min="8" max="8"/>
-    <col width="10.6328125" customWidth="1" style="479" min="9" max="9"/>
-    <col width="10.90625" customWidth="1" style="479" min="11" max="11"/>
+    <col width="16.36328125" customWidth="1" style="477" min="1" max="1"/>
+    <col width="14.453125" customWidth="1" style="477" min="2" max="2"/>
+    <col width="10.90625" customWidth="1" style="477" min="3" max="3"/>
+    <col width="12" customWidth="1" style="477" min="5" max="5"/>
+    <col width="11.26953125" bestFit="1" customWidth="1" style="477" min="6" max="6"/>
+    <col width="13.90625" customWidth="1" style="477" min="7" max="7"/>
+    <col width="15.26953125" customWidth="1" style="477" min="8" max="8"/>
+    <col width="10.6328125" customWidth="1" style="477" min="9" max="9"/>
+    <col width="10.90625" customWidth="1" style="477" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -19861,7 +19867,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="29" customHeight="1" s="479">
+    <row r="2" ht="29" customHeight="1" s="477">
       <c r="A2" s="7" t="inlineStr">
         <is>
           <t>Sl.No.</t>
@@ -19941,7 +19947,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1" s="479">
+    <row r="4" ht="16.5" customHeight="1" s="477">
       <c r="A4" s="15" t="n">
         <v>1</v>
       </c>
@@ -20036,7 +20042,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="29" customHeight="1" s="479">
+    <row r="8" ht="29" customHeight="1" s="477">
       <c r="A8" s="15" t="n">
         <v>5</v>
       </c>
@@ -20052,7 +20058,7 @@
           <t>Cost for Tonnage</t>
         </is>
       </c>
-      <c r="F8" s="618">
+      <c r="F8" s="619">
         <f>F7*F6</f>
         <v/>
       </c>
@@ -20381,8 +20387,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col width="24.90625" customWidth="1" style="479" min="1" max="1"/>
-    <col width="27.08984375" customWidth="1" style="479" min="2" max="2"/>
+    <col width="24.90625" customWidth="1" style="477" min="1" max="1"/>
+    <col width="27.08984375" customWidth="1" style="477" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -20575,10 +20581,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="D1:F5"/>
+  <dimension ref="F1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -20610,6 +20616,12 @@
     <row r="5">
       <c r="F5">
         <f>INT(DASHBOARD!H65)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6">
+        <f>DASHBOARD!D4</f>
         <v/>
       </c>
     </row>
@@ -20632,18 +20644,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="8.7265625" customWidth="1" style="206" min="1" max="3"/>
-    <col width="8.7265625" customWidth="1" style="206" min="4" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="206" min="1" max="4"/>
+    <col width="8.7265625" customWidth="1" style="206" min="5" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="479">
+    <row r="1" ht="21" customHeight="1" s="477">
       <c r="A1" s="207" t="inlineStr">
         <is>
           <t>Assumptions</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1" s="479">
+    <row r="2" ht="21" customHeight="1" s="477">
       <c r="A2" s="207" t="n"/>
     </row>
     <row r="3">
@@ -20796,27 +20808,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col width="19.26953125" customWidth="1" style="479" min="1" max="1"/>
-    <col width="12.54296875" customWidth="1" style="479" min="2" max="2"/>
-    <col width="14.90625" customWidth="1" style="479" min="3" max="3"/>
-    <col width="13.26953125" customWidth="1" style="479" min="4" max="4"/>
-    <col width="14.54296875" customWidth="1" style="479" min="5" max="5"/>
-    <col width="15.08984375" customWidth="1" style="479" min="6" max="6"/>
-    <col width="16.81640625" customWidth="1" style="479" min="7" max="7"/>
-    <col width="12.453125" customWidth="1" style="479" min="8" max="8"/>
-    <col width="16.08984375" customWidth="1" style="479" min="9" max="9"/>
-    <col width="18.26953125" customWidth="1" style="479" min="10" max="10"/>
-    <col width="12.81640625" customWidth="1" style="479" min="11" max="11"/>
-    <col width="16.453125" customWidth="1" style="479" min="12" max="12"/>
-    <col width="11.36328125" customWidth="1" style="479" min="13" max="13"/>
-    <col width="13.6328125" customWidth="1" style="479" min="14" max="14"/>
-    <col width="16" customWidth="1" style="479" min="15" max="15"/>
-    <col width="12.36328125" customWidth="1" style="479" min="16" max="16"/>
-    <col width="9.453125" customWidth="1" style="479" min="17" max="17"/>
-    <col width="14.54296875" customWidth="1" style="479" min="18" max="18"/>
+    <col width="19.26953125" customWidth="1" style="477" min="1" max="1"/>
+    <col width="12.54296875" customWidth="1" style="477" min="2" max="2"/>
+    <col width="14.90625" customWidth="1" style="477" min="3" max="3"/>
+    <col width="13.26953125" customWidth="1" style="477" min="4" max="4"/>
+    <col width="14.54296875" customWidth="1" style="477" min="5" max="5"/>
+    <col width="15.08984375" customWidth="1" style="477" min="6" max="6"/>
+    <col width="16.81640625" customWidth="1" style="477" min="7" max="7"/>
+    <col width="12.453125" customWidth="1" style="477" min="8" max="8"/>
+    <col width="16.08984375" customWidth="1" style="477" min="9" max="9"/>
+    <col width="18.26953125" customWidth="1" style="477" min="10" max="10"/>
+    <col width="12.81640625" customWidth="1" style="477" min="11" max="11"/>
+    <col width="16.453125" customWidth="1" style="477" min="12" max="12"/>
+    <col width="11.36328125" customWidth="1" style="477" min="13" max="13"/>
+    <col width="13.6328125" customWidth="1" style="477" min="14" max="14"/>
+    <col width="16" customWidth="1" style="477" min="15" max="15"/>
+    <col width="12.36328125" customWidth="1" style="477" min="16" max="16"/>
+    <col width="9.453125" customWidth="1" style="477" min="17" max="17"/>
+    <col width="14.54296875" customWidth="1" style="477" min="18" max="18"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.5" customHeight="1" s="479">
+    <row r="1" ht="23.5" customHeight="1" s="477">
       <c r="A1" s="506" t="inlineStr">
         <is>
           <t>Mould Dimensions Calculations</t>
@@ -20869,14 +20881,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="18.5" customHeight="1" s="479">
+    <row r="7" ht="18.5" customHeight="1" s="477">
       <c r="A7" s="499" t="inlineStr">
         <is>
           <t>Mould Base Cost</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="58" customHeight="1" s="479">
+    <row r="8" ht="58" customHeight="1" s="477">
       <c r="A8" s="25" t="inlineStr">
         <is>
           <t>Item Description</t>
@@ -21397,9 +21409,9 @@
         <f>VLOOKUP(Table4[[#This Row],[Material]],Table1[[Various Tool Steel]:[Density(g/cc3)]],2,FALSE)</f>
         <v/>
       </c>
-      <c r="D17" s="594" t="n"/>
-      <c r="E17" s="594" t="n"/>
-      <c r="F17" s="594" t="n"/>
+      <c r="D17" s="595" t="n"/>
+      <c r="E17" s="595" t="n"/>
+      <c r="F17" s="595" t="n"/>
       <c r="G17" s="37">
         <f>IF('INJ. MOULDING ESTIMATION'!$C$16&lt;4,'Input-Output'!$B$8/1000*30,'Mould Costing'!$D$9*'Mould Costing'!$E$9*'Mould Costing'!$F$9/1000)</f>
         <v/>
@@ -21443,9 +21455,9 @@
         <f>VLOOKUP(Table4[[#This Row],[Material]],Table1[[Various Tool Steel]:[Density(g/cc3)]],2,FALSE)</f>
         <v/>
       </c>
-      <c r="D18" s="594" t="n"/>
-      <c r="E18" s="594" t="n"/>
-      <c r="F18" s="594" t="n"/>
+      <c r="D18" s="595" t="n"/>
+      <c r="E18" s="595" t="n"/>
+      <c r="F18" s="595" t="n"/>
       <c r="G18" s="37">
         <f>IF('INJ. MOULDING ESTIMATION'!$C$16&lt;4,'Input-Output'!$B$8/1000*10,'Mould Costing'!$D$9*'Mould Costing'!$E$9*'Mould Costing'!$F$9/1000)</f>
         <v/>
@@ -21578,7 +21590,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="29" customHeight="1" s="479">
+    <row r="21" ht="29" customHeight="1" s="477">
       <c r="A21" s="29" t="inlineStr">
         <is>
           <t>Locating Ring / Register Ring</t>
@@ -21628,7 +21640,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" ht="29" customHeight="1" s="479">
+    <row r="22" ht="29" customHeight="1" s="477">
       <c r="D22">
         <f>2*'Input-Output'!B2+10%*2*'Input-Output'!B2</f>
         <v/>
@@ -21670,22 +21682,22 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="447" t="inlineStr">
+      <c r="A23" s="442" t="inlineStr">
         <is>
           <t>Material</t>
         </is>
       </c>
-      <c r="B23" s="481" t="inlineStr">
+      <c r="B23" s="479" t="inlineStr">
         <is>
           <t>Total(in KG)</t>
         </is>
       </c>
-      <c r="C23" s="453" t="inlineStr">
+      <c r="C23" s="484" t="inlineStr">
         <is>
           <t>Price/kg</t>
         </is>
       </c>
-      <c r="D23" s="453" t="inlineStr">
+      <c r="D23" s="484" t="inlineStr">
         <is>
           <t>Total Price</t>
         </is>
@@ -21886,7 +21898,7 @@
         <f>SUM(B24:B33)</f>
         <v/>
       </c>
-      <c r="C34" s="434" t="n"/>
+      <c r="C34" s="423" t="n"/>
       <c r="D34" s="212">
         <f>INT(SUM(Table3[Total Price]))</f>
         <v/>
@@ -22128,14 +22140,14 @@
     </row>
     <row r="50">
       <c r="A50" s="507" t="n"/>
-      <c r="B50" s="434" t="n"/>
-      <c r="C50" s="434" t="n"/>
-      <c r="D50" s="434" t="n"/>
-      <c r="E50" s="434" t="n"/>
-      <c r="F50" s="434" t="n"/>
-      <c r="G50" s="434" t="n"/>
-      <c r="H50" s="434" t="n"/>
-      <c r="I50" s="434" t="n"/>
+      <c r="B50" s="423" t="n"/>
+      <c r="C50" s="423" t="n"/>
+      <c r="D50" s="423" t="n"/>
+      <c r="E50" s="423" t="n"/>
+      <c r="F50" s="423" t="n"/>
+      <c r="G50" s="423" t="n"/>
+      <c r="H50" s="423" t="n"/>
+      <c r="I50" s="423" t="n"/>
       <c r="J50" t="inlineStr">
         <is>
           <t>Total (A2)</t>
@@ -22147,15 +22159,15 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="482" t="n"/>
-      <c r="B51" s="482" t="n"/>
-      <c r="C51" s="482" t="n"/>
-      <c r="D51" s="482" t="n"/>
-      <c r="E51" s="482" t="n"/>
-      <c r="F51" s="482" t="n"/>
-      <c r="G51" s="482" t="n"/>
-      <c r="H51" s="482" t="n"/>
-      <c r="I51" s="482" t="n"/>
+      <c r="A51" s="480" t="n"/>
+      <c r="B51" s="480" t="n"/>
+      <c r="C51" s="480" t="n"/>
+      <c r="D51" s="480" t="n"/>
+      <c r="E51" s="480" t="n"/>
+      <c r="F51" s="480" t="n"/>
+      <c r="G51" s="480" t="n"/>
+      <c r="H51" s="480" t="n"/>
+      <c r="I51" s="480" t="n"/>
       <c r="J51" s="56" t="inlineStr">
         <is>
           <t>Total (A1+A2)</t>
@@ -22166,7 +22178,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" ht="18.5" customHeight="1" s="479">
+    <row r="52" ht="18.5" customHeight="1" s="477">
       <c r="A52" s="503" t="inlineStr">
         <is>
           <t>Others Details</t>
@@ -22187,7 +22199,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" ht="29" customHeight="1" s="479">
+    <row r="53" ht="29" customHeight="1" s="477">
       <c r="A53" s="504" t="inlineStr">
         <is>
           <t>Item Description</t>
@@ -22453,7 +22465,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" ht="18.5" customHeight="1" s="479">
+    <row r="65" ht="18.5" customHeight="1" s="477">
       <c r="A65" s="503" t="inlineStr">
         <is>
           <t>Conversion / Machining Cost</t>
@@ -22475,7 +22487,7 @@
       <c r="O65" s="429" t="n"/>
       <c r="P65" s="430" t="n"/>
     </row>
-    <row r="66" ht="43.5" customHeight="1" s="479">
+    <row r="66" ht="43.5" customHeight="1" s="477">
       <c r="B66" s="508" t="inlineStr">
         <is>
           <t>Conv Milling - Facing</t>
@@ -22563,67 +22575,67 @@
           <t>Top Clamp Plate</t>
         </is>
       </c>
-      <c r="B67" s="595">
+      <c r="B67" s="596">
         <f>SUMIF('Machining Time'!$C$4:$C$18,'Mould Costing'!B66,'Machining Time'!$L$4:$L$18)</f>
         <v/>
       </c>
-      <c r="C67" s="595">
+      <c r="C67" s="596">
         <f>SUMIF('Machining Time'!$C$4:$C$18,'Mould Costing'!C66,'Machining Time'!$L$4:$L$18)</f>
         <v/>
       </c>
-      <c r="D67" s="595">
+      <c r="D67" s="596">
         <f>SUMIF('Machining Time'!$C$4:$C$18,'Mould Costing'!D66,'Machining Time'!$L$4:$L$18)</f>
         <v/>
       </c>
-      <c r="E67" s="595">
+      <c r="E67" s="596">
         <f>SUMIF('Machining Time'!$C$4:$C$18,'Mould Costing'!E66,'Machining Time'!$L$4:$L$18)</f>
         <v/>
       </c>
-      <c r="F67" s="595">
+      <c r="F67" s="596">
         <f>SUMIF('Machining Time'!$C$4:$C$18,'Mould Costing'!F66,'Machining Time'!$L$4:$L$18)</f>
         <v/>
       </c>
-      <c r="G67" s="595">
+      <c r="G67" s="596">
         <f>SUMIF('Machining Time'!$C$4:$C$18,'Mould Costing'!G66,'Machining Time'!$L$4:$L$18)</f>
         <v/>
       </c>
-      <c r="H67" s="595">
+      <c r="H67" s="596">
         <f>SUMIF('Machining Time'!$C$4:$C$18,'Mould Costing'!H66,'Machining Time'!$L$4:$L$18)</f>
         <v/>
       </c>
-      <c r="I67" s="595">
+      <c r="I67" s="596">
         <f>SUMIF('Machining Time'!$C$4:$C$18,'Mould Costing'!I66,'Machining Time'!$L$4:$L$18)</f>
         <v/>
       </c>
-      <c r="J67" s="595">
+      <c r="J67" s="596">
         <f>SUMIF('Machining Time'!$C$4:$C$18,'Mould Costing'!J66,'Machining Time'!$L$4:$L$18)</f>
         <v/>
       </c>
-      <c r="K67" s="595">
+      <c r="K67" s="596">
         <f>SUMIF('Machining Time'!$C$4:$C$18,'Mould Costing'!K66,'Machining Time'!$L$4:$L$18)</f>
         <v/>
       </c>
-      <c r="L67" s="595">
+      <c r="L67" s="596">
         <f>SUMIF('Machining Time'!$C$4:$C$18,'Mould Costing'!L66,'Machining Time'!$L$4:$L$18)</f>
         <v/>
       </c>
-      <c r="M67" s="595">
+      <c r="M67" s="596">
         <f>SUMIF('Machining Time'!$C$4:$C$18,'Mould Costing'!M66,'Machining Time'!$L$4:$L$18)</f>
         <v/>
       </c>
-      <c r="N67" s="595">
+      <c r="N67" s="596">
         <f>SUMIF('Machining Time'!$C$4:$C$18,'Mould Costing'!N66,'Machining Time'!$L$4:$L$18)</f>
         <v/>
       </c>
-      <c r="O67" s="595">
+      <c r="O67" s="596">
         <f>SUMIF('Machining Time'!$C$4:$C$18,'Mould Costing'!O66,'Machining Time'!$L$4:$L$18)</f>
         <v/>
       </c>
-      <c r="P67" s="595">
+      <c r="P67" s="596">
         <f>SUMIF('Machining Time'!$C$4:$C$18,'Mould Costing'!P66,'Machining Time'!$L$4:$L$18)</f>
         <v/>
       </c>
-      <c r="Q67" s="596" t="n">
+      <c r="Q67" s="597" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22633,67 +22645,67 @@
           <t>Bottom Clamp Plate</t>
         </is>
       </c>
-      <c r="B68" s="595">
+      <c r="B68" s="596">
         <f>SUMIF('Machining Time'!$C$23:$C$37,'Mould Costing'!B$66,'Machining Time'!$L$23:$L$37)</f>
         <v/>
       </c>
-      <c r="C68" s="595">
+      <c r="C68" s="596">
         <f>SUMIF('Machining Time'!$C$23:$C$37,'Mould Costing'!C66,'Machining Time'!$L$23:$L$37)</f>
         <v/>
       </c>
-      <c r="D68" s="595">
+      <c r="D68" s="596">
         <f>SUMIF('Machining Time'!$C$23:$C$37,'Mould Costing'!D66,'Machining Time'!$L$23:$L$37)</f>
         <v/>
       </c>
-      <c r="E68" s="595">
+      <c r="E68" s="596">
         <f>SUMIF('Machining Time'!$C$23:$C$37,'Mould Costing'!E66,'Machining Time'!$L$23:$L$37)</f>
         <v/>
       </c>
-      <c r="F68" s="595">
+      <c r="F68" s="596">
         <f>SUMIF('Machining Time'!$C$23:$C$37,'Mould Costing'!F66,'Machining Time'!$L$23:$L$37)</f>
         <v/>
       </c>
-      <c r="G68" s="595">
+      <c r="G68" s="596">
         <f>SUMIF('Machining Time'!$C$23:$C$37,'Mould Costing'!G66,'Machining Time'!$L$23:$L$37)</f>
         <v/>
       </c>
-      <c r="H68" s="595">
+      <c r="H68" s="596">
         <f>SUMIF('Machining Time'!$C$23:$C$37,'Mould Costing'!H66,'Machining Time'!$L$23:$L$37)</f>
         <v/>
       </c>
-      <c r="I68" s="595">
+      <c r="I68" s="596">
         <f>SUMIF('Machining Time'!$C$23:$C$37,'Mould Costing'!I66,'Machining Time'!$L$23:$L$37)</f>
         <v/>
       </c>
-      <c r="J68" s="595">
+      <c r="J68" s="596">
         <f>SUMIF('Machining Time'!$C$23:$C$37,'Mould Costing'!J66,'Machining Time'!$L$23:$L$37)</f>
         <v/>
       </c>
-      <c r="K68" s="595">
+      <c r="K68" s="596">
         <f>SUMIF('Machining Time'!$C$23:$C$37,'Mould Costing'!K66,'Machining Time'!$L$23:$L$37)</f>
         <v/>
       </c>
-      <c r="L68" s="595">
+      <c r="L68" s="596">
         <f>SUMIF('Machining Time'!$C$23:$C$37,'Mould Costing'!L66,'Machining Time'!$L$23:$L$37)</f>
         <v/>
       </c>
-      <c r="M68" s="595">
+      <c r="M68" s="596">
         <f>SUMIF('Machining Time'!$C$23:$C$37,'Mould Costing'!M66,'Machining Time'!$L$23:$L$37)</f>
         <v/>
       </c>
-      <c r="N68" s="595">
+      <c r="N68" s="596">
         <f>SUMIF('Machining Time'!$C$23:$C$37,'Mould Costing'!N66,'Machining Time'!$L$23:$L$37)</f>
         <v/>
       </c>
-      <c r="O68" s="595">
+      <c r="O68" s="596">
         <f>SUMIF('Machining Time'!$C$23:$C$37,'Mould Costing'!O66,'Machining Time'!$L$23:$L$37)</f>
         <v/>
       </c>
-      <c r="P68" s="595">
+      <c r="P68" s="596">
         <f>SUMIF('Machining Time'!$C$23:$C$37,'Mould Costing'!P66,'Machining Time'!$L$23:$L$37)</f>
         <v/>
       </c>
-      <c r="Q68" s="596" t="n">
+      <c r="Q68" s="597" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22703,67 +22715,67 @@
           <t>Spacer Block</t>
         </is>
       </c>
-      <c r="B69" s="595">
+      <c r="B69" s="596">
         <f>SUMIF('Machining Time'!$C$42:$C$57,'Mould Costing'!B$66,'Machining Time'!$L$42:$L$57)</f>
         <v/>
       </c>
-      <c r="C69" s="595">
+      <c r="C69" s="596">
         <f>SUMIF('Machining Time'!$C$42:$C$57,'Mould Costing'!C$66,'Machining Time'!$L$42:$L$57)</f>
         <v/>
       </c>
-      <c r="D69" s="595">
+      <c r="D69" s="596">
         <f>SUMIF('Machining Time'!$C$42:$C$57,'Mould Costing'!D$66,'Machining Time'!$L$42:$L$57)</f>
         <v/>
       </c>
-      <c r="E69" s="595">
+      <c r="E69" s="596">
         <f>SUMIF('Machining Time'!$C$42:$C$57,'Mould Costing'!E$66,'Machining Time'!$L$42:$L$57)</f>
         <v/>
       </c>
-      <c r="F69" s="595">
+      <c r="F69" s="596">
         <f>SUMIF('Machining Time'!$C$42:$C$57,'Mould Costing'!F$66,'Machining Time'!$L$42:$L$57)</f>
         <v/>
       </c>
-      <c r="G69" s="595">
+      <c r="G69" s="596">
         <f>SUMIF('Machining Time'!$C$42:$C$57,'Mould Costing'!G$66,'Machining Time'!$L$42:$L$57)</f>
         <v/>
       </c>
-      <c r="H69" s="595">
+      <c r="H69" s="596">
         <f>SUMIF('Machining Time'!$C$42:$C$57,'Mould Costing'!H$66,'Machining Time'!$L$42:$L$57)</f>
         <v/>
       </c>
-      <c r="I69" s="595">
+      <c r="I69" s="596">
         <f>SUMIF('Machining Time'!$C$42:$C$57,'Mould Costing'!I$66,'Machining Time'!$L$42:$L$57)</f>
         <v/>
       </c>
-      <c r="J69" s="595">
+      <c r="J69" s="596">
         <f>SUMIF('Machining Time'!$C$42:$C$57,'Mould Costing'!J$66,'Machining Time'!$L$42:$L$57)</f>
         <v/>
       </c>
-      <c r="K69" s="595">
+      <c r="K69" s="596">
         <f>SUMIF('Machining Time'!$C$42:$C$57,'Mould Costing'!K$66,'Machining Time'!$L$42:$L$57)</f>
         <v/>
       </c>
-      <c r="L69" s="595">
+      <c r="L69" s="596">
         <f>SUMIF('Machining Time'!$C$42:$C$57,'Mould Costing'!L$66,'Machining Time'!$L$42:$L$57)</f>
         <v/>
       </c>
-      <c r="M69" s="595">
+      <c r="M69" s="596">
         <f>SUMIF('Machining Time'!$C$42:$C$57,'Mould Costing'!M$66,'Machining Time'!$L$42:$L$57)</f>
         <v/>
       </c>
-      <c r="N69" s="595">
+      <c r="N69" s="596">
         <f>SUMIF('Machining Time'!$C$42:$C$57,'Mould Costing'!N$66,'Machining Time'!$L$42:$L$57)</f>
         <v/>
       </c>
-      <c r="O69" s="595">
+      <c r="O69" s="596">
         <f>SUMIF('Machining Time'!$C$42:$C$57,'Mould Costing'!O$66,'Machining Time'!$L$42:$L$57)</f>
         <v/>
       </c>
-      <c r="P69" s="595">
+      <c r="P69" s="596">
         <f>SUMIF('Machining Time'!$C$42:$C$57,'Mould Costing'!P$66,'Machining Time'!$L$42:$L$57)</f>
         <v/>
       </c>
-      <c r="Q69" s="596" t="n">
+      <c r="Q69" s="597" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22773,67 +22785,67 @@
           <t>Ejector Retainer Plate</t>
         </is>
       </c>
-      <c r="B70" s="595">
+      <c r="B70" s="596">
         <f>SUMIF('Machining Time'!$C$61:$C$76,'Mould Costing'!B$66,'Machining Time'!$L$61:$L$76)</f>
         <v/>
       </c>
-      <c r="C70" s="595">
+      <c r="C70" s="596">
         <f>SUMIF('Machining Time'!$C$61:$C$76,'Mould Costing'!C$66,'Machining Time'!$L$61:$L$76)</f>
         <v/>
       </c>
-      <c r="D70" s="595">
+      <c r="D70" s="596">
         <f>SUMIF('Machining Time'!$C$61:$C$76,'Mould Costing'!D$66,'Machining Time'!$L$61:$L$76)</f>
         <v/>
       </c>
-      <c r="E70" s="595">
+      <c r="E70" s="596">
         <f>SUMIF('Machining Time'!$C$61:$C$76,'Mould Costing'!E$66,'Machining Time'!$L$61:$L$76)</f>
         <v/>
       </c>
-      <c r="F70" s="595">
+      <c r="F70" s="596">
         <f>SUMIF('Machining Time'!$C$61:$C$76,'Mould Costing'!F$66,'Machining Time'!$L$61:$L$76)</f>
         <v/>
       </c>
-      <c r="G70" s="595">
+      <c r="G70" s="596">
         <f>SUMIF('Machining Time'!$C$61:$C$76,'Mould Costing'!G$66,'Machining Time'!$L$61:$L$76)</f>
         <v/>
       </c>
-      <c r="H70" s="595">
+      <c r="H70" s="596">
         <f>SUMIF('Machining Time'!$C$61:$C$76,'Mould Costing'!H$66,'Machining Time'!$L$61:$L$76)</f>
         <v/>
       </c>
-      <c r="I70" s="595">
+      <c r="I70" s="596">
         <f>SUMIF('Machining Time'!$C$61:$C$76,'Mould Costing'!I$66,'Machining Time'!$L$61:$L$76)</f>
         <v/>
       </c>
-      <c r="J70" s="595">
+      <c r="J70" s="596">
         <f>SUMIF('Machining Time'!$C$61:$C$76,'Mould Costing'!J$66,'Machining Time'!$L$61:$L$76)</f>
         <v/>
       </c>
-      <c r="K70" s="595">
+      <c r="K70" s="596">
         <f>SUMIF('Machining Time'!$C$61:$C$76,'Mould Costing'!K$66,'Machining Time'!$L$61:$L$76)</f>
         <v/>
       </c>
-      <c r="L70" s="595">
+      <c r="L70" s="596">
         <f>SUMIF('Machining Time'!$C$61:$C$76,'Mould Costing'!L$66,'Machining Time'!$L$61:$L$76)</f>
         <v/>
       </c>
-      <c r="M70" s="595">
+      <c r="M70" s="596">
         <f>SUMIF('Machining Time'!$C$61:$C$76,'Mould Costing'!M$66,'Machining Time'!$L$61:$L$76)</f>
         <v/>
       </c>
-      <c r="N70" s="595">
+      <c r="N70" s="596">
         <f>SUMIF('Machining Time'!$C$61:$C$76,'Mould Costing'!N$66,'Machining Time'!$L$61:$L$76)</f>
         <v/>
       </c>
-      <c r="O70" s="595">
+      <c r="O70" s="596">
         <f>SUMIF('Machining Time'!$C$61:$C$76,'Mould Costing'!O$66,'Machining Time'!$L$61:$L$76)</f>
         <v/>
       </c>
-      <c r="P70" s="595">
+      <c r="P70" s="596">
         <f>SUMIF('Machining Time'!$C$61:$C$76,'Mould Costing'!P$66,'Machining Time'!$L$61:$L$76)</f>
         <v/>
       </c>
-      <c r="Q70" s="596" t="n">
+      <c r="Q70" s="597" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22843,67 +22855,67 @@
           <t>Ejector Back Plate</t>
         </is>
       </c>
-      <c r="B71" s="595">
+      <c r="B71" s="596">
         <f>SUMIF('Machining Time'!$C$80:$C$95,'Mould Costing'!B$66,'Machining Time'!$L$80:$L$95)</f>
         <v/>
       </c>
-      <c r="C71" s="595">
+      <c r="C71" s="596">
         <f>SUMIF('Machining Time'!$C$80:$C$95,'Mould Costing'!C$66,'Machining Time'!$L$80:$L$95)</f>
         <v/>
       </c>
-      <c r="D71" s="595">
+      <c r="D71" s="596">
         <f>SUMIF('Machining Time'!$C$80:$C$95,'Mould Costing'!D$66,'Machining Time'!$L$80:$L$95)</f>
         <v/>
       </c>
-      <c r="E71" s="595">
+      <c r="E71" s="596">
         <f>SUMIF('Machining Time'!$C$80:$C$95,'Mould Costing'!E$66,'Machining Time'!$L$80:$L$95)</f>
         <v/>
       </c>
-      <c r="F71" s="595">
+      <c r="F71" s="596">
         <f>SUMIF('Machining Time'!$C$80:$C$95,'Mould Costing'!F$66,'Machining Time'!$L$80:$L$95)</f>
         <v/>
       </c>
-      <c r="G71" s="595">
+      <c r="G71" s="596">
         <f>SUMIF('Machining Time'!$C$80:$C$95,'Mould Costing'!G$66,'Machining Time'!$L$80:$L$95)</f>
         <v/>
       </c>
-      <c r="H71" s="595">
+      <c r="H71" s="596">
         <f>SUMIF('Machining Time'!$C$80:$C$95,'Mould Costing'!H$66,'Machining Time'!$L$80:$L$95)</f>
         <v/>
       </c>
-      <c r="I71" s="595">
+      <c r="I71" s="596">
         <f>SUMIF('Machining Time'!$C$80:$C$95,'Mould Costing'!I$66,'Machining Time'!$L$80:$L$95)</f>
         <v/>
       </c>
-      <c r="J71" s="595">
+      <c r="J71" s="596">
         <f>SUMIF('Machining Time'!$C$80:$C$95,'Mould Costing'!J$66,'Machining Time'!$L$80:$L$95)</f>
         <v/>
       </c>
-      <c r="K71" s="595">
+      <c r="K71" s="596">
         <f>SUMIF('Machining Time'!$C$80:$C$95,'Mould Costing'!K$66,'Machining Time'!$L$80:$L$95)</f>
         <v/>
       </c>
-      <c r="L71" s="595">
+      <c r="L71" s="596">
         <f>SUMIF('Machining Time'!$C$80:$C$95,'Mould Costing'!L$66,'Machining Time'!$L$80:$L$95)</f>
         <v/>
       </c>
-      <c r="M71" s="595">
+      <c r="M71" s="596">
         <f>SUMIF('Machining Time'!$C$80:$C$95,'Mould Costing'!M$66,'Machining Time'!$L$80:$L$95)</f>
         <v/>
       </c>
-      <c r="N71" s="595">
+      <c r="N71" s="596">
         <f>SUMIF('Machining Time'!$C$80:$C$95,'Mould Costing'!N$66,'Machining Time'!$L$80:$L$95)</f>
         <v/>
       </c>
-      <c r="O71" s="595">
+      <c r="O71" s="596">
         <f>SUMIF('Machining Time'!$C$80:$C$95,'Mould Costing'!O$66,'Machining Time'!$L$80:$L$95)</f>
         <v/>
       </c>
-      <c r="P71" s="595">
+      <c r="P71" s="596">
         <f>SUMIF('Machining Time'!$C$80:$C$95,'Mould Costing'!P$66,'Machining Time'!$L$80:$L$95)</f>
         <v/>
       </c>
-      <c r="Q71" s="596" t="n">
+      <c r="Q71" s="597" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22913,67 +22925,67 @@
           <t>Cavity Plate</t>
         </is>
       </c>
-      <c r="B72" s="595">
+      <c r="B72" s="596">
         <f>SUMIF('Machining Time'!$C$99:$C$115,'Mould Costing'!B$66,'Machining Time'!$L$99:$L$115)</f>
         <v/>
       </c>
-      <c r="C72" s="595">
+      <c r="C72" s="596">
         <f>SUMIF('Machining Time'!$C$99:$C$115,'Mould Costing'!C$66,'Machining Time'!$L$99:$L$115)</f>
         <v/>
       </c>
-      <c r="D72" s="595">
+      <c r="D72" s="596">
         <f>SUMIF('Machining Time'!$C$99:$C$115,'Mould Costing'!D$66,'Machining Time'!$L$99:$L$115)</f>
         <v/>
       </c>
-      <c r="E72" s="595">
+      <c r="E72" s="596">
         <f>SUMIF('Machining Time'!$C$99:$C$115,'Mould Costing'!E$66,'Machining Time'!$L$99:$L$115)</f>
         <v/>
       </c>
-      <c r="F72" s="595">
+      <c r="F72" s="596">
         <f>SUMIF('Machining Time'!$C$99:$C$115,'Mould Costing'!F$66,'Machining Time'!$L$99:$L$115)</f>
         <v/>
       </c>
-      <c r="G72" s="595">
+      <c r="G72" s="596">
         <f>SUMIF('Machining Time'!$C$99:$C$115,'Mould Costing'!G$66,'Machining Time'!$L$99:$L$115)</f>
         <v/>
       </c>
-      <c r="H72" s="595">
+      <c r="H72" s="596">
         <f>SUMIF('Machining Time'!$C$99:$C$115,'Mould Costing'!H$66,'Machining Time'!$L$99:$L$115)</f>
         <v/>
       </c>
-      <c r="I72" s="595">
+      <c r="I72" s="596">
         <f>SUMIF('Machining Time'!$C$99:$C$115,'Mould Costing'!I$66,'Machining Time'!$L$99:$L$115)</f>
         <v/>
       </c>
-      <c r="J72" s="595">
+      <c r="J72" s="596">
         <f>SUMIF('Machining Time'!$C$99:$C$115,'Mould Costing'!J$66,'Machining Time'!$L$99:$L$115)</f>
         <v/>
       </c>
-      <c r="K72" s="595">
+      <c r="K72" s="596">
         <f>SUMIF('Machining Time'!$C$99:$C$115,'Mould Costing'!K$66,'Machining Time'!$L$99:$L$115)</f>
         <v/>
       </c>
-      <c r="L72" s="595">
+      <c r="L72" s="596">
         <f>SUMIF('Machining Time'!$C$99:$C$115,'Mould Costing'!L$66,'Machining Time'!$L$99:$L$115)</f>
         <v/>
       </c>
-      <c r="M72" s="595">
+      <c r="M72" s="596">
         <f>SUMIF('Machining Time'!$C$99:$C$115,'Mould Costing'!M$66,'Machining Time'!$L$99:$L$115)</f>
         <v/>
       </c>
-      <c r="N72" s="595">
+      <c r="N72" s="596">
         <f>SUMIF('Machining Time'!$C$99:$C$115,'Mould Costing'!N$66,'Machining Time'!$L$99:$L$115)</f>
         <v/>
       </c>
-      <c r="O72" s="595">
+      <c r="O72" s="596">
         <f>SUMIF('Machining Time'!$C$99:$C$115,'Mould Costing'!O$66,'Machining Time'!$L$99:$L$115)</f>
         <v/>
       </c>
-      <c r="P72" s="595">
+      <c r="P72" s="596">
         <f>SUMIF('Machining Time'!$C$99:$C$115,'Mould Costing'!P$66,'Machining Time'!$L$99:$L$115)</f>
         <v/>
       </c>
-      <c r="Q72" s="596" t="n">
+      <c r="Q72" s="597" t="n">
         <v>8</v>
       </c>
     </row>
@@ -22983,67 +22995,67 @@
           <t>Core Plate</t>
         </is>
       </c>
-      <c r="B73" s="595">
+      <c r="B73" s="596">
         <f>SUMIF('Machining Time'!$C$120:$C$136,'Mould Costing'!B$66,'Machining Time'!$L$120:$L$136)</f>
         <v/>
       </c>
-      <c r="C73" s="595">
+      <c r="C73" s="596">
         <f>SUMIF('Machining Time'!$C$120:$C$136,'Mould Costing'!C$66,'Machining Time'!$L$120:$L$136)</f>
         <v/>
       </c>
-      <c r="D73" s="595">
+      <c r="D73" s="596">
         <f>SUMIF('Machining Time'!$C$120:$C$136,'Mould Costing'!D$66,'Machining Time'!$L$120:$L$136)</f>
         <v/>
       </c>
-      <c r="E73" s="595">
+      <c r="E73" s="596">
         <f>SUMIF('Machining Time'!$C$120:$C$136,'Mould Costing'!E$66,'Machining Time'!$L$120:$L$136)</f>
         <v/>
       </c>
-      <c r="F73" s="595">
+      <c r="F73" s="596">
         <f>SUMIF('Machining Time'!$C$120:$C$136,'Mould Costing'!F$66,'Machining Time'!$L$120:$L$136)</f>
         <v/>
       </c>
-      <c r="G73" s="595">
+      <c r="G73" s="596">
         <f>SUMIF('Machining Time'!$C$120:$C$136,'Mould Costing'!G$66,'Machining Time'!$L$120:$L$136)</f>
         <v/>
       </c>
-      <c r="H73" s="595">
+      <c r="H73" s="596">
         <f>SUMIF('Machining Time'!$C$120:$C$136,'Mould Costing'!H$66,'Machining Time'!$L$120:$L$136)</f>
         <v/>
       </c>
-      <c r="I73" s="595">
+      <c r="I73" s="596">
         <f>SUMIF('Machining Time'!$C$120:$C$136,'Mould Costing'!I$66,'Machining Time'!$L$120:$L$136)</f>
         <v/>
       </c>
-      <c r="J73" s="595">
+      <c r="J73" s="596">
         <f>SUMIF('Machining Time'!$C$120:$C$136,'Mould Costing'!J$66,'Machining Time'!$L$120:$L$136)</f>
         <v/>
       </c>
-      <c r="K73" s="595">
+      <c r="K73" s="596">
         <f>SUMIF('Machining Time'!$C$120:$C$136,'Mould Costing'!K$66,'Machining Time'!$L$120:$L$136)</f>
         <v/>
       </c>
-      <c r="L73" s="595">
+      <c r="L73" s="596">
         <f>SUMIF('Machining Time'!$C$120:$C$136,'Mould Costing'!L$66,'Machining Time'!$L$120:$L$136)</f>
         <v/>
       </c>
-      <c r="M73" s="595">
+      <c r="M73" s="596">
         <f>SUMIF('Machining Time'!$C$120:$C$136,'Mould Costing'!M$66,'Machining Time'!$L$120:$L$136)</f>
         <v/>
       </c>
-      <c r="N73" s="595">
+      <c r="N73" s="596">
         <f>SUMIF('Machining Time'!$C$120:$C$136,'Mould Costing'!N$66,'Machining Time'!$L$120:$L$136)</f>
         <v/>
       </c>
-      <c r="O73" s="595">
+      <c r="O73" s="596">
         <f>SUMIF('Machining Time'!$C$120:$C$136,'Mould Costing'!O$66,'Machining Time'!$L$120:$L$136)</f>
         <v/>
       </c>
-      <c r="P73" s="595">
+      <c r="P73" s="596">
         <f>SUMIF('Machining Time'!$C$120:$C$136,'Mould Costing'!P$66,'Machining Time'!$L$120:$L$136)</f>
         <v/>
       </c>
-      <c r="Q73" s="596" t="n">
+      <c r="Q73" s="597" t="n">
         <v>8</v>
       </c>
     </row>
@@ -23053,67 +23065,67 @@
           <t>Guide Pillar</t>
         </is>
       </c>
-      <c r="B74" s="595">
+      <c r="B74" s="596">
         <f>SUMIF('Machining Time'!$C$140:$C$156,'Mould Costing'!B$66,'Machining Time'!$L$140:$L$156)</f>
         <v/>
       </c>
-      <c r="C74" s="595">
+      <c r="C74" s="596">
         <f>SUMIF('Machining Time'!$C$140:$C$156,'Mould Costing'!C$66,'Machining Time'!$L$140:$L$156)</f>
         <v/>
       </c>
-      <c r="D74" s="595">
+      <c r="D74" s="596">
         <f>SUMIF('Machining Time'!$C$140:$C$156,'Mould Costing'!D$66,'Machining Time'!$L$140:$L$156)</f>
         <v/>
       </c>
-      <c r="E74" s="595">
+      <c r="E74" s="596">
         <f>SUMIF('Machining Time'!$C$140:$C$156,'Mould Costing'!E$66,'Machining Time'!$L$140:$L$156)</f>
         <v/>
       </c>
-      <c r="F74" s="595">
+      <c r="F74" s="596">
         <f>SUMIF('Machining Time'!$C$140:$C$156,'Mould Costing'!F$66,'Machining Time'!$L$140:$L$156)</f>
         <v/>
       </c>
-      <c r="G74" s="595">
+      <c r="G74" s="596">
         <f>SUMIF('Machining Time'!$C$140:$C$156,'Mould Costing'!G$66,'Machining Time'!$L$140:$L$156)</f>
         <v/>
       </c>
-      <c r="H74" s="595">
+      <c r="H74" s="596">
         <f>SUMIF('Machining Time'!$C$140:$C$156,'Mould Costing'!H$66,'Machining Time'!$L$140:$L$156)</f>
         <v/>
       </c>
-      <c r="I74" s="595">
+      <c r="I74" s="596">
         <f>SUMIF('Machining Time'!$C$140:$C$156,'Mould Costing'!I$66,'Machining Time'!$L$140:$L$156)</f>
         <v/>
       </c>
-      <c r="J74" s="595">
+      <c r="J74" s="596">
         <f>SUMIF('Machining Time'!$C$140:$C$156,'Mould Costing'!J$66,'Machining Time'!$L$140:$L$156)</f>
         <v/>
       </c>
-      <c r="K74" s="595">
+      <c r="K74" s="596">
         <f>SUMIF('Machining Time'!$C$140:$C$156,'Mould Costing'!K$66,'Machining Time'!$L$140:$L$156)</f>
         <v/>
       </c>
-      <c r="L74" s="595">
+      <c r="L74" s="596">
         <f>SUMIF('Machining Time'!$C$140:$C$156,'Mould Costing'!L$66,'Machining Time'!$L$140:$L$156)</f>
         <v/>
       </c>
-      <c r="M74" s="595">
+      <c r="M74" s="596">
         <f>SUMIF('Machining Time'!$C$140:$C$156,'Mould Costing'!M$66,'Machining Time'!$L$140:$L$156)</f>
         <v/>
       </c>
-      <c r="N74" s="595">
+      <c r="N74" s="596">
         <f>SUMIF('Machining Time'!$C$140:$C$156,'Mould Costing'!N$66,'Machining Time'!$L$140:$L$156)</f>
         <v/>
       </c>
-      <c r="O74" s="595">
+      <c r="O74" s="596">
         <f>SUMIF('Machining Time'!$C$140:$C$156,'Mould Costing'!O$66,'Machining Time'!$L$140:$L$156)</f>
         <v/>
       </c>
-      <c r="P74" s="595">
+      <c r="P74" s="596">
         <f>SUMIF('Machining Time'!$C$140:$C$156,'Mould Costing'!P$66,'Machining Time'!$L$140:$L$156)</f>
         <v/>
       </c>
-      <c r="Q74" s="595" t="n"/>
+      <c r="Q74" s="596" t="n"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -23121,147 +23133,147 @@
           <t>Guide Bush</t>
         </is>
       </c>
-      <c r="B75" s="595">
+      <c r="B75" s="596">
         <f>SUMIF('Machining Time'!$C$159:$C$174,'Mould Costing'!B$66,'Machining Time'!$L$159:$L$174)</f>
         <v/>
       </c>
-      <c r="C75" s="595">
+      <c r="C75" s="596">
         <f>SUMIF('Machining Time'!$C$159:$C$174,'Mould Costing'!C$66,'Machining Time'!$L$159:$L$174)</f>
         <v/>
       </c>
-      <c r="D75" s="595">
+      <c r="D75" s="596">
         <f>SUMIF('Machining Time'!$C$159:$C$174,'Mould Costing'!D$66,'Machining Time'!$L$159:$L$174)</f>
         <v/>
       </c>
-      <c r="E75" s="595">
+      <c r="E75" s="596">
         <f>SUMIF('Machining Time'!$C$159:$C$174,'Mould Costing'!E$66,'Machining Time'!$L$159:$L$174)</f>
         <v/>
       </c>
-      <c r="F75" s="595">
+      <c r="F75" s="596">
         <f>SUMIF('Machining Time'!$C$159:$C$174,'Mould Costing'!F$66,'Machining Time'!$L$159:$L$174)</f>
         <v/>
       </c>
-      <c r="G75" s="595">
+      <c r="G75" s="596">
         <f>SUMIF('Machining Time'!$C$159:$C$174,'Mould Costing'!G$66,'Machining Time'!$L$159:$L$174)</f>
         <v/>
       </c>
-      <c r="H75" s="595">
+      <c r="H75" s="596">
         <f>SUMIF('Machining Time'!$C$159:$C$174,'Mould Costing'!H$66,'Machining Time'!$L$159:$L$174)</f>
         <v/>
       </c>
-      <c r="I75" s="595">
+      <c r="I75" s="596">
         <f>SUMIF('Machining Time'!$C$159:$C$174,'Mould Costing'!I$66,'Machining Time'!$L$159:$L$174)</f>
         <v/>
       </c>
-      <c r="J75" s="595">
+      <c r="J75" s="596">
         <f>SUMIF('Machining Time'!$C$159:$C$174,'Mould Costing'!J$66,'Machining Time'!$L$159:$L$174)</f>
         <v/>
       </c>
-      <c r="K75" s="595">
+      <c r="K75" s="596">
         <f>SUMIF('Machining Time'!$C$159:$C$174,'Mould Costing'!K$66,'Machining Time'!$L$159:$L$174)</f>
         <v/>
       </c>
-      <c r="L75" s="595">
+      <c r="L75" s="596">
         <f>SUMIF('Machining Time'!$C$159:$C$174,'Mould Costing'!L$66,'Machining Time'!$L$159:$L$174)</f>
         <v/>
       </c>
-      <c r="M75" s="595">
+      <c r="M75" s="596">
         <f>SUMIF('Machining Time'!$C$159:$C$174,'Mould Costing'!M$66,'Machining Time'!$L$159:$L$174)</f>
         <v/>
       </c>
-      <c r="N75" s="595">
+      <c r="N75" s="596">
         <f>SUMIF('Machining Time'!$C$159:$C$174,'Mould Costing'!N$66,'Machining Time'!$L$159:$L$174)</f>
         <v/>
       </c>
-      <c r="O75" s="595">
+      <c r="O75" s="596">
         <f>SUMIF('Machining Time'!$C$159:$C$174,'Mould Costing'!O$66,'Machining Time'!$L$159:$L$174)</f>
         <v/>
       </c>
-      <c r="P75" s="595">
+      <c r="P75" s="596">
         <f>SUMIF('Machining Time'!$C$159:$C$174,'Mould Costing'!P$66,'Machining Time'!$L$159:$L$174)</f>
         <v/>
       </c>
-      <c r="Q75" s="596" t="n">
+      <c r="Q75" s="597" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="76">
-      <c r="B76" s="595" t="n"/>
-      <c r="C76" s="595" t="n"/>
-      <c r="D76" s="595" t="n"/>
-      <c r="E76" s="595" t="n"/>
-      <c r="F76" s="595" t="n"/>
-      <c r="G76" s="595" t="n"/>
-      <c r="H76" s="595" t="n"/>
-      <c r="I76" s="595" t="n"/>
-      <c r="J76" s="595" t="n"/>
-      <c r="K76" s="595" t="n"/>
-      <c r="L76" s="595" t="n"/>
-      <c r="M76" s="595" t="n"/>
-      <c r="N76" s="595" t="n"/>
-      <c r="O76" s="595" t="n"/>
-      <c r="P76" s="595" t="n"/>
-      <c r="Q76" s="596" t="n">
+      <c r="B76" s="596" t="n"/>
+      <c r="C76" s="596" t="n"/>
+      <c r="D76" s="596" t="n"/>
+      <c r="E76" s="596" t="n"/>
+      <c r="F76" s="596" t="n"/>
+      <c r="G76" s="596" t="n"/>
+      <c r="H76" s="596" t="n"/>
+      <c r="I76" s="596" t="n"/>
+      <c r="J76" s="596" t="n"/>
+      <c r="K76" s="596" t="n"/>
+      <c r="L76" s="596" t="n"/>
+      <c r="M76" s="596" t="n"/>
+      <c r="N76" s="596" t="n"/>
+      <c r="O76" s="596" t="n"/>
+      <c r="P76" s="596" t="n"/>
+      <c r="Q76" s="597" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="595" t="n"/>
-      <c r="C77" s="595" t="n"/>
-      <c r="D77" s="595" t="n"/>
-      <c r="E77" s="595" t="n"/>
-      <c r="F77" s="595" t="n"/>
-      <c r="G77" s="595" t="n"/>
-      <c r="H77" s="595" t="n"/>
-      <c r="I77" s="595" t="n"/>
-      <c r="J77" s="595" t="n"/>
-      <c r="K77" s="595" t="n"/>
-      <c r="L77" s="595" t="n"/>
-      <c r="M77" s="595" t="n"/>
-      <c r="N77" s="595" t="n"/>
-      <c r="O77" s="595" t="n"/>
-      <c r="P77" s="595" t="n"/>
-      <c r="Q77" s="596" t="n">
+      <c r="B77" s="596" t="n"/>
+      <c r="C77" s="596" t="n"/>
+      <c r="D77" s="596" t="n"/>
+      <c r="E77" s="596" t="n"/>
+      <c r="F77" s="596" t="n"/>
+      <c r="G77" s="596" t="n"/>
+      <c r="H77" s="596" t="n"/>
+      <c r="I77" s="596" t="n"/>
+      <c r="J77" s="596" t="n"/>
+      <c r="K77" s="596" t="n"/>
+      <c r="L77" s="596" t="n"/>
+      <c r="M77" s="596" t="n"/>
+      <c r="N77" s="596" t="n"/>
+      <c r="O77" s="596" t="n"/>
+      <c r="P77" s="596" t="n"/>
+      <c r="Q77" s="597" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="78">
-      <c r="B78" s="595" t="n"/>
-      <c r="C78" s="595" t="n"/>
-      <c r="D78" s="595" t="n"/>
-      <c r="E78" s="595" t="n"/>
-      <c r="F78" s="595" t="n"/>
-      <c r="G78" s="595" t="n"/>
-      <c r="H78" s="595" t="n"/>
-      <c r="I78" s="595" t="n"/>
-      <c r="J78" s="595" t="n"/>
-      <c r="K78" s="595" t="n"/>
-      <c r="L78" s="595" t="n"/>
-      <c r="M78" s="595" t="n"/>
-      <c r="N78" s="595" t="n"/>
-      <c r="O78" s="595" t="n"/>
-      <c r="P78" s="595" t="n"/>
-      <c r="Q78" s="596" t="n">
+      <c r="B78" s="596" t="n"/>
+      <c r="C78" s="596" t="n"/>
+      <c r="D78" s="596" t="n"/>
+      <c r="E78" s="596" t="n"/>
+      <c r="F78" s="596" t="n"/>
+      <c r="G78" s="596" t="n"/>
+      <c r="H78" s="596" t="n"/>
+      <c r="I78" s="596" t="n"/>
+      <c r="J78" s="596" t="n"/>
+      <c r="K78" s="596" t="n"/>
+      <c r="L78" s="596" t="n"/>
+      <c r="M78" s="596" t="n"/>
+      <c r="N78" s="596" t="n"/>
+      <c r="O78" s="596" t="n"/>
+      <c r="P78" s="596" t="n"/>
+      <c r="Q78" s="597" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="595" t="n"/>
-      <c r="C79" s="595" t="n"/>
-      <c r="D79" s="595" t="n"/>
-      <c r="E79" s="595" t="n"/>
-      <c r="F79" s="595" t="n"/>
-      <c r="G79" s="595" t="n"/>
-      <c r="H79" s="595" t="n"/>
-      <c r="I79" s="595" t="n"/>
-      <c r="J79" s="595" t="n"/>
-      <c r="K79" s="595" t="n"/>
-      <c r="L79" s="595" t="n"/>
-      <c r="M79" s="595" t="n"/>
-      <c r="N79" s="595" t="n"/>
-      <c r="O79" s="595" t="n"/>
-      <c r="P79" s="595" t="n"/>
-      <c r="Q79" s="595" t="n"/>
+      <c r="B79" s="596" t="n"/>
+      <c r="C79" s="596" t="n"/>
+      <c r="D79" s="596" t="n"/>
+      <c r="E79" s="596" t="n"/>
+      <c r="F79" s="596" t="n"/>
+      <c r="G79" s="596" t="n"/>
+      <c r="H79" s="596" t="n"/>
+      <c r="I79" s="596" t="n"/>
+      <c r="J79" s="596" t="n"/>
+      <c r="K79" s="596" t="n"/>
+      <c r="L79" s="596" t="n"/>
+      <c r="M79" s="596" t="n"/>
+      <c r="N79" s="596" t="n"/>
+      <c r="O79" s="596" t="n"/>
+      <c r="P79" s="596" t="n"/>
+      <c r="Q79" s="596" t="n"/>
       <c r="R79" s="113" t="inlineStr">
         <is>
           <t>TOTAL HOUR</t>
@@ -23269,71 +23281,71 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" s="597">
+      <c r="B80" s="598">
         <f>SUM(B67:B79)</f>
         <v/>
       </c>
-      <c r="C80" s="597">
+      <c r="C80" s="598">
         <f>SUM(C67:C79)</f>
         <v/>
       </c>
-      <c r="D80" s="597">
+      <c r="D80" s="598">
         <f>SUM(D67:D79)</f>
         <v/>
       </c>
-      <c r="E80" s="597">
+      <c r="E80" s="598">
         <f>SUM(E67:E79)</f>
         <v/>
       </c>
-      <c r="F80" s="597">
+      <c r="F80" s="598">
         <f>SUM(F67:F79)</f>
         <v/>
       </c>
-      <c r="G80" s="597">
+      <c r="G80" s="598">
         <f>SUM(G67:G79)</f>
         <v/>
       </c>
-      <c r="H80" s="597">
+      <c r="H80" s="598">
         <f>SUM(H67:H79)</f>
         <v/>
       </c>
-      <c r="I80" s="597">
+      <c r="I80" s="598">
         <f>SUM(I67:I79)</f>
         <v/>
       </c>
-      <c r="J80" s="597">
+      <c r="J80" s="598">
         <f>SUM(J67:J79)</f>
         <v/>
       </c>
-      <c r="K80" s="597">
+      <c r="K80" s="598">
         <f>SUM(K67:K79)</f>
         <v/>
       </c>
-      <c r="L80" s="597">
+      <c r="L80" s="598">
         <f>SUM(L67:L79)</f>
         <v/>
       </c>
-      <c r="M80" s="597">
+      <c r="M80" s="598">
         <f>SUM(M67:M79)</f>
         <v/>
       </c>
-      <c r="N80" s="597">
+      <c r="N80" s="598">
         <f>SUM(N67:N79)</f>
         <v/>
       </c>
-      <c r="O80" s="597">
+      <c r="O80" s="598">
         <f>SUM(O67:O79)</f>
         <v/>
       </c>
-      <c r="P80" s="597">
+      <c r="P80" s="598">
         <f>SUM(P67:P79)</f>
         <v/>
       </c>
-      <c r="Q80" s="597">
+      <c r="Q80" s="598">
         <f>SUM(Q67:Q79)</f>
         <v/>
       </c>
-      <c r="R80" s="598">
+      <c r="R80" s="599">
         <f>SUM(B80:Q80)</f>
         <v/>
       </c>
@@ -23404,67 +23416,67 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" s="599">
+      <c r="B82" s="600">
         <f>B80*B81*$C$83</f>
         <v/>
       </c>
-      <c r="C82" s="599">
+      <c r="C82" s="600">
         <f>C80*C81*$C$83</f>
         <v/>
       </c>
-      <c r="D82" s="599">
+      <c r="D82" s="600">
         <f>D80*D81*$C$83</f>
         <v/>
       </c>
-      <c r="E82" s="599">
+      <c r="E82" s="600">
         <f>E80*E81*$C$83</f>
         <v/>
       </c>
-      <c r="F82" s="599">
+      <c r="F82" s="600">
         <f>F80*F81*$C$83</f>
         <v/>
       </c>
-      <c r="G82" s="599">
+      <c r="G82" s="600">
         <f>G80*G81*$C$83</f>
         <v/>
       </c>
-      <c r="H82" s="599">
+      <c r="H82" s="600">
         <f>H80*H81*$C$83</f>
         <v/>
       </c>
-      <c r="I82" s="599">
+      <c r="I82" s="600">
         <f>I80*I81*$C$83</f>
         <v/>
       </c>
-      <c r="J82" s="599">
+      <c r="J82" s="600">
         <f>J80*J81*$C$83</f>
         <v/>
       </c>
-      <c r="K82" s="599">
+      <c r="K82" s="600">
         <f>K80*K81*$C$83</f>
         <v/>
       </c>
-      <c r="L82" s="599">
+      <c r="L82" s="600">
         <f>L80*L81*$C$83</f>
         <v/>
       </c>
-      <c r="M82" s="599">
+      <c r="M82" s="600">
         <f>M80*M81*$C$83</f>
         <v/>
       </c>
-      <c r="N82" s="599">
+      <c r="N82" s="600">
         <f>N80*N81*$C$83</f>
         <v/>
       </c>
-      <c r="O82" s="599">
+      <c r="O82" s="600">
         <f>O80*O81*$C$83</f>
         <v/>
       </c>
-      <c r="P82" s="599">
+      <c r="P82" s="600">
         <f>P80*P81*$C$83</f>
         <v/>
       </c>
-      <c r="Q82" s="599">
+      <c r="Q82" s="600">
         <f>Q80*Q81*$C$83</f>
         <v/>
       </c>
@@ -23486,12 +23498,12 @@
           <t>Total(D)</t>
         </is>
       </c>
-      <c r="C84" s="597">
+      <c r="C84" s="598">
         <f>SUM(B82:Q82)</f>
         <v/>
       </c>
     </row>
-    <row r="86" ht="30" customHeight="1" s="479">
+    <row r="86" ht="30" customHeight="1" s="477">
       <c r="A86" s="512" t="inlineStr">
         <is>
           <t>Item Description</t>
@@ -23607,7 +23619,7 @@
       <c r="O92" s="21" t="n"/>
       <c r="P92" s="63" t="n"/>
     </row>
-    <row r="93" ht="18.5" customHeight="1" s="479">
+    <row r="93" ht="18.5" customHeight="1" s="477">
       <c r="A93" s="500" t="inlineStr">
         <is>
           <t>F</t>
@@ -23932,22 +23944,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="29.81640625" customWidth="1" style="479" min="1" max="1"/>
-    <col width="13.36328125" customWidth="1" style="479" min="10" max="10"/>
-    <col width="31.54296875" customWidth="1" style="479" min="11" max="11"/>
-    <col width="13.26953125" customWidth="1" style="479" min="12" max="12"/>
-    <col width="29.7265625" customWidth="1" style="479" min="13" max="13"/>
-    <col width="9.08984375" bestFit="1" customWidth="1" style="479" min="14" max="14"/>
+    <col width="29.81640625" customWidth="1" style="477" min="1" max="1"/>
+    <col width="13.36328125" customWidth="1" style="477" min="10" max="10"/>
+    <col width="31.54296875" customWidth="1" style="477" min="11" max="11"/>
+    <col width="13.26953125" customWidth="1" style="477" min="12" max="12"/>
+    <col width="29.7265625" customWidth="1" style="477" min="13" max="13"/>
+    <col width="9.08984375" bestFit="1" customWidth="1" style="477" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" s="479">
+    <row r="1" ht="17" customHeight="1" s="477">
       <c r="M1" s="313" t="n"/>
       <c r="N1" s="313" t="n"/>
       <c r="O1" s="313" t="n"/>
       <c r="P1" s="313" t="n"/>
       <c r="Q1" s="313" t="n"/>
     </row>
-    <row r="2" ht="14.5" customHeight="1" s="479">
+    <row r="2" ht="14.5" customHeight="1" s="477">
       <c r="K2" s="314" t="inlineStr">
         <is>
           <t xml:space="preserve">I) DESIGN COST +MOULD FLOW   : </t>
@@ -24052,17 +24064,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col width="24.453125" customWidth="1" style="479" min="2" max="2"/>
-    <col width="10.36328125" customWidth="1" style="479" min="3" max="3"/>
-    <col width="16.453125" customWidth="1" style="479" min="4" max="4"/>
-    <col width="31.90625" customWidth="1" style="479" min="5" max="5"/>
-    <col width="4" customWidth="1" style="479" min="6" max="6"/>
-    <col width="12.08984375" customWidth="1" style="479" min="7" max="7"/>
-    <col width="18.1796875" customWidth="1" style="479" min="8" max="8"/>
-    <col width="52.1796875" customWidth="1" style="479" min="9" max="9"/>
-    <col width="16.36328125" customWidth="1" style="479" min="10" max="11"/>
-    <col width="22.54296875" customWidth="1" style="479" min="12" max="15"/>
-    <col width="2.54296875" customWidth="1" style="479" min="16" max="16"/>
+    <col width="24.453125" customWidth="1" style="477" min="2" max="2"/>
+    <col width="10.36328125" customWidth="1" style="477" min="3" max="3"/>
+    <col width="16.453125" customWidth="1" style="477" min="4" max="4"/>
+    <col width="31.90625" customWidth="1" style="477" min="5" max="5"/>
+    <col width="4" customWidth="1" style="477" min="6" max="6"/>
+    <col width="12.08984375" customWidth="1" style="477" min="7" max="7"/>
+    <col width="18.1796875" customWidth="1" style="477" min="8" max="8"/>
+    <col width="52.1796875" customWidth="1" style="477" min="9" max="9"/>
+    <col width="16.36328125" customWidth="1" style="477" min="10" max="11"/>
+    <col width="22.54296875" customWidth="1" style="477" min="12" max="15"/>
+    <col width="2.54296875" customWidth="1" style="477" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -24076,14 +24088,14 @@
           <t>Index</t>
         </is>
       </c>
-      <c r="J1" s="600">
+      <c r="J1" s="601">
         <f>D25</f>
         <v/>
       </c>
-      <c r="L1" s="601" t="n"/>
-      <c r="O1" s="600" t="n"/>
-    </row>
-    <row r="2" ht="14.5" customHeight="1" s="479" thickBot="1">
+      <c r="L1" s="602" t="n"/>
+      <c r="O1" s="601" t="n"/>
+    </row>
+    <row r="2" ht="14.5" customHeight="1" s="477" thickBot="1">
       <c r="B2" s="173" t="inlineStr">
         <is>
           <t>PART NO</t>
@@ -24107,11 +24119,11 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <f t="dataTable" ref="J2:J14" dt2D="0" dtr="0" r1="G2" ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="3" ht="14.5" customHeight="1" s="479" thickBot="1">
+        <f t="dataTable" ref="J2:J14" dt2D="0" dtr="0" r1="G2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="14.5" customHeight="1" s="477" thickBot="1">
       <c r="B3" s="175" t="inlineStr">
         <is>
           <t>PART DESCRIPTION</t>
@@ -24130,7 +24142,7 @@
         <v>7591265.932151763</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="479" thickBot="1">
+    <row r="4" ht="15" customHeight="1" s="477" thickBot="1">
       <c r="I4" t="n">
         <v>3</v>
       </c>
@@ -24350,7 +24362,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" ht="29" customHeight="1" s="479">
+    <row r="12" ht="29" customHeight="1" s="477">
       <c r="B12" s="181" t="inlineStr">
         <is>
           <t>Part Material</t>
@@ -24383,7 +24395,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" ht="16.5" customHeight="1" s="479">
+    <row r="13" ht="16.5" customHeight="1" s="477">
       <c r="B13" s="181" t="inlineStr">
         <is>
           <t>Injection Pressure</t>
@@ -24408,7 +24420,7 @@
           <t>Daily expense</t>
         </is>
       </c>
-      <c r="H13" s="602">
+      <c r="H13" s="603">
         <f>'Input-Output'!D20</f>
         <v/>
       </c>
@@ -24493,7 +24505,7 @@
         <f>H12</f>
         <v/>
       </c>
-      <c r="I16" s="603" t="n"/>
+      <c r="I16" s="604" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="181" t="inlineStr">
@@ -24514,7 +24526,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="257">
-        <f t="dataTable" ref="H17:H21" dt2D="0" dtr="0" r1="C14"/>
+        <f t="dataTable" ref="H17:H21" dt2D="0" dtr="0" r1="C14" ca="1"/>
         <v/>
       </c>
     </row>
@@ -24535,7 +24547,7 @@
       <c r="H18" s="258" t="n">
         <v>120.7937794523696</v>
       </c>
-      <c r="I18" s="604" t="n"/>
+      <c r="I18" s="605" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="181" t="inlineStr">
@@ -24559,7 +24571,7 @@
         <v>176.2493125583527</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="479" thickBot="1">
+    <row r="20" ht="15" customHeight="1" s="477" thickBot="1">
       <c r="B20" s="175" t="inlineStr">
         <is>
           <t xml:space="preserve">Total Part </t>
@@ -24589,7 +24601,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="479" thickBot="1">
+    <row r="21" ht="15" customHeight="1" s="477" thickBot="1">
       <c r="G21" s="257" t="n">
         <v>8</v>
       </c>
@@ -24608,11 +24620,11 @@
         <v>0.5</v>
       </c>
       <c r="M21">
-        <f t="dataTable" ref="M21:M26" dt2D="0" dtr="0" r1="K21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="479" thickBot="1">
+        <f t="dataTable" ref="M21:M26" dt2D="0" dtr="0" r1="K21" ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="477" thickBot="1">
       <c r="B22" s="518" t="inlineStr">
         <is>
           <t>MOULD SIZE</t>
@@ -24657,7 +24669,7 @@
         <f>'Mould Costing'!E10</f>
         <v/>
       </c>
-      <c r="E23" s="476" t="n"/>
+      <c r="E23" s="492" t="n"/>
       <c r="L23" t="n">
         <v>2</v>
       </c>
@@ -24688,7 +24700,7 @@
         <v>2.119276122502322</v>
       </c>
     </row>
-    <row r="25" ht="24" customHeight="1" s="479">
+    <row r="25" ht="24" customHeight="1" s="477">
       <c r="B25" s="198" t="inlineStr">
         <is>
           <t>Total Mould Cost</t>
@@ -24698,15 +24710,15 @@
         <f>SUM(C26:C35)</f>
         <v/>
       </c>
-      <c r="D25" s="605">
+      <c r="D25" s="606">
         <f>SUM(D26:D35)</f>
         <v/>
       </c>
-      <c r="E25" s="606">
+      <c r="E25" s="607">
         <f>SUM(E26:E35)</f>
         <v/>
       </c>
-      <c r="K25" s="601" t="n"/>
+      <c r="K25" s="602" t="n"/>
       <c r="L25" t="n">
         <v>4</v>
       </c>
@@ -24724,15 +24736,15 @@
         <f>D26/$D$25</f>
         <v/>
       </c>
-      <c r="D26" s="607">
+      <c r="D26" s="608">
         <f>'Mould Costing'!M22</f>
         <v/>
       </c>
-      <c r="E26" s="608">
+      <c r="E26" s="609">
         <f>D26</f>
         <v/>
       </c>
-      <c r="K26" s="601" t="n"/>
+      <c r="K26" s="602" t="n"/>
       <c r="L26" t="n">
         <v>5</v>
       </c>
@@ -24750,15 +24762,15 @@
         <f>D27/$D$25</f>
         <v/>
       </c>
-      <c r="D27" s="609">
+      <c r="D27" s="610">
         <f>'Mould Costing'!C84</f>
         <v/>
       </c>
-      <c r="E27" s="608">
+      <c r="E27" s="609">
         <f>VLOOKUP($C$16,COMPLEXITY!$A$2:$B$7,2,TRUE)*D27</f>
         <v/>
       </c>
-      <c r="K27" s="601" t="n"/>
+      <c r="K27" s="602" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="202" t="inlineStr">
@@ -24770,15 +24782,15 @@
         <f>D28/$D$25</f>
         <v/>
       </c>
-      <c r="D28" s="609">
+      <c r="D28" s="610">
         <f>'Mould Costing'!K50</f>
         <v/>
       </c>
-      <c r="E28" s="608">
+      <c r="E28" s="609">
         <f>D28</f>
         <v/>
       </c>
-      <c r="K28" s="601" t="n"/>
+      <c r="K28" s="602" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="202" t="inlineStr">
@@ -24790,15 +24802,15 @@
         <f>D29/$D$25</f>
         <v/>
       </c>
-      <c r="D29" s="609">
+      <c r="D29" s="610">
         <f>'Mould Costing'!L97</f>
         <v/>
       </c>
-      <c r="E29" s="610">
+      <c r="E29" s="611">
         <f>'Mould Costing'!L97</f>
         <v/>
       </c>
-      <c r="K29" s="601" t="n"/>
+      <c r="K29" s="602" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="202" t="inlineStr">
@@ -24810,15 +24822,15 @@
         <f>D30/$D$25</f>
         <v/>
       </c>
-      <c r="D30" s="609">
+      <c r="D30" s="610">
         <f>'Mould Costing'!$L$98</f>
         <v/>
       </c>
-      <c r="E30" s="610">
+      <c r="E30" s="611">
         <f>'Mould Costing'!$L$98</f>
         <v/>
       </c>
-      <c r="K30" s="601" t="n"/>
+      <c r="K30" s="602" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="202" t="inlineStr">
@@ -24830,15 +24842,15 @@
         <f>D31/$D$25</f>
         <v/>
       </c>
-      <c r="D31" s="609">
+      <c r="D31" s="610">
         <f>'Mould Costing'!K60</f>
         <v/>
       </c>
-      <c r="E31" s="608">
+      <c r="E31" s="609">
         <f>D32</f>
         <v/>
       </c>
-      <c r="K31" s="601" t="n"/>
+      <c r="K31" s="602" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="202" t="inlineStr">
@@ -24850,15 +24862,15 @@
         <f>D32/$D$25</f>
         <v/>
       </c>
-      <c r="D32" s="609">
+      <c r="D32" s="610">
         <f>'Mould Costing'!K89</f>
         <v/>
       </c>
-      <c r="E32" s="608">
+      <c r="E32" s="609">
         <f>VLOOKUP($C$16,COMPLEXITY!$A$2:$B$7,2,TRUE)*D32</f>
         <v/>
       </c>
-      <c r="K32" s="601" t="n"/>
+      <c r="K32" s="602" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="202" t="inlineStr">
@@ -24870,15 +24882,15 @@
         <f>D33/$D$25</f>
         <v/>
       </c>
-      <c r="D33" s="609">
+      <c r="D33" s="610">
         <f>'Mould Costing'!L96</f>
         <v/>
       </c>
-      <c r="E33" s="608">
+      <c r="E33" s="609">
         <f>VLOOKUP($C$16,COMPLEXITY!$A$2:$B$7,2,TRUE)*D33</f>
         <v/>
       </c>
-      <c r="K33" s="601" t="n"/>
+      <c r="K33" s="602" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="202" t="inlineStr">
@@ -24890,15 +24902,15 @@
         <f>D34/$D$25</f>
         <v/>
       </c>
-      <c r="D34" s="609">
+      <c r="D34" s="610">
         <f>'Mould Costing'!$L$99</f>
         <v/>
       </c>
-      <c r="E34" s="610">
+      <c r="E34" s="611">
         <f>'Mould Costing'!$L$99</f>
         <v/>
       </c>
-      <c r="K34" s="601" t="n"/>
+      <c r="K34" s="602" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="203" t="n">
@@ -24913,15 +24925,15 @@
         <f>D35/$D$25</f>
         <v/>
       </c>
-      <c r="D35" s="611">
+      <c r="D35" s="612">
         <f>'Mould Costing'!L95</f>
         <v/>
       </c>
-      <c r="E35" s="612">
+      <c r="E35" s="613">
         <f>'Mould Costing'!L95</f>
         <v/>
       </c>
-      <c r="K35" s="601" t="n"/>
+      <c r="K35" s="602" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -24965,28 +24977,28 @@
   </sheetPr>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col width="20.6328125" customWidth="1" style="479" min="1" max="1"/>
-    <col width="15.90625" customWidth="1" style="479" min="2" max="2"/>
-    <col width="38.08984375" customWidth="1" style="479" min="3" max="3"/>
-    <col width="10.90625" customWidth="1" style="479" min="4" max="4"/>
-    <col width="23.08984375" customWidth="1" style="479" min="5" max="5"/>
-    <col width="6.08984375" customWidth="1" style="479" min="8" max="8"/>
-    <col width="30.26953125" customWidth="1" style="479" min="9" max="9"/>
-    <col width="19.36328125" customWidth="1" style="479" min="10" max="10"/>
-    <col width="19.36328125" customWidth="1" style="479" min="15" max="15"/>
+    <col width="20.6328125" customWidth="1" style="477" min="1" max="1"/>
+    <col width="15.90625" customWidth="1" style="477" min="2" max="2"/>
+    <col width="38.08984375" customWidth="1" style="477" min="3" max="3"/>
+    <col width="10.90625" customWidth="1" style="477" min="4" max="4"/>
+    <col width="23.08984375" customWidth="1" style="477" min="5" max="5"/>
+    <col width="6.08984375" customWidth="1" style="477" min="8" max="8"/>
+    <col width="30.26953125" customWidth="1" style="477" min="9" max="9"/>
+    <col width="19.36328125" customWidth="1" style="477" min="10" max="10"/>
+    <col width="19.36328125" customWidth="1" style="477" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="225" t="n"/>
-      <c r="B1" s="613" t="n"/>
-    </row>
-    <row r="2" ht="16.5" customHeight="1" s="479">
+      <c r="B1" s="614" t="n"/>
+    </row>
+    <row r="2" ht="16.5" customHeight="1" s="477">
       <c r="A2" t="inlineStr">
         <is>
           <t>Various Tool Steel</t>
@@ -25002,24 +25014,24 @@
           <t>Uses</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="555" t="inlineStr">
         <is>
           <t>Price/Kg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RM cost</t>
+          <t>Column1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Extra cost</t>
+          <t>Column2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Column3</t>
         </is>
       </c>
       <c r="I2" s="169" t="inlineStr">
@@ -25032,7 +25044,7 @@
           <t>MRR in cm3/min</t>
         </is>
       </c>
-      <c r="K2" s="482" t="inlineStr">
+      <c r="K2" s="480" t="inlineStr">
         <is>
           <t>MHR</t>
         </is>
@@ -25057,18 +25069,12 @@
           <t>Top &amp; Bottom Bolster, Housing, Ejector Plate, Spacers, Locating Ring</t>
         </is>
       </c>
-      <c r="D3" s="166">
-        <f>Table1[[#This Row],[Total]]</f>
-        <v/>
-      </c>
-      <c r="E3" s="167" t="n">
+      <c r="D3" s="166" t="n">
         <v>128</v>
       </c>
+      <c r="E3" s="167" t="n"/>
       <c r="F3" s="167" t="n"/>
-      <c r="G3" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v/>
-      </c>
+      <c r="G3" s="167" t="n"/>
       <c r="I3" s="171" t="inlineStr">
         <is>
           <t>Conv Milling - Facing</t>
@@ -25081,7 +25087,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" ht="26" customHeight="1" s="479">
+    <row r="4" ht="26" customHeight="1" s="477">
       <c r="A4" s="63" t="inlineStr">
         <is>
           <t>Case Hardening Steel</t>
@@ -25095,20 +25101,14 @@
           <t>Pillar &amp; Bush, Stripper Bolts, wear plates, Finger cams, Etc</t>
         </is>
       </c>
-      <c r="D4" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
-        <v/>
-      </c>
-      <c r="E4" s="167" t="n">
-        <v>120</v>
-      </c>
-      <c r="F4" s="167" t="n">
-        <v>135</v>
-      </c>
-      <c r="G4" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v/>
-      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>NB223320</t>
+        </is>
+      </c>
+      <c r="E4" s="167" t="n"/>
+      <c r="F4" s="167" t="n"/>
+      <c r="G4" s="167" t="n"/>
       <c r="I4" s="171" t="inlineStr">
         <is>
           <t>Conv Milling - End Milling</t>
@@ -25121,7 +25121,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" ht="20.5" customHeight="1" s="479">
+    <row r="5" ht="20.5" customHeight="1" s="477">
       <c r="A5" s="63" t="inlineStr">
         <is>
           <t>Silver Steel</t>
@@ -25135,18 +25135,12 @@
           <t>Ejector pins</t>
         </is>
       </c>
-      <c r="D5" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
-        <v/>
-      </c>
-      <c r="E5" s="167" t="n">
+      <c r="D5" s="5" t="n">
         <v>150</v>
       </c>
+      <c r="E5" s="167" t="n"/>
       <c r="F5" s="167" t="n"/>
-      <c r="G5" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v/>
-      </c>
+      <c r="G5" s="167" t="n"/>
       <c r="I5" s="171" t="inlineStr">
         <is>
           <t>Conv Lathe - Facing / Turning</t>
@@ -25159,7 +25153,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1" s="479">
+    <row r="6" ht="27" customHeight="1" s="477">
       <c r="A6" s="63" t="inlineStr">
         <is>
           <t>OHNS</t>
@@ -25173,18 +25167,12 @@
           <t>Push back pin, Ejector pin, Sprue Bush, Wear plates, Pillar and Bush, Forming Punches</t>
         </is>
       </c>
-      <c r="D6" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
-        <v/>
-      </c>
-      <c r="E6" s="167" t="n">
+      <c r="D6" s="5" t="n">
         <v>125</v>
       </c>
+      <c r="E6" s="167" t="n"/>
       <c r="F6" s="167" t="n"/>
-      <c r="G6" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v/>
-      </c>
+      <c r="G6" s="167" t="n"/>
       <c r="I6" s="171" t="inlineStr">
         <is>
           <t>Surface Grinding</t>
@@ -25211,18 +25199,12 @@
           <t>Punch, Die, Inserts, Piercing punches</t>
         </is>
       </c>
-      <c r="D7" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
-        <v/>
-      </c>
-      <c r="E7" s="167" t="n">
+      <c r="D7" s="5" t="n">
         <v>200</v>
       </c>
+      <c r="E7" s="167" t="n"/>
       <c r="F7" s="167" t="n"/>
-      <c r="G7" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v/>
-      </c>
+      <c r="G7" s="167" t="n"/>
       <c r="I7" s="171" t="inlineStr">
         <is>
           <t>Cylindrical Grinding</t>
@@ -25249,18 +25231,12 @@
           <t>Core &amp; Cavity,Inserts, Core pins, Ejector pins</t>
         </is>
       </c>
-      <c r="D8" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
-        <v/>
-      </c>
-      <c r="E8" s="167" t="n">
+      <c r="D8" s="5" t="n">
         <v>590</v>
       </c>
+      <c r="E8" s="167" t="n"/>
       <c r="F8" s="167" t="n"/>
-      <c r="G8" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v/>
-      </c>
+      <c r="G8" s="167" t="n"/>
       <c r="I8" s="171" t="inlineStr">
         <is>
           <t>Radial Drilling - Hole drilling</t>
@@ -25287,18 +25263,12 @@
           <t>Piercing punches &amp; Die</t>
         </is>
       </c>
-      <c r="D9" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
-        <v/>
-      </c>
-      <c r="E9" s="167" t="n">
+      <c r="D9" s="5" t="n">
         <v>950</v>
       </c>
+      <c r="E9" s="167" t="n"/>
       <c r="F9" s="167" t="n"/>
-      <c r="G9" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v/>
-      </c>
+      <c r="G9" s="167" t="n"/>
       <c r="I9" s="171" t="inlineStr">
         <is>
           <t>Radial Drilling - Reaming / Tapping</t>
@@ -25325,18 +25295,12 @@
           <t>Housing for Pressure Die casting</t>
         </is>
       </c>
-      <c r="D10" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
-        <v/>
-      </c>
-      <c r="E10" s="167" t="n">
+      <c r="D10" s="5" t="n">
         <v>100</v>
       </c>
+      <c r="E10" s="167" t="n"/>
       <c r="F10" s="167" t="n"/>
-      <c r="G10" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v/>
-      </c>
+      <c r="G10" s="167" t="n"/>
       <c r="I10" s="171" t="inlineStr">
         <is>
           <t>Pillar Drilling</t>
@@ -25363,17 +25327,12 @@
           <t>Core &amp; Cavity of Plastic Mould</t>
         </is>
       </c>
-      <c r="D11" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
-        <v/>
-      </c>
-      <c r="E11" s="167" t="n">
+      <c r="D11" s="5" t="n">
         <v>230</v>
       </c>
+      <c r="E11" s="167" t="n"/>
       <c r="F11" s="167" t="n"/>
-      <c r="G11" s="167" t="n">
-        <v>230</v>
-      </c>
+      <c r="G11" s="167" t="n"/>
       <c r="I11" s="171" t="inlineStr">
         <is>
           <t>Gun Drilling</t>
@@ -25400,18 +25359,12 @@
           <t xml:space="preserve">Casting core &amp; cavity-Surface finish will be good </t>
         </is>
       </c>
-      <c r="D12" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
-        <v/>
-      </c>
-      <c r="E12" s="167" t="n">
+      <c r="D12" s="5" t="n">
         <v>985</v>
       </c>
+      <c r="E12" s="167" t="n"/>
       <c r="F12" s="167" t="n"/>
-      <c r="G12" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v/>
-      </c>
+      <c r="G12" s="167" t="n"/>
       <c r="I12" s="171" t="inlineStr">
         <is>
           <t>NC EDM</t>
@@ -25436,18 +25389,12 @@
           <t>mold base</t>
         </is>
       </c>
-      <c r="D13" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
-        <v/>
-      </c>
-      <c r="E13" s="167" t="n">
+      <c r="D13" s="5" t="n">
         <v>200</v>
       </c>
+      <c r="E13" s="167" t="n"/>
       <c r="F13" s="167" t="n"/>
-      <c r="G13" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v/>
-      </c>
+      <c r="G13" s="167" t="n"/>
       <c r="I13" s="171" t="inlineStr">
         <is>
           <t>Wirecut EDM</t>
@@ -25472,18 +25419,12 @@
           <t>mold base</t>
         </is>
       </c>
-      <c r="D14" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
-        <v/>
-      </c>
-      <c r="E14" s="167" t="n">
+      <c r="D14" s="5" t="n">
         <v>120</v>
       </c>
+      <c r="E14" s="167" t="n"/>
       <c r="F14" s="167" t="n"/>
-      <c r="G14" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v/>
-      </c>
+      <c r="G14" s="167" t="n"/>
       <c r="I14" s="171" t="inlineStr">
         <is>
           <t>Jig Boring</t>
@@ -25508,18 +25449,12 @@
           <t>core &amp; cavity-casting</t>
         </is>
       </c>
-      <c r="D15" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
-        <v/>
-      </c>
-      <c r="E15" s="167" t="n">
+      <c r="D15" s="5" t="n">
         <v>500</v>
       </c>
+      <c r="E15" s="167" t="n"/>
       <c r="F15" s="167" t="n"/>
-      <c r="G15" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v/>
-      </c>
+      <c r="G15" s="167" t="n"/>
       <c r="I15" s="171" t="inlineStr">
         <is>
           <t>CNC Lathe</t>
@@ -25546,15 +25481,12 @@
           <t>electrode</t>
         </is>
       </c>
-      <c r="D16" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
-        <v/>
+      <c r="D16" s="5" t="n">
+        <v>1500</v>
       </c>
       <c r="E16" s="168" t="n"/>
       <c r="F16" s="168" t="n"/>
-      <c r="G16" s="168" t="n">
-        <v>1500</v>
-      </c>
+      <c r="G16" s="168" t="n"/>
       <c r="I16" s="171" t="inlineStr">
         <is>
           <t>CNC Milling</t>
@@ -25799,13 +25731,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col width="21.26953125" customWidth="1" style="479" min="1" max="1"/>
-    <col width="17.90625" customWidth="1" style="479" min="2" max="2"/>
-    <col width="10.81640625" customWidth="1" style="479" min="4" max="4"/>
-    <col width="19.1796875" customWidth="1" style="479" min="5" max="5"/>
-    <col width="17.36328125" customWidth="1" style="479" min="6" max="6"/>
-    <col width="11.453125" customWidth="1" style="479" min="7" max="7"/>
-    <col width="11.81640625" customWidth="1" style="479" min="8" max="8"/>
+    <col width="21.26953125" customWidth="1" style="477" min="1" max="1"/>
+    <col width="17.90625" customWidth="1" style="477" min="2" max="2"/>
+    <col width="10.81640625" customWidth="1" style="477" min="4" max="4"/>
+    <col width="19.1796875" customWidth="1" style="477" min="5" max="5"/>
+    <col width="17.36328125" customWidth="1" style="477" min="6" max="6"/>
+    <col width="11.453125" customWidth="1" style="477" min="7" max="7"/>
+    <col width="11.81640625" customWidth="1" style="477" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -25829,9 +25761,9 @@
           <t>Mould Dimensions Calculation based on Part Data</t>
         </is>
       </c>
-      <c r="F1" s="465" t="n"/>
-    </row>
-    <row r="2" ht="14.5" customHeight="1" s="479">
+      <c r="F1" s="453" t="n"/>
+    </row>
+    <row r="2" ht="14.5" customHeight="1" s="477">
       <c r="A2" s="21" t="inlineStr">
         <is>
           <t>Length</t>
@@ -25846,8 +25778,8 @@
           <t>mm</t>
         </is>
       </c>
-      <c r="E2" s="481" t="n"/>
-      <c r="F2" s="447" t="n"/>
+      <c r="E2" s="479" t="n"/>
+      <c r="F2" s="442" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="21" t="inlineStr">
@@ -26334,7 +26266,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" ht="23.5" customHeight="1" s="479">
+    <row r="23" ht="23.5" customHeight="1" s="477">
       <c r="A23" s="160" t="inlineStr">
         <is>
           <t>Total price</t>
@@ -26460,17 +26392,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="20.15" customHeight="1"/>
   <cols>
-    <col width="46.7265625" customWidth="1" style="479" min="1" max="1"/>
+    <col width="46.7265625" customWidth="1" style="477" min="1" max="1"/>
     <col width="25.81640625" customWidth="1" style="544" min="2" max="2"/>
     <col width="11.54296875" customWidth="1" style="63" min="5" max="5"/>
     <col width="12.26953125" customWidth="1" style="63" min="6" max="6"/>
     <col width="29.81640625" customWidth="1" style="63" min="7" max="7"/>
-    <col width="8.81640625" customWidth="1" style="479" min="8" max="9"/>
-    <col width="13.453125" customWidth="1" style="479" min="10" max="10"/>
-    <col width="9.453125" customWidth="1" style="479" min="11" max="13"/>
+    <col width="8.81640625" customWidth="1" style="477" min="8" max="9"/>
+    <col width="13.453125" customWidth="1" style="477" min="10" max="10"/>
+    <col width="9.453125" customWidth="1" style="477" min="11" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.15" customHeight="1" s="479">
+    <row r="1" ht="20.15" customHeight="1" s="477">
       <c r="A1" s="527" t="inlineStr">
         <is>
           <t>Cavity Calculation</t>
@@ -26522,7 +26454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="20.15" customHeight="1" s="479">
+    <row r="3" ht="20.15" customHeight="1" s="477">
       <c r="A3" s="266" t="inlineStr">
         <is>
           <t>Daily Requirements</t>
@@ -26552,7 +26484,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" ht="20.15" customHeight="1" s="479">
+    <row r="4" ht="20.15" customHeight="1" s="477">
       <c r="A4" s="266" t="inlineStr">
         <is>
           <t>Efficiency (Labour &amp; Machine)</t>
@@ -26576,7 +26508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="20.15" customHeight="1" s="479">
+    <row r="5" ht="20.15" customHeight="1" s="477">
       <c r="A5" s="266" t="inlineStr">
         <is>
           <t>Material Rejection</t>
@@ -26600,7 +26532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" ht="20.15" customHeight="1" s="479">
+    <row r="6" ht="20.15" customHeight="1" s="477">
       <c r="A6" s="266" t="inlineStr">
         <is>
           <t>Cycle Time / Part</t>
@@ -26630,7 +26562,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="20.15" customHeight="1" s="479">
+    <row r="7" ht="20.15" customHeight="1" s="477">
       <c r="A7" s="266" t="inlineStr">
         <is>
           <t>Cycle Time / Part</t>
@@ -26655,7 +26587,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="20.15" customHeight="1" s="479">
+    <row r="8" ht="20.15" customHeight="1" s="477">
       <c r="A8" s="266" t="inlineStr">
         <is>
           <t>Hours per Shift</t>
@@ -26682,7 +26614,7 @@
       <c r="J8" s="429" t="n"/>
       <c r="K8" s="430" t="n"/>
     </row>
-    <row r="9" ht="20.15" customHeight="1" s="479">
+    <row r="9" ht="20.15" customHeight="1" s="477">
       <c r="A9" s="266" t="inlineStr">
         <is>
           <t>No of Shift</t>
@@ -26697,38 +26629,38 @@
           <t>Material</t>
         </is>
       </c>
-      <c r="F9" s="439" t="inlineStr">
+      <c r="F9" s="433" t="inlineStr">
         <is>
           <t>Thickness</t>
         </is>
       </c>
-      <c r="G9" s="439" t="inlineStr">
+      <c r="G9" s="433" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="H9" s="439" t="inlineStr">
+      <c r="H9" s="433" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="I9" s="439" t="inlineStr">
+      <c r="I9" s="433" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="J9" s="439" t="inlineStr">
+      <c r="J9" s="433" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="K9" s="439" t="inlineStr">
+      <c r="K9" s="433" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="20.15" customHeight="1" s="479">
+    <row r="10" ht="20.15" customHeight="1" s="477">
       <c r="A10" s="266" t="inlineStr">
         <is>
           <t>No of machine</t>
@@ -26739,7 +26671,7 @@
         <v/>
       </c>
       <c r="C10" s="110" t="n"/>
-      <c r="E10" s="453" t="n"/>
+      <c r="E10" s="484" t="n"/>
       <c r="F10" s="525" t="n">
         <v>1</v>
       </c>
@@ -26759,7 +26691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="20.15" customHeight="1" s="479">
+    <row r="11" ht="20.15" customHeight="1" s="477">
       <c r="A11" s="266" t="inlineStr">
         <is>
           <t>Actual QTY Required (Considering efficiency)</t>
@@ -26794,7 +26726,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="12" ht="20.15" customHeight="1" s="479">
+    <row r="12" ht="20.15" customHeight="1" s="477">
       <c r="A12" s="266" t="inlineStr">
         <is>
           <t>Production QTY Req. (Considering Material Rej)</t>
@@ -26829,7 +26761,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="13" ht="20.15" customHeight="1" s="479">
+    <row r="13" ht="20.15" customHeight="1" s="477">
       <c r="A13" s="266" t="inlineStr">
         <is>
           <t>Required QTY(Rounding off to nearest integer)</t>
@@ -26864,7 +26796,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" ht="20.15" customHeight="1" s="479">
+    <row r="14" ht="20.15" customHeight="1" s="477">
       <c r="A14" s="266" t="inlineStr">
         <is>
           <t>Time Required to produce per day requirement</t>
@@ -26903,7 +26835,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="15" ht="20.15" customHeight="1" s="479">
+    <row r="15" ht="20.15" customHeight="1" s="477">
       <c r="A15" s="266" t="inlineStr">
         <is>
           <t>Time Available for production</t>
@@ -26942,7 +26874,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="16" ht="20.15" customHeight="1" s="479">
+    <row r="16" ht="20.15" customHeight="1" s="477">
       <c r="A16" s="266" t="inlineStr">
         <is>
           <t>No of Cavity (Calculated)</t>
@@ -26977,7 +26909,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="17" ht="20.15" customHeight="1" s="479">
+    <row r="17" ht="20.15" customHeight="1" s="477">
       <c r="A17" s="266" t="inlineStr">
         <is>
           <t>Round of cavity( based on No of part)</t>
@@ -27012,7 +26944,7 @@
         <v>88.90000000000001</v>
       </c>
     </row>
-    <row r="18" ht="20.15" customHeight="1" s="479">
+    <row r="18" ht="20.15" customHeight="1" s="477">
       <c r="A18" s="80" t="inlineStr">
         <is>
           <t>No of cavity( As per part length)</t>
@@ -27028,26 +26960,26 @@
           <t>Nylon-srf</t>
         </is>
       </c>
-      <c r="F18" s="614" t="n">
+      <c r="F18" s="615" t="n">
         <v>1.925</v>
       </c>
-      <c r="G18" s="614" t="n">
+      <c r="G18" s="615" t="n">
         <v>7.4</v>
       </c>
-      <c r="H18" s="614" t="n">
+      <c r="H18" s="615" t="n">
         <v>16.475</v>
       </c>
-      <c r="I18" s="614" t="n">
+      <c r="I18" s="615" t="n">
         <v>29.0625</v>
       </c>
-      <c r="J18" s="614" t="n">
+      <c r="J18" s="615" t="n">
         <v>45.4</v>
       </c>
-      <c r="K18" s="614" t="n">
+      <c r="K18" s="615" t="n">
         <v>65.21250000000001</v>
       </c>
     </row>
-    <row r="19" ht="20.15" customHeight="1" s="479">
+    <row r="19" ht="20.15" customHeight="1" s="477">
       <c r="A19" s="266" t="inlineStr">
         <is>
           <t>No of Cavity</t>
@@ -27063,26 +26995,26 @@
           <t>Glass fiber-Plain</t>
         </is>
       </c>
-      <c r="F19" s="614" t="n">
+      <c r="F19" s="615" t="n">
         <v>2.040625</v>
       </c>
-      <c r="G19" s="614" t="n">
+      <c r="G19" s="615" t="n">
         <v>8.074999999999999</v>
       </c>
-      <c r="H19" s="614" t="n">
+      <c r="H19" s="615" t="n">
         <v>18.159375</v>
       </c>
-      <c r="I19" s="614" t="n">
+      <c r="I19" s="615" t="n">
         <v>32.1953125</v>
       </c>
-      <c r="J19" s="614" t="n">
+      <c r="J19" s="615" t="n">
         <v>50.45</v>
       </c>
-      <c r="K19" s="614" t="n">
+      <c r="K19" s="615" t="n">
         <v>72.6140625</v>
       </c>
     </row>
-    <row r="21" ht="20.15" customHeight="1" s="479">
+    <row r="21" ht="20.15" customHeight="1" s="477">
       <c r="A21" s="145" t="inlineStr">
         <is>
           <t>Length</t>
@@ -27114,7 +27046,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="20.15" customHeight="1" s="479">
+    <row r="22" ht="20.15" customHeight="1" s="477">
       <c r="A22" s="145" t="inlineStr">
         <is>
           <t>Part</t>
@@ -27130,7 +27062,7 @@
       <c r="E22" s="145" t="n"/>
       <c r="F22" s="145" t="n"/>
     </row>
-    <row r="23" ht="20.15" customHeight="1" s="479">
+    <row r="23" ht="20.15" customHeight="1" s="477">
       <c r="A23" s="146" t="n">
         <v>700</v>
       </c>
@@ -27142,7 +27074,7 @@
       <c r="E23" s="147" t="n"/>
       <c r="F23" s="147" t="n"/>
     </row>
-    <row r="24" ht="20.15" customHeight="1" s="479">
+    <row r="24" ht="20.15" customHeight="1" s="477">
       <c r="A24" s="147" t="n">
         <v>600</v>
       </c>
@@ -27154,7 +27086,7 @@
       <c r="E24" s="147" t="n"/>
       <c r="F24" s="147" t="n"/>
     </row>
-    <row r="25" ht="20.15" customHeight="1" s="479">
+    <row r="25" ht="20.15" customHeight="1" s="477">
       <c r="A25" s="147" t="n">
         <v>500</v>
       </c>
@@ -27166,7 +27098,7 @@
       <c r="E25" s="147" t="n"/>
       <c r="F25" s="147" t="n"/>
     </row>
-    <row r="26" ht="20.15" customHeight="1" s="479">
+    <row r="26" ht="20.15" customHeight="1" s="477">
       <c r="A26" s="147" t="n">
         <v>400</v>
       </c>
@@ -27180,7 +27112,7 @@
       <c r="E26" s="147" t="n"/>
       <c r="F26" s="147" t="n"/>
     </row>
-    <row r="27" ht="20.15" customHeight="1" s="479">
+    <row r="27" ht="20.15" customHeight="1" s="477">
       <c r="A27" s="147" t="n">
         <v>300</v>
       </c>
@@ -27198,7 +27130,7 @@
       </c>
       <c r="F27" s="147" t="n"/>
     </row>
-    <row r="28" ht="20.15" customHeight="1" s="479">
+    <row r="28" ht="20.15" customHeight="1" s="477">
       <c r="A28" s="147" t="n">
         <v>200</v>
       </c>
@@ -27216,7 +27148,7 @@
       </c>
       <c r="F28" s="147" t="n"/>
     </row>
-    <row r="29" ht="20.15" customHeight="1" s="479">
+    <row r="29" ht="20.15" customHeight="1" s="477">
       <c r="A29" s="147" t="n">
         <v>100</v>
       </c>
@@ -27249,7 +27181,7 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" priority="2" dxfId="112">
+    <cfRule type="expression" priority="2" dxfId="113">
       <formula>$B$16&gt;$B$18</formula>
     </cfRule>
   </conditionalFormatting>
